--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/Desktop/13.01.19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2833DEC8-9653-2B40-83D2-E4E79BFB01AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67DBD1B-5672-834F-9831-20005571B399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13680" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
+    <workbookView xWindow="-51200" yWindow="-1180" windowWidth="51200" windowHeight="28340" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="118">
   <si>
     <t>Download fastq</t>
   </si>
@@ -303,17 +304,115 @@
     <t>GSM2176964_EKLF</t>
   </si>
   <si>
-    <t>OK FOR PIPELINE</t>
-  </si>
-  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>To do?</t>
+  </si>
+  <si>
+    <t>ready for pipeline</t>
+  </si>
+  <si>
+    <t>OK FOR PROCESSING</t>
+  </si>
+  <si>
+    <t>Didn't see any</t>
+  </si>
+  <si>
+    <t>High inter-chr contacts</t>
+  </si>
+  <si>
+    <t>high inter-chr contacts</t>
+  </si>
+  <si>
+    <t>https://www.encodeproject.org/matrix/?type=Experiment&amp;assay_title=Hi-C</t>
+  </si>
+  <si>
+    <t>breast consensus</t>
+  </si>
+  <si>
+    <t>lung consensus</t>
+  </si>
+  <si>
+    <t>kidney consensus</t>
+  </si>
+  <si>
+    <t>skin consensus</t>
+  </si>
+  <si>
+    <t>prostate consensus</t>
+  </si>
+  <si>
+    <t>ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951</t>
+  </si>
+  <si>
+    <t>ENCSR079VIJ_G401ENCSR401TBQ_Caki2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENCSR444WCZ_A549NCI-H460</t>
+  </si>
+  <si>
+    <t>MCF-7ENCSR549MGQ_T47D</t>
+  </si>
+  <si>
+    <t>myeloma</t>
+  </si>
+  <si>
+    <t>rhabdomyosarcoma
+(from metastatic site: bone marrow )</t>
+  </si>
+  <si>
+    <t>Neuroblastoma
+(derived from metastatic site: supra-orbital area)
+(Originally thought to be a neuroblastoma cell line but shown to be from an Askin tumor)</t>
+  </si>
+  <si>
+    <t>Neuroblastoma (derived from metastatic site: bone marrow)</t>
+  </si>
+  <si>
+    <t>myeloma consensus</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>Job Dekker, Umass</t>
+  </si>
+  <si>
+    <t>Erez Lieberman-Aiden, Baylor</t>
+  </si>
+  <si>
+    <t>MOUSE !!!</t>
+  </si>
+  <si>
+    <t>Joanna Achinger-Kawecka, Darlinghurst</t>
+  </si>
+  <si>
+    <t>Cheng Li, Peking university</t>
+  </si>
+  <si>
+    <t>John Rinn, Cambridge</t>
+  </si>
+  <si>
+    <t>pipeline run</t>
+  </si>
+  <si>
+    <t>yes (TCGAbrca_lum_bas)</t>
+  </si>
+  <si>
+    <t>yes (TCGAkich_norm_kich)</t>
+  </si>
+  <si>
+    <t>r (TCGAskcm_lowInf_highInf)
+r (TCGAskcm_wt_mutBRAF)
+r (TCGAskcm_wt_mutCTNNB1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,8 +459,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +490,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -529,11 +661,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,16 +774,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,36 +832,156 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,57 +991,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,32 +1318,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711C1783-E935-7542-9605-05C78E0501E1}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="42" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="30" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="19" style="6" customWidth="1"/>
     <col min="9" max="9" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="28" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="6"/>
+    <col min="10" max="10" width="36.1640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" style="30" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" style="30" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>92</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1052,140 +1360,168 @@
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="54" t="s">
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="53" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="54" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="62"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="62"/>
+    </row>
+    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1194,22 +1530,32 @@
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
+      <c r="H7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1218,73 +1564,95 @@
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="99" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="H8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="16" customFormat="1" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="H9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="20" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1293,24 +1661,34 @@
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="H11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1319,22 +1697,34 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="23" t="s">
+      <c r="H12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1343,24 +1733,36 @@
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="H13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1369,22 +1771,34 @@
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="23" t="s">
+      <c r="H14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1393,125 +1807,171 @@
       <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="22" customFormat="1" ht="56" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="H15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="20" customFormat="1" ht="56" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="K16" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="26" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="76" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="76" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="142" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="62"/>
+    </row>
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="143" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="80" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1520,135 +1980,463 @@
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="39" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="82"/>
+      <c r="D23" s="72" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="10"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="N26" s="35"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="56"/>
+      <c r="N27" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="56"/>
+      <c r="N28" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="56"/>
+      <c r="N30" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="56"/>
+      <c r="N31" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="N36" s="35"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38" s="35"/>
+    </row>
+    <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="35"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="29">
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -1663,8 +2451,310 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N4:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{66F0F11D-1A70-6E4E-9031-1B49983CE733}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF7C696-9BED-284A-B30E-3B23CD230C7F}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="62"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="62"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="35"/>
+    </row>
+    <row r="18" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="62"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="77"/>
+      <c r="B22" s="62"/>
+    </row>
+    <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="62"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="35"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="35"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="35"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="35"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="35"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67DBD1B-5672-834F-9831-20005571B399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A9C48-47EF-4C4E-9D6F-A953F7CC8D3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-1180" windowWidth="51200" windowHeight="28340" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="119">
   <si>
     <t>Download fastq</t>
   </si>
@@ -406,6 +406,9 @@
     <t>r (TCGAskcm_lowInf_highInf)
 r (TCGAskcm_wt_mutBRAF)
 r (TCGAskcm_wt_mutCTNNB1)</t>
+  </si>
+  <si>
+    <t>astrocyte consensus</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +512,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,6 +889,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -907,12 +925,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,16 +940,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +1017,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,7 +1354,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1377,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="1"/>
@@ -1360,20 +1393,20 @@
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="59" t="s">
         <v>87</v>
       </c>
       <c r="M2" s="57" t="s">
@@ -1409,14 +1442,14 @@
         <v>9</v>
       </c>
       <c r="I3" s="39"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="61" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="63" t="s">
         <v>115</v>
       </c>
       <c r="N3" s="35" t="s">
@@ -1445,7 +1478,7 @@
       <c r="I4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="73" t="s">
         <v>85</v>
       </c>
@@ -1455,7 +1488,7 @@
       <c r="M4" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="64" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1479,11 +1512,11 @@
       <c r="G5" s="69"/>
       <c r="H5" s="70"/>
       <c r="I5" s="67"/>
-      <c r="J5" s="52"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="73"/>
       <c r="L5" s="71"/>
       <c r="M5" s="71"/>
-      <c r="N5" s="62"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
@@ -1505,11 +1538,11 @@
       <c r="G6" s="69"/>
       <c r="H6" s="70"/>
       <c r="I6" s="68"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="73"/>
       <c r="L6" s="71"/>
       <c r="M6" s="71"/>
-      <c r="N6" s="62"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -1536,13 +1569,13 @@
       <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="56"/>
+      <c r="K7" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="93"/>
       <c r="N7" s="35" t="s">
         <v>108</v>
       </c>
@@ -1570,11 +1603,11 @@
       <c r="H8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="56"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="93"/>
       <c r="N8" s="35" t="s">
         <v>108</v>
       </c>
@@ -1604,13 +1637,13 @@
       <c r="H9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="56"/>
+      <c r="K9" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="93"/>
       <c r="N9" s="35" t="s">
         <v>108</v>
       </c>
@@ -1637,9 +1670,9 @@
       <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="56"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="35" t="s">
         <v>111</v>
       </c>
@@ -1667,13 +1700,13 @@
       <c r="H11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="56"/>
+      <c r="K11" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="93"/>
       <c r="N11" s="35" t="s">
         <v>108</v>
       </c>
@@ -1703,13 +1736,13 @@
       <c r="H12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="61" t="s">
+      <c r="K12" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="63" t="s">
         <v>116</v>
       </c>
       <c r="N12" s="35" t="s">
@@ -1739,13 +1772,13 @@
       <c r="H13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="61" t="s">
+      <c r="K13" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="63" t="s">
         <v>116</v>
       </c>
       <c r="N13" s="35" t="s">
@@ -1777,10 +1810,10 @@
       <c r="H14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="60" t="s">
+      <c r="K14" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="61" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="87" t="s">
@@ -1813,10 +1846,10 @@
       <c r="H15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="60" t="s">
+      <c r="K15" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="61" t="s">
         <v>85</v>
       </c>
       <c r="M15" s="87" t="s">
@@ -1854,13 +1887,13 @@
       <c r="I16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="56"/>
+      <c r="K16" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="93"/>
       <c r="N16" s="35" t="s">
         <v>109</v>
       </c>
@@ -1884,10 +1917,10 @@
       <c r="F17" s="5"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="35"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="91"/>
     </row>
     <row r="18" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
@@ -1907,10 +1940,10 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="62" t="s">
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="64" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1930,10 +1963,10 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="62"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="143" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
@@ -1956,9 +1989,9 @@
       <c r="H20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="56"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="93"/>
       <c r="N20" s="35" t="s">
         <v>108</v>
       </c>
@@ -1982,10 +2015,10 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="62" t="s">
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="64" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1996,10 +2029,10 @@
       <c r="D22" s="80"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="62"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74"/>
@@ -2015,10 +2048,10 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="62" t="s">
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="64" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2032,10 +2065,10 @@
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="62"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="64"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G25" s="20"/>
@@ -2048,7 +2081,7 @@
       <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="40" t="s">
@@ -2064,29 +2097,29 @@
       <c r="F27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44" t="s">
+      <c r="H27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M27" s="56"/>
+      <c r="K27" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="92"/>
       <c r="N27" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -2102,29 +2135,29 @@
       <c r="F28" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44" t="s">
+      <c r="H28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="56"/>
+      <c r="K28" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="92"/>
       <c r="N28" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="40" t="s">
@@ -2140,23 +2173,23 @@
       <c r="F29" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="35" t="s">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="91" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="40" t="s">
@@ -2172,29 +2205,29 @@
       <c r="F30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44" t="s">
+      <c r="H30" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="56"/>
+      <c r="K30" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="92"/>
       <c r="N30" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="56" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -2210,23 +2243,23 @@
       <c r="F31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44" t="s">
+      <c r="H31" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L31" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="56"/>
+      <c r="K31" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="92"/>
       <c r="N31" s="35" t="s">
         <v>108</v>
       </c>
@@ -2248,55 +2281,69 @@
       <c r="F32" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="35" t="s">
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="M32" s="56" t="s">
+      <c r="M32" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="N32" s="35"/>
+      <c r="N32" s="91"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="A35" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="91"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -2306,23 +2353,23 @@
       <c r="D36" s="40"/>
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M36" s="61" t="s">
+      <c r="K36" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="N36" s="35"/>
+      <c r="N36" s="91"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -2332,21 +2379,21 @@
       <c r="D37" s="40"/>
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
+      <c r="K37" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="88"/>
+      <c r="N37" s="91"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>95</v>
       </c>
       <c r="B38" s="35" t="s">
@@ -2356,23 +2403,23 @@
       <c r="D38" s="40"/>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M38" s="61" t="s">
+      <c r="K38" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="35"/>
+      <c r="N38" s="91"/>
     </row>
     <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -2382,23 +2429,23 @@
       <c r="D39" s="40"/>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" s="60" t="s">
+      <c r="K39" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L39" s="61" t="s">
         <v>85</v>
       </c>
       <c r="M39" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="N39" s="35"/>
+      <c r="N39" s="91"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="55" t="s">
         <v>97</v>
       </c>
       <c r="B40" s="35"/>
@@ -2406,17 +2453,17 @@
       <c r="D40" s="40"/>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="55" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="35"/>
@@ -2424,17 +2471,25 @@
       <c r="D41" s="40"/>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
+      <c r="K41" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="A14:A15"/>
@@ -2507,7 +2562,7 @@
       <c r="A4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="64" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2515,13 +2570,13 @@
       <c r="A5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="64"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
@@ -2613,7 +2668,7 @@
       <c r="A18" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="64" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2621,7 +2676,7 @@
       <c r="A19" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="64"/>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -2635,25 +2690,25 @@
       <c r="A21" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="77"/>
-      <c r="B22" s="62"/>
+      <c r="B22" s="64"/>
     </row>
     <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
-      <c r="B24" s="62"/>
+      <c r="B24" s="64"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>
@@ -2708,10 +2763,10 @@
       <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A9C48-47EF-4C4E-9D6F-A953F7CC8D3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED6D3B-A0C3-E54A-928E-AA035A24C548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-1180" windowWidth="51200" windowHeight="28340" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="122">
   <si>
     <t>Download fastq</t>
   </si>
@@ -403,12 +403,24 @@
     <t>yes (TCGAkich_norm_kich)</t>
   </si>
   <si>
-    <t>r (TCGAskcm_lowInf_highInf)
-r (TCGAskcm_wt_mutBRAF)
-r (TCGAskcm_wt_mutCTNNB1)</t>
-  </si>
-  <si>
     <t>astrocyte consensus</t>
+  </si>
+  <si>
+    <t>r (TCGAluad_mutKRAS_mutEGFR)
+r (TCGAluad_nonsmoker_smoker)</t>
+  </si>
+  <si>
+    <t>yes (TCGAskcm_lowInf_highInf)
+yes (TCGAskcm_wt_mutBRAF)
+yes (TCGAskcm_wt_mutCTNNB1)</t>
+  </si>
+  <si>
+    <t>yes  (TCGAskcm_lowInf_highInf)
+yes  (TCGAskcm_wt_mutBRAF)
+yes (TCGAskcm_wt_mutCTNNB1)</t>
+  </si>
+  <si>
+    <t>r (TCGAlaml_wt_mutFLT3)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,6 +958,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,26 +1036,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,7 +1378,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1441,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -1449,7 +1473,7 @@
       <c r="L3" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="64" t="s">
         <v>115</v>
       </c>
       <c r="N3" s="35" t="s">
@@ -1457,8 +1481,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -1473,34 +1497,34 @@
       <c r="F4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="66" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="67" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="71" t="s">
+      <c r="K4" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="87" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="37" t="s">
@@ -1509,24 +1533,24 @@
       <c r="F5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="67"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="64"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="87" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="37" t="s">
@@ -1535,17 +1559,17 @@
       <c r="F6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="68"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="7" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -1575,13 +1599,15 @@
       <c r="L7" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="93"/>
+      <c r="M7" s="88" t="s">
+        <v>118</v>
+      </c>
       <c r="N7" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+    <row r="8" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1607,7 +1633,9 @@
       <c r="L8" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="93"/>
+      <c r="M8" s="88" t="s">
+        <v>118</v>
+      </c>
       <c r="N8" s="35" t="s">
         <v>108</v>
       </c>
@@ -1643,13 +1671,13 @@
       <c r="L9" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="93"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1670,15 +1698,15 @@
       <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
@@ -1706,13 +1734,13 @@
       <c r="L11" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="93"/>
+      <c r="M11" s="94"/>
       <c r="N11" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1742,7 +1770,7 @@
       <c r="L12" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>116</v>
       </c>
       <c r="N12" s="35" t="s">
@@ -1750,7 +1778,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="21" t="s">
         <v>43</v>
       </c>
@@ -1778,7 +1806,7 @@
       <c r="L13" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="64" t="s">
         <v>116</v>
       </c>
       <c r="N13" s="35" t="s">
@@ -1786,7 +1814,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1816,15 +1844,15 @@
       <c r="L14" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="87" t="s">
-        <v>117</v>
+      <c r="M14" s="95" t="s">
+        <v>120</v>
       </c>
       <c r="N14" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
@@ -1852,8 +1880,8 @@
       <c r="L15" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="87" t="s">
-        <v>117</v>
+      <c r="M15" s="95" t="s">
+        <v>119</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>108</v>
@@ -1893,7 +1921,9 @@
       <c r="L16" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="93"/>
+      <c r="M16" s="62" t="s">
+        <v>121</v>
+      </c>
       <c r="N16" s="35" t="s">
         <v>109</v>
       </c>
@@ -1917,22 +1947,22 @@
       <c r="F17" s="5"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="92"/>
     </row>
     <row r="18" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="77" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1940,22 +1970,22 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="64" t="s">
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="77" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1963,10 +1993,10 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="64"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="65"/>
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="143" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
@@ -1989,22 +2019,22 @@
       <c r="H20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="93"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="80" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="81" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2015,32 +2045,32 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="64" t="s">
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="64"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="81" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="72" t="s">
+      <c r="C23" s="83"/>
+      <c r="D23" s="73" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2048,27 +2078,27 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="64" t="s">
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="72"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="64"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="65"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G25" s="20"/>
@@ -2113,7 +2143,7 @@
       <c r="L27" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="92"/>
+      <c r="M27" s="93"/>
       <c r="N27" s="35" t="s">
         <v>112</v>
       </c>
@@ -2151,7 +2181,7 @@
       <c r="L28" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M28" s="92"/>
+      <c r="M28" s="93"/>
       <c r="N28" s="35" t="s">
         <v>112</v>
       </c>
@@ -2181,10 +2211,10 @@
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="91" t="s">
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="92" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2221,7 +2251,7 @@
       <c r="L30" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M30" s="92"/>
+      <c r="M30" s="93"/>
       <c r="N30" s="35" t="s">
         <v>108</v>
       </c>
@@ -2259,7 +2289,7 @@
       <c r="L31" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M31" s="92"/>
+      <c r="M31" s="93"/>
       <c r="N31" s="35" t="s">
         <v>108</v>
       </c>
@@ -2285,16 +2315,16 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="91" t="s">
+      <c r="K32" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="91" t="s">
+      <c r="L32" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="M32" s="92" t="s">
+      <c r="M32" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="N32" s="91"/>
+      <c r="N32" s="92"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2326,7 +2356,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
@@ -2337,10 +2367,10 @@
       <c r="H35" s="45"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="91"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="92"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
@@ -2363,12 +2393,12 @@
       <c r="L36" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M36" s="63" t="s">
+      <c r="M36" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="N36" s="91"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N36" s="92"/>
+    </row>
+    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
         <v>94</v>
       </c>
@@ -2389,8 +2419,10 @@
       <c r="L37" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M37" s="88"/>
-      <c r="N37" s="91"/>
+      <c r="M37" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="92"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
@@ -2413,10 +2445,10 @@
       <c r="L38" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="63" t="s">
+      <c r="M38" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="91"/>
+      <c r="N38" s="92"/>
     </row>
     <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
@@ -2439,10 +2471,10 @@
       <c r="L39" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M39" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="N39" s="91"/>
+      <c r="M39" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="92"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="55" t="s">
@@ -2457,10 +2489,10 @@
       <c r="H40" s="45"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="91"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="92"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="55" t="s">
@@ -2475,14 +2507,14 @@
       <c r="H41" s="45"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
-      <c r="K41" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
+      <c r="K41" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -2559,24 +2591,24 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
@@ -2665,18 +2697,18 @@
       <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="65"/>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -2687,28 +2719,28 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="65"/>
     </row>
     <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="65"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED6D3B-A0C3-E54A-928E-AA035A24C548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737DA97-3FA2-AF4D-9AD6-21B3B00A389F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-1180" windowWidth="51200" windowHeight="28340" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
+    <workbookView xWindow="-51180" yWindow="-1180" windowWidth="51200" windowHeight="28340" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,6 @@
     <t>astrocyte consensus</t>
   </si>
   <si>
-    <t>r (TCGAluad_mutKRAS_mutEGFR)
-r (TCGAluad_nonsmoker_smoker)</t>
-  </si>
-  <si>
     <t>yes (TCGAskcm_lowInf_highInf)
 yes (TCGAskcm_wt_mutBRAF)
 yes (TCGAskcm_wt_mutCTNNB1)</t>
@@ -421,6 +417,11 @@
   </si>
   <si>
     <t>r (TCGAlaml_wt_mutFLT3)</t>
+  </si>
+  <si>
+    <t>r (TCGAluad_mutKRAS_mutEGFR)
+r (TCGAluad_nonsmoker_smoker)
+r (TCGAluad_wt_mutKRAS)</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1379,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,7 +1569,7 @@
       <c r="M6" s="72"/>
       <c r="N6" s="65"/>
     </row>
-    <row r="7" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>21</v>
       </c>
@@ -1600,13 +1601,13 @@
         <v>85</v>
       </c>
       <c r="M7" s="88" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
@@ -1634,7 +1635,7 @@
         <v>85</v>
       </c>
       <c r="M8" s="88" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>108</v>
@@ -1845,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="M14" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N14" s="35" t="s">
         <v>108</v>
@@ -1881,7 +1882,7 @@
         <v>85</v>
       </c>
       <c r="M15" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>108</v>
@@ -1922,7 +1923,7 @@
         <v>85</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N16" s="35" t="s">
         <v>109</v>
@@ -2398,7 +2399,7 @@
       </c>
       <c r="N36" s="92"/>
     </row>
-    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
         <v>94</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="M37" s="88" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N37" s="92"/>
     </row>
@@ -2472,7 +2473,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N39" s="92"/>
     </row>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737DA97-3FA2-AF4D-9AD6-21B3B00A389F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10D357-AF23-7848-B237-D2F35F5D4997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51180" yWindow="-1180" windowWidth="51200" windowHeight="28340" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
+    <workbookView xWindow="-51180" yWindow="-1180" windowWidth="51200" windowHeight="26980" activeTab="2" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="182">
   <si>
     <t>Download fastq</t>
   </si>
@@ -411,24 +412,264 @@
 yes (TCGAskcm_wt_mutCTNNB1)</t>
   </si>
   <si>
-    <t>yes  (TCGAskcm_lowInf_highInf)
+    <t>yes  (TCGAluad_mutKRAS_mutEGFR)
+yes (TCGAluad_nonsmoker_smoker)
+yes  (TCGAluad_wt_mutKRAS)</t>
+  </si>
+  <si>
+    <t>yes (TCGAlaml_wt_mutFLT3)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yes  (TCGAskcm_lowInf_highInf)
 yes  (TCGAskcm_wt_mutBRAF)
-yes (TCGAskcm_wt_mutCTNNB1)</t>
-  </si>
-  <si>
-    <t>r (TCGAlaml_wt_mutFLT3)</t>
-  </si>
-  <si>
-    <t>r (TCGAluad_mutKRAS_mutEGFR)
-r (TCGAluad_nonsmoker_smoker)
-r (TCGAluad_wt_mutKRAS)</t>
+yes (TCGAskcm_wt_mutCTNNB1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r (TCGAlusc_norm_lusc)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yes (TCGAskcm_lowInf_highInf)
+yes (TCGAskcm_wt_mutBRAF)
+yes (TCGAskcm_wt_mutCTNNB1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r (TCGAlusc_norm_lusc)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yes  (TCGAluad_mutKRAS_mutEGFR)
+yes (TCGAluad_nonsmoker_smoker)
+yes  (TCGAluad_wt_mutKRAS)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r (TCGAlusc_norm_lusc)</t>
+    </r>
+  </si>
+  <si>
+    <t>r (TCGApaad_wt_mutKRAS)</t>
+  </si>
+  <si>
+    <t>r (TCGAprad_norm_prad)</t>
+  </si>
+  <si>
+    <t>ENCSR401TBQ_Caki2_40kb</t>
+  </si>
+  <si>
+    <t>TCGAkich_norm_kich</t>
+  </si>
+  <si>
+    <t>ENCSR079VIJ_G401ENCSR401TBQ_Caki2_40kb</t>
+  </si>
+  <si>
+    <t>ENCSR312KHQ_SK-MEL-5_40kb</t>
+  </si>
+  <si>
+    <t>TCGAskcm_lowInf_highInf</t>
+  </si>
+  <si>
+    <t>TCGAskcm_wt_mutBRAF</t>
+  </si>
+  <si>
+    <t>TCGAskcm_wt_mutCTNNB1</t>
+  </si>
+  <si>
+    <t>ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>ENCSR346DCU_LNCaP_40kb</t>
+  </si>
+  <si>
+    <t>TCGAprad_norm_prad</t>
+  </si>
+  <si>
+    <t>ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t>TCGAluad_mutKRAS_mutEGFR</t>
+  </si>
+  <si>
+    <t>TCGAluad_nonsmoker_smoker</t>
+  </si>
+  <si>
+    <t>TCGAluad_wt_mutKRAS</t>
+  </si>
+  <si>
+    <t>TCGAlusc_norm_lusc</t>
+  </si>
+  <si>
+    <t>NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t>ENCSR444WCZ_A549NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t>K562_40kb</t>
+  </si>
+  <si>
+    <t>TCGAlaml_wt_mutFLT3</t>
+  </si>
+  <si>
+    <t>MCF-7_40kb</t>
+  </si>
+  <si>
+    <t>TCGAbrca_lum_bas</t>
+  </si>
+  <si>
+    <t>ENCSR549MGQ_T47D_40kb</t>
+  </si>
+  <si>
+    <t>MCF-7ENCSR549MGQ_T47D_40kb</t>
+  </si>
+  <si>
+    <t>Panc1_rep12_40kb</t>
+  </si>
+  <si>
+    <t>TCGApaad_wt_mutKRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript cmp_datasets_matching.R
+Rscript cmp_datasets_MoC.R
+Rscript cmp_datasets_nbrTADs.R
+Rscript cmp_datasets_resol.R
+</t>
+  </si>
+  <si>
+    <t>ENCSR079VIJ_G401_40kb</t>
+  </si>
+  <si>
+    <t>Rscript check_matResol.R &lt;hicds&gt;</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh &lt;hicds&gt; &lt;exprds&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R &lt;hicds&gt; &lt;exprds&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R &lt;hicds&gt; &lt;exprds&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R &lt;exprds&gt; &lt;hicds&gt;
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; &lt;hicds&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
+Rscript create_dist_sortNoDup_otherTADfile.R &lt;hicds&gt;
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameFam.sh:
+Rscript prep_gene_families_TAD_data_otherTADfile.R &lt;hicds&gt;
+Rscript create_sameFamily_sortNoDup_otherFamFile.R &lt;hicds&gt;</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameTAD.sh:
+Rscript create_sameTAD_sortNoDup_otherTADfile.R &lt;hicds&gt;</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R &lt;hicds&gt; &lt;exprds&gt;</t>
+  </si>
+  <si>
+    <t>prostate cl2</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>prostate</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>lymphoblast</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R Panc1_rep12_40kb TCGApaad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R Panc1_rep12_40kb TCGApaad_wt_mutKRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R Panc1_rep12_40kb TCGApaad_wt_mutKRAS</t>
+  </si>
+  <si>
+    <t>colorectal</t>
+  </si>
+  <si>
+    <t>glioma</t>
+  </si>
+  <si>
+    <t>astrocyte cl1</t>
+  </si>
+  <si>
+    <t>astrocyte cl2</t>
+  </si>
+  <si>
+    <t>exprds1</t>
+  </si>
+  <si>
+    <t>exprds2</t>
+  </si>
+  <si>
+    <t>exprds3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,8 +731,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,12 +774,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,12 +1211,81 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,77 +1301,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1378,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711C1783-E935-7542-9605-05C78E0501E1}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,22 +1782,22 @@
       <c r="F4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="67" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="90" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="89" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1534,14 +1818,14 @@
       <c r="F5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="68"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="65"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="85"/>
@@ -1560,17 +1844,17 @@
       <c r="F6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="69"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="65"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="74" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -1600,15 +1884,15 @@
       <c r="L7" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="88" t="s">
-        <v>121</v>
+      <c r="M7" s="69" t="s">
+        <v>119</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1634,8 +1918,8 @@
       <c r="L8" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="88" t="s">
-        <v>121</v>
+      <c r="M8" s="69" t="s">
+        <v>119</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>108</v>
@@ -1672,13 +1956,15 @@
       <c r="L9" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="94"/>
+      <c r="M9" s="62" t="s">
+        <v>124</v>
+      </c>
       <c r="N9" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="74" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1699,15 +1985,15 @@
       <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
       <c r="N10" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
@@ -1735,13 +2021,15 @@
       <c r="L11" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="94"/>
+      <c r="M11" s="62" t="s">
+        <v>125</v>
+      </c>
       <c r="N11" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="74" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1779,7 +2067,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="21" t="s">
         <v>43</v>
       </c>
@@ -1814,8 +2102,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1845,15 +2133,15 @@
       <c r="L14" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="95" t="s">
-        <v>119</v>
+      <c r="M14" s="69" t="s">
+        <v>121</v>
       </c>
       <c r="N14" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+    <row r="15" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
       <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
@@ -1881,8 +2169,8 @@
       <c r="L15" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="95" t="s">
-        <v>118</v>
+      <c r="M15" s="69" t="s">
+        <v>122</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>108</v>
@@ -1922,7 +2210,7 @@
       <c r="L16" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="62" t="s">
+      <c r="M16" s="95" t="s">
         <v>120</v>
       </c>
       <c r="N16" s="35" t="s">
@@ -1948,10 +2236,10 @@
       <c r="F17" s="5"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="92"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
@@ -1971,10 +2259,10 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="65" t="s">
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="89" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1994,10 +2282,10 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="65"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="143" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
@@ -2020,9 +2308,9 @@
       <c r="H20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="94"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="68"/>
       <c r="N20" s="35" t="s">
         <v>108</v>
       </c>
@@ -2046,10 +2334,10 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="65" t="s">
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="89" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2060,10 +2348,10 @@
       <c r="D22" s="81"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="65"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="89"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
@@ -2071,7 +2359,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="83"/>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2079,10 +2367,10 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="65" t="s">
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="89" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2090,16 +2378,16 @@
       <c r="A24" s="75"/>
       <c r="B24" s="82"/>
       <c r="C24" s="84"/>
-      <c r="D24" s="73"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="65"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="89"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G25" s="20"/>
@@ -2144,7 +2432,7 @@
       <c r="L27" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="93"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="35" t="s">
         <v>112</v>
       </c>
@@ -2182,7 +2470,7 @@
       <c r="L28" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M28" s="93"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="35" t="s">
         <v>112</v>
       </c>
@@ -2212,10 +2500,10 @@
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="92" t="s">
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="66" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2252,7 +2540,7 @@
       <c r="L30" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M30" s="93"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="35" t="s">
         <v>108</v>
       </c>
@@ -2290,7 +2578,7 @@
       <c r="L31" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M31" s="93"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="35" t="s">
         <v>108</v>
       </c>
@@ -2316,16 +2604,16 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="92" t="s">
+      <c r="K32" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="92" t="s">
+      <c r="L32" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="M32" s="93" t="s">
+      <c r="M32" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="N32" s="92"/>
+      <c r="N32" s="66"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2368,10 +2656,10 @@
       <c r="H35" s="45"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="92"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
@@ -2397,9 +2685,9 @@
       <c r="M36" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="N36" s="92"/>
-    </row>
-    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N36" s="66"/>
+    </row>
+    <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
         <v>94</v>
       </c>
@@ -2420,10 +2708,10 @@
       <c r="L37" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M37" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="N37" s="92"/>
+      <c r="M37" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" s="66"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
@@ -2449,7 +2737,7 @@
       <c r="M38" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="92"/>
+      <c r="N38" s="66"/>
     </row>
     <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
@@ -2472,10 +2760,10 @@
       <c r="L39" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M39" s="95" t="s">
+      <c r="M39" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="N39" s="92"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="55" t="s">
@@ -2490,10 +2778,10 @@
       <c r="H40" s="45"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="92"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="66"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="55" t="s">
@@ -2514,31 +2802,16 @@
       <c r="L41" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="N4:N6"/>
@@ -2547,11 +2820,26 @@
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:H6"/>
     <mergeCell ref="L4:L6"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{66F0F11D-1A70-6E4E-9031-1B49983CE733}"/>
@@ -2595,7 +2883,7 @@
       <c r="A4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="89" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2603,13 +2891,13 @@
       <c r="A5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="89"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="89"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
@@ -2701,7 +2989,7 @@
       <c r="A18" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="89" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2709,7 +2997,7 @@
       <c r="A19" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="89"/>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -2723,25 +3011,25 @@
       <c r="A21" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="89" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
-      <c r="B22" s="65"/>
+      <c r="B22" s="89"/>
     </row>
     <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="89" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="89"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>
@@ -2846,4 +3134,3440 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12159EBC-74A8-9F4E-B7BF-F6DB1EFDA443}">
+  <dimension ref="A2:G276"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40" style="102" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="73.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E3" s="98"/>
+      <c r="F3" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E5" s="98"/>
+      <c r="F5" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="100"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="100"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="100"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="100"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="100"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="100"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="100"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="100"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="100"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="100"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="100"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="100"/>
+      <c r="B38" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="100"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E39" s="98"/>
+      <c r="F39" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E40" s="98"/>
+      <c r="F40" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E41" s="98"/>
+      <c r="F41" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="100"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="100"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="100"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="100"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="100"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="100"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="100"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="100"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="100"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="100"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="100"/>
+      <c r="B56" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="100"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E57" s="98"/>
+      <c r="F57" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="100"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E58" s="98"/>
+      <c r="F58" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="100"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E59" s="98"/>
+      <c r="F59" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="100"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="100"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="100"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="100"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="100"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="100"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G65" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="100"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="100"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="100"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="100"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="100"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="100"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="100"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="100"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E74" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A75" s="100"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E75" s="104"/>
+      <c r="F75" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="100"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E76" s="104"/>
+      <c r="F76" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="100"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E77" s="104"/>
+      <c r="F77" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="100"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="100"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="100"/>
+      <c r="B80" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="107"/>
+      <c r="E80" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="107"/>
+    </row>
+    <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" s="100"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="107"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="107"/>
+    </row>
+    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="100"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="107"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="G82" s="107"/>
+    </row>
+    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="100"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="107"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="107"/>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="100"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="G84" s="107"/>
+    </row>
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="100"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="107"/>
+    </row>
+    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="100"/>
+      <c r="B86" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="107"/>
+      <c r="E86" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="107"/>
+    </row>
+    <row r="87" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A87" s="100"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="107"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="107"/>
+    </row>
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="100"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="107"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="107"/>
+    </row>
+    <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="100"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="107"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="G89" s="107"/>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="100"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" s="107"/>
+    </row>
+    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="100"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" s="107"/>
+    </row>
+    <row r="92" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A92" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E92" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G92" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A93" s="100"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E93" s="98"/>
+      <c r="F93" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="100"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E94" s="98"/>
+      <c r="F94" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G94" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A95" s="100"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E95" s="98"/>
+      <c r="F95" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="100"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="98"/>
+      <c r="E96" s="98"/>
+      <c r="F96" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="100"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="100"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="100"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="100"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="98"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A101" s="100"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="100"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="98"/>
+      <c r="E102" s="98"/>
+      <c r="F102" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="100"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="100"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G104" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="100"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="98"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="100"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="100"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="98"/>
+      <c r="E107" s="98"/>
+      <c r="F107" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G107" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="100"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="98"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G108" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="100"/>
+      <c r="B109" s="101"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G109" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="100"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G110" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="100"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="98"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="100"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="100"/>
+      <c r="B113" s="101"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G113" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="100"/>
+      <c r="B114" s="101"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G114" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="100"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G115" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="100"/>
+      <c r="B116" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E116" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G116" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A117" s="100"/>
+      <c r="B117" s="101"/>
+      <c r="C117" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E117" s="98"/>
+      <c r="F117" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G117" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="100"/>
+      <c r="B118" s="101"/>
+      <c r="C118" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D118" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E118" s="98"/>
+      <c r="F118" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G118" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="100"/>
+      <c r="B119" s="101"/>
+      <c r="C119" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E119" s="98"/>
+      <c r="F119" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G119" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="100"/>
+      <c r="B120" s="101"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G120" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="100"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="98"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G121" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="100"/>
+      <c r="B122" s="101"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G122" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="100"/>
+      <c r="B123" s="101"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="98"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="100"/>
+      <c r="B124" s="101"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G124" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="100"/>
+      <c r="B125" s="101"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G125" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="100"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="98"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="100"/>
+      <c r="B127" s="101"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G127" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="100"/>
+      <c r="B128" s="101"/>
+      <c r="C128" s="98"/>
+      <c r="D128" s="98"/>
+      <c r="E128" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F128" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G128" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="100"/>
+      <c r="B129" s="101"/>
+      <c r="C129" s="98"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G129" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="100"/>
+      <c r="B130" s="101"/>
+      <c r="C130" s="98"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G130" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="100"/>
+      <c r="B131" s="101"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G131" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="100"/>
+      <c r="B132" s="101"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="98"/>
+      <c r="E132" s="98"/>
+      <c r="F132" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G132" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="100"/>
+      <c r="B133" s="101"/>
+      <c r="C133" s="98"/>
+      <c r="D133" s="98"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G133" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="100"/>
+      <c r="B134" s="101"/>
+      <c r="C134" s="98"/>
+      <c r="D134" s="98"/>
+      <c r="E134" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F134" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G134" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="100"/>
+      <c r="B135" s="101"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G135" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" s="100"/>
+      <c r="B136" s="101"/>
+      <c r="C136" s="98"/>
+      <c r="D136" s="98"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G136" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="100"/>
+      <c r="B137" s="101"/>
+      <c r="C137" s="98"/>
+      <c r="D137" s="98"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G137" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="100"/>
+      <c r="B138" s="101"/>
+      <c r="C138" s="98"/>
+      <c r="D138" s="98"/>
+      <c r="E138" s="98"/>
+      <c r="F138" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G138" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="100"/>
+      <c r="B139" s="101"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="98"/>
+      <c r="E139" s="98"/>
+      <c r="F139" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G139" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A140" s="100"/>
+      <c r="B140" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D140" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E140" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G140" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A141" s="100"/>
+      <c r="B141" s="101"/>
+      <c r="C141" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D141" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E141" s="98"/>
+      <c r="F141" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" s="100"/>
+      <c r="B142" s="101"/>
+      <c r="C142" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E142" s="98"/>
+      <c r="F142" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G142" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A143" s="100"/>
+      <c r="B143" s="101"/>
+      <c r="C143" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E143" s="98"/>
+      <c r="F143" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G143" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="100"/>
+      <c r="B144" s="101"/>
+      <c r="C144" s="98"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="98"/>
+      <c r="F144" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G144" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="100"/>
+      <c r="B145" s="101"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98"/>
+      <c r="F145" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G145" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="100"/>
+      <c r="B146" s="101"/>
+      <c r="C146" s="98"/>
+      <c r="D146" s="98"/>
+      <c r="E146" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G146" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="100"/>
+      <c r="B147" s="101"/>
+      <c r="C147" s="98"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G147" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" s="100"/>
+      <c r="B148" s="101"/>
+      <c r="C148" s="98"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
+      <c r="F148" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G148" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A149" s="100"/>
+      <c r="B149" s="101"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="98"/>
+      <c r="E149" s="98"/>
+      <c r="F149" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G149" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="100"/>
+      <c r="B150" s="101"/>
+      <c r="C150" s="98"/>
+      <c r="D150" s="98"/>
+      <c r="E150" s="98"/>
+      <c r="F150" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G150" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="100"/>
+      <c r="B151" s="101"/>
+      <c r="C151" s="98"/>
+      <c r="D151" s="98"/>
+      <c r="E151" s="98"/>
+      <c r="F151" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G151" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="100"/>
+      <c r="B152" s="101"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F152" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G152" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="100"/>
+      <c r="B153" s="101"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="98"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G153" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="100"/>
+      <c r="B154" s="101"/>
+      <c r="C154" s="98"/>
+      <c r="D154" s="98"/>
+      <c r="E154" s="98"/>
+      <c r="F154" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G154" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" s="100"/>
+      <c r="B155" s="101"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="98"/>
+      <c r="E155" s="98"/>
+      <c r="F155" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G155" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="100"/>
+      <c r="B156" s="101"/>
+      <c r="C156" s="98"/>
+      <c r="D156" s="98"/>
+      <c r="E156" s="98"/>
+      <c r="F156" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G156" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="100"/>
+      <c r="B157" s="101"/>
+      <c r="C157" s="98"/>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G157" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="100"/>
+      <c r="B158" s="101"/>
+      <c r="C158" s="98"/>
+      <c r="D158" s="98"/>
+      <c r="E158" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F158" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G158" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="100"/>
+      <c r="B159" s="101"/>
+      <c r="C159" s="98"/>
+      <c r="D159" s="98"/>
+      <c r="E159" s="98"/>
+      <c r="F159" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G159" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="100"/>
+      <c r="B160" s="101"/>
+      <c r="C160" s="98"/>
+      <c r="D160" s="98"/>
+      <c r="E160" s="98"/>
+      <c r="F160" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G160" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A161" s="100"/>
+      <c r="B161" s="101"/>
+      <c r="C161" s="98"/>
+      <c r="D161" s="98"/>
+      <c r="E161" s="98"/>
+      <c r="F161" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G161" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="100"/>
+      <c r="B162" s="101"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G162" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="100"/>
+      <c r="B163" s="101"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="98"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G163" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C164" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D164" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E164" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="F164" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G164" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A165" s="100"/>
+      <c r="B165" s="101"/>
+      <c r="C165" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D165" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E165" s="98"/>
+      <c r="F165" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G165" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A166" s="100"/>
+      <c r="B166" s="101"/>
+      <c r="C166" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E166" s="98"/>
+      <c r="F166" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G166" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="100"/>
+      <c r="B167" s="101"/>
+      <c r="C167" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D167" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E167" s="98"/>
+      <c r="F167" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G167" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="100"/>
+      <c r="B168" s="101"/>
+      <c r="C168" s="98"/>
+      <c r="D168" s="98"/>
+      <c r="E168" s="98"/>
+      <c r="F168" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G168" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A169" s="100"/>
+      <c r="B169" s="101"/>
+      <c r="C169" s="98"/>
+      <c r="D169" s="98"/>
+      <c r="E169" s="98"/>
+      <c r="F169" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A170" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C170" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D170" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E170" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F170" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G170" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A171" s="100"/>
+      <c r="B171" s="101"/>
+      <c r="C171" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D171" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E171" s="98"/>
+      <c r="F171" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G171" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" s="100"/>
+      <c r="B172" s="101"/>
+      <c r="C172" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D172" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E172" s="98"/>
+      <c r="F172" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G172" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A173" s="100"/>
+      <c r="B173" s="101"/>
+      <c r="C173" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D173" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E173" s="98"/>
+      <c r="F173" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G173" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="100"/>
+      <c r="B174" s="101"/>
+      <c r="C174" s="98"/>
+      <c r="D174" s="98"/>
+      <c r="E174" s="98"/>
+      <c r="F174" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G174" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="100"/>
+      <c r="B175" s="101"/>
+      <c r="C175" s="98"/>
+      <c r="D175" s="98"/>
+      <c r="E175" s="98"/>
+      <c r="F175" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G175" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A176" s="100"/>
+      <c r="B176" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D176" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E176" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F176" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G176" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A177" s="100"/>
+      <c r="B177" s="101"/>
+      <c r="C177" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D177" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E177" s="98"/>
+      <c r="F177" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G177" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" s="100"/>
+      <c r="B178" s="101"/>
+      <c r="C178" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D178" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E178" s="98"/>
+      <c r="F178" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G178" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A179" s="100"/>
+      <c r="B179" s="101"/>
+      <c r="C179" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D179" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E179" s="98"/>
+      <c r="F179" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G179" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="100"/>
+      <c r="B180" s="101"/>
+      <c r="C180" s="98"/>
+      <c r="D180" s="98"/>
+      <c r="E180" s="98"/>
+      <c r="F180" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G180" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A181" s="100"/>
+      <c r="B181" s="101"/>
+      <c r="C181" s="98"/>
+      <c r="D181" s="98"/>
+      <c r="E181" s="98"/>
+      <c r="F181" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G181" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A182" s="100"/>
+      <c r="B182" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D182" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E182" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F182" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G182" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A183" s="100"/>
+      <c r="B183" s="101"/>
+      <c r="C183" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D183" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E183" s="98"/>
+      <c r="F183" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G183" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" s="100"/>
+      <c r="B184" s="101"/>
+      <c r="C184" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E184" s="98"/>
+      <c r="F184" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G184" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A185" s="100"/>
+      <c r="B185" s="101"/>
+      <c r="C185" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D185" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E185" s="98"/>
+      <c r="F185" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G185" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="100"/>
+      <c r="B186" s="101"/>
+      <c r="C186" s="98"/>
+      <c r="D186" s="98"/>
+      <c r="E186" s="98"/>
+      <c r="F186" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G186" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A187" s="100"/>
+      <c r="B187" s="101"/>
+      <c r="C187" s="98"/>
+      <c r="D187" s="98"/>
+      <c r="E187" s="98"/>
+      <c r="F187" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G187" s="99">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A188" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D188" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E188" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F188" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G188" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A189" s="100"/>
+      <c r="B189" s="101"/>
+      <c r="C189" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D189" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E189" s="104"/>
+      <c r="F189" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G189" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="100"/>
+      <c r="B190" s="101"/>
+      <c r="C190" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D190" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E190" s="104"/>
+      <c r="F190" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="G190" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" s="100"/>
+      <c r="B191" s="101"/>
+      <c r="C191" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D191" s="99">
+        <v>43480</v>
+      </c>
+      <c r="E191" s="104"/>
+      <c r="F191" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="G191" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="100"/>
+      <c r="B192" s="101"/>
+      <c r="C192" s="98"/>
+      <c r="D192" s="98"/>
+      <c r="E192" s="104"/>
+      <c r="F192" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="G192" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A193" s="100"/>
+      <c r="B193" s="101"/>
+      <c r="C193" s="98"/>
+      <c r="D193" s="98"/>
+      <c r="E193" s="104"/>
+      <c r="F193" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G193" s="99">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194" s="105"/>
+      <c r="C194" s="109"/>
+      <c r="D194" s="109"/>
+      <c r="E194" s="108"/>
+      <c r="F194" s="106"/>
+      <c r="G194" s="107"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="110"/>
+      <c r="B195" s="105"/>
+      <c r="C195" s="109"/>
+      <c r="D195" s="109"/>
+      <c r="E195" s="108"/>
+      <c r="F195" s="106"/>
+      <c r="G195" s="107"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="110"/>
+      <c r="B196" s="105"/>
+      <c r="C196" s="109"/>
+      <c r="D196" s="109"/>
+      <c r="E196" s="108"/>
+      <c r="F196" s="106"/>
+      <c r="G196" s="107"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="110"/>
+      <c r="B197" s="105"/>
+      <c r="C197" s="109"/>
+      <c r="D197" s="109"/>
+      <c r="E197" s="108"/>
+      <c r="F197" s="106"/>
+      <c r="G197" s="107"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="110"/>
+      <c r="B198" s="105"/>
+      <c r="C198" s="108"/>
+      <c r="D198" s="108"/>
+      <c r="E198" s="108"/>
+      <c r="F198" s="106"/>
+      <c r="G198" s="107"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="110"/>
+      <c r="B199" s="105"/>
+      <c r="C199" s="108"/>
+      <c r="D199" s="108"/>
+      <c r="E199" s="108"/>
+      <c r="F199" s="106"/>
+      <c r="G199" s="107"/>
+    </row>
+    <row r="200" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B200" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C200" s="97"/>
+      <c r="D200" s="97"/>
+      <c r="E200" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="F200" s="96"/>
+      <c r="G200" s="99"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="100"/>
+      <c r="B201" s="101"/>
+      <c r="C201" s="97"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="104"/>
+      <c r="F201" s="96"/>
+      <c r="G201" s="99"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="100"/>
+      <c r="B202" s="101"/>
+      <c r="C202" s="97"/>
+      <c r="D202" s="97"/>
+      <c r="E202" s="104"/>
+      <c r="F202" s="96"/>
+      <c r="G202" s="99"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="100"/>
+      <c r="B203" s="101"/>
+      <c r="C203" s="97"/>
+      <c r="D203" s="97"/>
+      <c r="E203" s="104"/>
+      <c r="F203" s="96"/>
+      <c r="G203" s="99"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="100"/>
+      <c r="B204" s="101"/>
+      <c r="C204" s="97"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="104"/>
+      <c r="F204" s="96"/>
+      <c r="G204" s="99"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="100"/>
+      <c r="B205" s="101"/>
+      <c r="C205" s="97"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="104"/>
+      <c r="F205" s="96"/>
+      <c r="G205" s="99"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="100"/>
+      <c r="B206" s="101"/>
+      <c r="C206" s="97"/>
+      <c r="D206" s="97"/>
+      <c r="E206" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="F206" s="96"/>
+      <c r="G206" s="99"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="100"/>
+      <c r="B207" s="101"/>
+      <c r="C207" s="97"/>
+      <c r="D207" s="97"/>
+      <c r="E207" s="104"/>
+      <c r="F207" s="96"/>
+      <c r="G207" s="99"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="100"/>
+      <c r="B208" s="101"/>
+      <c r="C208" s="97"/>
+      <c r="D208" s="97"/>
+      <c r="E208" s="104"/>
+      <c r="F208" s="96"/>
+      <c r="G208" s="99"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="100"/>
+      <c r="B209" s="101"/>
+      <c r="C209" s="97"/>
+      <c r="D209" s="97"/>
+      <c r="E209" s="104"/>
+      <c r="F209" s="96"/>
+      <c r="G209" s="99"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="100"/>
+      <c r="B210" s="101"/>
+      <c r="C210" s="97"/>
+      <c r="D210" s="97"/>
+      <c r="E210" s="104"/>
+      <c r="F210" s="96"/>
+      <c r="G210" s="99"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="100"/>
+      <c r="B211" s="101"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="97"/>
+      <c r="E211" s="104"/>
+      <c r="F211" s="96"/>
+      <c r="G211" s="99"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="100"/>
+      <c r="B212" s="101"/>
+      <c r="C212" s="97"/>
+      <c r="D212" s="97"/>
+      <c r="E212" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="F212" s="96"/>
+      <c r="G212" s="99"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="100"/>
+      <c r="B213" s="101"/>
+      <c r="C213" s="97"/>
+      <c r="D213" s="97"/>
+      <c r="E213" s="104"/>
+      <c r="F213" s="96"/>
+      <c r="G213" s="99"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="100"/>
+      <c r="B214" s="101"/>
+      <c r="C214" s="97"/>
+      <c r="D214" s="97"/>
+      <c r="E214" s="104"/>
+      <c r="F214" s="96"/>
+      <c r="G214" s="99"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="100"/>
+      <c r="B215" s="101"/>
+      <c r="C215" s="97"/>
+      <c r="D215" s="97"/>
+      <c r="E215" s="104"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="99"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="100"/>
+      <c r="B216" s="101"/>
+      <c r="C216" s="97"/>
+      <c r="D216" s="97"/>
+      <c r="E216" s="104"/>
+      <c r="F216" s="96"/>
+      <c r="G216" s="99"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="100"/>
+      <c r="B217" s="101"/>
+      <c r="C217" s="97"/>
+      <c r="D217" s="97"/>
+      <c r="E217" s="104"/>
+      <c r="F217" s="96"/>
+      <c r="G217" s="99"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="100"/>
+      <c r="B218" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C218" s="97"/>
+      <c r="D218" s="97"/>
+      <c r="E218" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="F218" s="96"/>
+      <c r="G218" s="99"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="100"/>
+      <c r="B219" s="101"/>
+      <c r="C219" s="97"/>
+      <c r="D219" s="97"/>
+      <c r="E219" s="104"/>
+      <c r="F219" s="96"/>
+      <c r="G219" s="99"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="100"/>
+      <c r="B220" s="101"/>
+      <c r="C220" s="97"/>
+      <c r="D220" s="97"/>
+      <c r="E220" s="104"/>
+      <c r="F220" s="96"/>
+      <c r="G220" s="99"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="100"/>
+      <c r="B221" s="101"/>
+      <c r="C221" s="97"/>
+      <c r="D221" s="97"/>
+      <c r="E221" s="104"/>
+      <c r="F221" s="96"/>
+      <c r="G221" s="99"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="100"/>
+      <c r="B222" s="101"/>
+      <c r="C222" s="97"/>
+      <c r="D222" s="97"/>
+      <c r="E222" s="104"/>
+      <c r="F222" s="96"/>
+      <c r="G222" s="99"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="100"/>
+      <c r="B223" s="101"/>
+      <c r="C223" s="97"/>
+      <c r="D223" s="97"/>
+      <c r="E223" s="104"/>
+      <c r="F223" s="96"/>
+      <c r="G223" s="99"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="100"/>
+      <c r="B224" s="101"/>
+      <c r="C224" s="97"/>
+      <c r="D224" s="97"/>
+      <c r="E224" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="F224" s="96"/>
+      <c r="G224" s="99"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="100"/>
+      <c r="B225" s="101"/>
+      <c r="C225" s="97"/>
+      <c r="D225" s="97"/>
+      <c r="E225" s="104"/>
+      <c r="F225" s="96"/>
+      <c r="G225" s="99"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="100"/>
+      <c r="B226" s="101"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="97"/>
+      <c r="E226" s="104"/>
+      <c r="F226" s="96"/>
+      <c r="G226" s="99"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="100"/>
+      <c r="B227" s="101"/>
+      <c r="C227" s="97"/>
+      <c r="D227" s="97"/>
+      <c r="E227" s="104"/>
+      <c r="F227" s="96"/>
+      <c r="G227" s="99"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="100"/>
+      <c r="B228" s="101"/>
+      <c r="C228" s="97"/>
+      <c r="D228" s="97"/>
+      <c r="E228" s="104"/>
+      <c r="F228" s="96"/>
+      <c r="G228" s="99"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="100"/>
+      <c r="B229" s="101"/>
+      <c r="C229" s="97"/>
+      <c r="D229" s="97"/>
+      <c r="E229" s="104"/>
+      <c r="F229" s="96"/>
+      <c r="G229" s="99"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="100"/>
+      <c r="B230" s="101"/>
+      <c r="C230" s="97"/>
+      <c r="D230" s="97"/>
+      <c r="E230" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="F230" s="96"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="100"/>
+      <c r="B231" s="101"/>
+      <c r="E231" s="104"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="100"/>
+      <c r="B232" s="101"/>
+      <c r="E232" s="104"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="100"/>
+      <c r="B233" s="101"/>
+      <c r="E233" s="104"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="100"/>
+      <c r="B234" s="101"/>
+      <c r="E234" s="104"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="100"/>
+      <c r="B235" s="101"/>
+      <c r="E235" s="104"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="100"/>
+      <c r="B236" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E236" s="104" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="100"/>
+      <c r="B237" s="101"/>
+      <c r="E237" s="104"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="100"/>
+      <c r="B238" s="101"/>
+      <c r="E238" s="104"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="100"/>
+      <c r="B239" s="101"/>
+      <c r="E239" s="104"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="100"/>
+      <c r="B240" s="101"/>
+      <c r="E240" s="104"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="100"/>
+      <c r="B241" s="101"/>
+      <c r="E241" s="104"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="100"/>
+      <c r="B242" s="101"/>
+      <c r="E242" s="104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="100"/>
+      <c r="B243" s="101"/>
+      <c r="E243" s="104"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="100"/>
+      <c r="B244" s="101"/>
+      <c r="E244" s="104"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="100"/>
+      <c r="B245" s="101"/>
+      <c r="E245" s="104"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="100"/>
+      <c r="B246" s="101"/>
+      <c r="E246" s="104"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="100"/>
+      <c r="B247" s="101"/>
+      <c r="E247" s="104"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="100"/>
+      <c r="B248" s="101"/>
+      <c r="E248" s="104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="100"/>
+      <c r="B249" s="101"/>
+      <c r="E249" s="104"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="100"/>
+      <c r="B250" s="101"/>
+      <c r="E250" s="104"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="100"/>
+      <c r="B251" s="101"/>
+      <c r="E251" s="104"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="100"/>
+      <c r="B252" s="101"/>
+      <c r="E252" s="104"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="100"/>
+      <c r="B253" s="101"/>
+      <c r="E253" s="104"/>
+    </row>
+    <row r="276" spans="2:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="B276" s="103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="E230:E235"/>
+    <mergeCell ref="B218:B235"/>
+    <mergeCell ref="B200:B217"/>
+    <mergeCell ref="B236:B253"/>
+    <mergeCell ref="E236:E241"/>
+    <mergeCell ref="E242:E247"/>
+    <mergeCell ref="E248:E253"/>
+    <mergeCell ref="E200:E205"/>
+    <mergeCell ref="E206:E211"/>
+    <mergeCell ref="E212:E217"/>
+    <mergeCell ref="E218:E223"/>
+    <mergeCell ref="E224:E229"/>
+    <mergeCell ref="E194:E199"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="C198:D199"/>
+    <mergeCell ref="A200:A253"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="B20:B37"/>
+    <mergeCell ref="A20:A73"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="A74:A91"/>
+    <mergeCell ref="A92:A163"/>
+    <mergeCell ref="E110:E115"/>
+    <mergeCell ref="E116:E121"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="E128:E133"/>
+    <mergeCell ref="E134:E139"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C186:D187"/>
+    <mergeCell ref="C192:D193"/>
+    <mergeCell ref="C96:D115"/>
+    <mergeCell ref="C120:D139"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="C144:D163"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="C174:D175"/>
+    <mergeCell ref="C180:D181"/>
+    <mergeCell ref="E80:E85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="E146:E151"/>
+    <mergeCell ref="E140:E145"/>
+    <mergeCell ref="E92:E97"/>
+    <mergeCell ref="E98:E103"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="E68:E73"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="C42:D55"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C60:D73"/>
+    <mergeCell ref="B116:B139"/>
+    <mergeCell ref="B92:B115"/>
+    <mergeCell ref="C24:D37"/>
+    <mergeCell ref="E176:E181"/>
+    <mergeCell ref="E164:E169"/>
+    <mergeCell ref="E170:E175"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B140:B163"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E158:E163"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="E188:E193"/>
+    <mergeCell ref="E182:E187"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="E8:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10D357-AF23-7848-B237-D2F35F5D4997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E456310-3EDD-A24B-943A-CBFD8A7D83FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51180" yWindow="-1180" windowWidth="51200" windowHeight="26980" activeTab="2" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
@@ -1310,9 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1345,6 +1342,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3141,12 +3139,12 @@
   <dimension ref="A2:G276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+      <selection activeCell="A200" sqref="A200:G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40" style="102" customWidth="1"/>
+    <col min="2" max="2" width="40" style="101" customWidth="1"/>
     <col min="3" max="3" width="54.5" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
@@ -3155,3322 +3153,3415 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>153</v>
       </c>
       <c r="C2" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E2" s="97" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E3" s="98"/>
+      <c r="D3" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E3" s="97"/>
       <c r="F3" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E4" s="98"/>
+      <c r="D4" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E4" s="97"/>
       <c r="F4" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E5" s="98"/>
+      <c r="D5" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E5" s="97"/>
       <c r="F5" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E8" s="98" t="s">
+      <c r="D8" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E8" s="97" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E9" s="98"/>
+      <c r="D9" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E9" s="97"/>
       <c r="F9" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E10" s="98"/>
+      <c r="D10" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E10" s="97"/>
       <c r="F10" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E11" s="98"/>
+      <c r="D11" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E11" s="97"/>
       <c r="F11" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E14" s="98" t="s">
+      <c r="D14" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E14" s="97" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E15" s="98"/>
+      <c r="D15" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E15" s="97"/>
       <c r="F15" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E16" s="98"/>
+      <c r="D16" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E16" s="97"/>
       <c r="F16" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E17" s="98"/>
+      <c r="D17" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E17" s="97"/>
       <c r="F17" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="99">
+      <c r="G19" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="100" t="s">
         <v>129</v>
       </c>
       <c r="C20" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E20" s="98" t="s">
+      <c r="D20" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E20" s="97" t="s">
         <v>130</v>
       </c>
       <c r="F20" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="99">
+      <c r="G20" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E21" s="98"/>
+      <c r="D21" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E21" s="97"/>
       <c r="F21" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E22" s="98"/>
+      <c r="D22" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E22" s="97"/>
       <c r="F22" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E23" s="98"/>
+      <c r="D23" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E23" s="97"/>
       <c r="F23" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="100"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97" t="s">
         <v>131</v>
       </c>
       <c r="F26" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="100"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="99">
+      <c r="G27" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="100"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="99">
+      <c r="G28" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="100"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="99">
+      <c r="G29" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="99">
+      <c r="G30" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98" t="s">
+      <c r="A32" s="99"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97" t="s">
         <v>132</v>
       </c>
       <c r="F32" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="100"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
       <c r="F33" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="99">
+      <c r="G33" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="99">
+      <c r="G34" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="100"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="99">
+      <c r="G35" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="99">
+      <c r="G36" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="100"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="99">
+      <c r="G37" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="100"/>
-      <c r="B38" s="101" t="s">
+      <c r="A38" s="99"/>
+      <c r="B38" s="100" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E38" s="98" t="s">
+      <c r="D38" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E38" s="97" t="s">
         <v>130</v>
       </c>
       <c r="F38" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="99">
+      <c r="G38" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A39" s="100"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E39" s="98"/>
+      <c r="D39" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E39" s="97"/>
       <c r="F39" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="99">
+      <c r="G39" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="100"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E40" s="98"/>
+      <c r="D40" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E40" s="97"/>
       <c r="F40" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="99">
+      <c r="G40" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="100"/>
-      <c r="B41" s="101"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E41" s="98"/>
+      <c r="D41" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E41" s="97"/>
       <c r="F41" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="99">
+      <c r="G41" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="99">
+      <c r="G42" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="100"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
       <c r="F43" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="99">
+      <c r="G43" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="100"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97" t="s">
         <v>131</v>
       </c>
       <c r="F44" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="99">
+      <c r="G44" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G45" s="99">
+      <c r="G45" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="100"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
       <c r="F46" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G46" s="99">
+      <c r="G46" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="100"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
       <c r="F47" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="99">
+      <c r="G47" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="100"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
       <c r="F48" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G48" s="99">
+      <c r="G48" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="100"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="99">
+      <c r="G49" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="100"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98" t="s">
+      <c r="A50" s="99"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97" t="s">
         <v>132</v>
       </c>
       <c r="F50" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="99">
+      <c r="G50" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="100"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G51" s="99">
+      <c r="G51" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="100"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
       <c r="F52" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G52" s="99">
+      <c r="G52" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="100"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="99">
+      <c r="G53" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="100"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G54" s="99">
+      <c r="G54" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="100"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
       <c r="F55" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G55" s="99">
+      <c r="G55" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101" t="s">
+      <c r="A56" s="99"/>
+      <c r="B56" s="100" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E56" s="98" t="s">
+      <c r="D56" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E56" s="97" t="s">
         <v>130</v>
       </c>
       <c r="F56" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G56" s="99">
+      <c r="G56" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A57" s="100"/>
-      <c r="B57" s="101"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E57" s="98"/>
+      <c r="D57" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E57" s="97"/>
       <c r="F57" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G57" s="99">
+      <c r="G57" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="100"/>
-      <c r="B58" s="101"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E58" s="98"/>
+      <c r="D58" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E58" s="97"/>
       <c r="F58" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G58" s="99">
+      <c r="G58" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="100"/>
-      <c r="B59" s="101"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E59" s="98"/>
+      <c r="D59" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E59" s="97"/>
       <c r="F59" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G59" s="99">
+      <c r="G59" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="100"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G60" s="99">
+      <c r="G60" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="100"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G61" s="99">
+      <c r="G61" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="100"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98" t="s">
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97" t="s">
         <v>131</v>
       </c>
       <c r="F62" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="99">
+      <c r="G62" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="100"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G63" s="99">
+      <c r="G63" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="100"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
       <c r="F64" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G64" s="99">
+      <c r="G64" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="100"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G65" s="99">
+      <c r="G65" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="100"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G66" s="99">
+      <c r="G66" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="100"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
       <c r="F67" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="99">
+      <c r="G67" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="100"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98" t="s">
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97" t="s">
         <v>132</v>
       </c>
       <c r="F68" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G68" s="99">
+      <c r="G68" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="100"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="98"/>
-      <c r="E69" s="98"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
       <c r="F69" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G69" s="99">
+      <c r="G69" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="100"/>
-      <c r="B70" s="101"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="98"/>
-      <c r="E70" s="98"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
       <c r="F70" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G70" s="99">
+      <c r="G70" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="100"/>
-      <c r="B71" s="101"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
       <c r="F71" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G71" s="99">
+      <c r="G71" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="100"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
       <c r="F72" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G72" s="99">
+      <c r="G72" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="100"/>
-      <c r="B73" s="101"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
-      <c r="E73" s="98"/>
+      <c r="A73" s="99"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
       <c r="F73" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G73" s="99">
+      <c r="G73" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A74" s="100" t="s">
+      <c r="A74" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="101" t="s">
+      <c r="B74" s="100" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E74" s="104" t="s">
+      <c r="D74" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E74" s="103" t="s">
         <v>136</v>
       </c>
       <c r="F74" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G74" s="99">
+      <c r="G74" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A75" s="100"/>
-      <c r="B75" s="101"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E75" s="104"/>
+      <c r="D75" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E75" s="103"/>
       <c r="F75" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G75" s="99">
+      <c r="G75" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="100"/>
-      <c r="B76" s="101"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E76" s="104"/>
+      <c r="D76" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E76" s="103"/>
       <c r="F76" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G76" s="99">
+      <c r="G76" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="100"/>
-      <c r="B77" s="101"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="100"/>
       <c r="C77" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E77" s="104"/>
+      <c r="D77" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E77" s="103"/>
       <c r="F77" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="99">
+      <c r="G77" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="100"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
-      <c r="E78" s="104"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="103"/>
       <c r="F78" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="99">
+      <c r="G78" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="100"/>
-      <c r="B79" s="101"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="104"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="103"/>
       <c r="F79" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G79" s="99">
+      <c r="G79" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="100"/>
-      <c r="B80" s="105" t="s">
+      <c r="A80" s="99"/>
+      <c r="B80" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="106" t="s">
+      <c r="C80" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="107"/>
-      <c r="E80" s="108" t="s">
+      <c r="D80" s="106"/>
+      <c r="E80" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="106" t="s">
+      <c r="F80" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="G80" s="107"/>
+      <c r="G80" s="106"/>
     </row>
     <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A81" s="100"/>
-      <c r="B81" s="105"/>
-      <c r="C81" s="106" t="s">
+      <c r="A81" s="99"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="107"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="106" t="s">
+      <c r="D81" s="106"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="G81" s="107"/>
+      <c r="G81" s="106"/>
     </row>
     <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="100"/>
-      <c r="B82" s="105"/>
-      <c r="C82" s="106" t="s">
+      <c r="A82" s="99"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="107"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="106" t="s">
+      <c r="D82" s="106"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G82" s="107"/>
+      <c r="G82" s="106"/>
     </row>
     <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="100"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="106" t="s">
+      <c r="A83" s="99"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="107"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="106" t="s">
+      <c r="D83" s="106"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="G83" s="107"/>
+      <c r="G83" s="106"/>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="100"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="106" t="s">
+      <c r="A84" s="99"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="G84" s="107"/>
+      <c r="G84" s="106"/>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="100"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="106" t="s">
+      <c r="A85" s="99"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="G85" s="107"/>
+      <c r="G85" s="106"/>
     </row>
     <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="100"/>
-      <c r="B86" s="105" t="s">
+      <c r="A86" s="99"/>
+      <c r="B86" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="106" t="s">
+      <c r="C86" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="107"/>
-      <c r="E86" s="108" t="s">
+      <c r="D86" s="106"/>
+      <c r="E86" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="F86" s="106" t="s">
+      <c r="F86" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="G86" s="107"/>
+      <c r="G86" s="106"/>
     </row>
     <row r="87" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A87" s="100"/>
-      <c r="B87" s="105"/>
-      <c r="C87" s="106" t="s">
+      <c r="A87" s="99"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="D87" s="107"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="106" t="s">
+      <c r="D87" s="106"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="G87" s="107"/>
+      <c r="G87" s="106"/>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="100"/>
-      <c r="B88" s="105"/>
-      <c r="C88" s="106" t="s">
+      <c r="A88" s="99"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="107"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="106" t="s">
+      <c r="D88" s="106"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="107"/>
+      <c r="G88" s="106"/>
     </row>
     <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="100"/>
-      <c r="B89" s="105"/>
-      <c r="C89" s="106" t="s">
+      <c r="A89" s="99"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="107"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="106" t="s">
+      <c r="D89" s="106"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="G89" s="107"/>
+      <c r="G89" s="106"/>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="100"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="108"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="106" t="s">
+      <c r="A90" s="99"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="G90" s="107"/>
+      <c r="G90" s="106"/>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="100"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="106" t="s">
+      <c r="A91" s="99"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="G91" s="107"/>
+      <c r="G91" s="106"/>
     </row>
     <row r="92" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="101" t="s">
+      <c r="B92" s="100" t="s">
         <v>137</v>
       </c>
       <c r="C92" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D92" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E92" s="98" t="s">
+      <c r="D92" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E92" s="97" t="s">
         <v>138</v>
       </c>
       <c r="F92" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G92" s="99">
+      <c r="G92" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A93" s="100"/>
-      <c r="B93" s="101"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="100"/>
       <c r="C93" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D93" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E93" s="98"/>
+      <c r="D93" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E93" s="97"/>
       <c r="F93" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G93" s="99">
+      <c r="G93" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="100"/>
-      <c r="B94" s="101"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="100"/>
       <c r="C94" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D94" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E94" s="98"/>
+      <c r="D94" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E94" s="97"/>
       <c r="F94" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G94" s="99">
+      <c r="G94" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" s="100"/>
-      <c r="B95" s="101"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="100"/>
       <c r="C95" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E95" s="98"/>
+      <c r="D95" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E95" s="97"/>
       <c r="F95" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G95" s="99">
+      <c r="G95" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="100"/>
-      <c r="B96" s="101"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="98"/>
-      <c r="E96" s="98"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
       <c r="F96" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G96" s="99">
+      <c r="G96" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="100"/>
-      <c r="B97" s="101"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="98"/>
-      <c r="E97" s="98"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
       <c r="F97" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G97" s="99">
+      <c r="G97" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="100"/>
-      <c r="B98" s="101"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="98"/>
-      <c r="E98" s="98" t="s">
+      <c r="A98" s="99"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="97" t="s">
         <v>139</v>
       </c>
       <c r="F98" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G98" s="99">
+      <c r="G98" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="100"/>
-      <c r="B99" s="101"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="98"/>
-      <c r="E99" s="98"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
       <c r="F99" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G99" s="99">
+      <c r="G99" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="100"/>
-      <c r="B100" s="101"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="98"/>
-      <c r="E100" s="98"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
       <c r="F100" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="99">
+      <c r="G100" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A101" s="100"/>
-      <c r="B101" s="101"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="98"/>
-      <c r="E101" s="98"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
       <c r="F101" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G101" s="99">
+      <c r="G101" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="100"/>
-      <c r="B102" s="101"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="98"/>
-      <c r="E102" s="98"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
       <c r="F102" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G102" s="99">
+      <c r="G102" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="100"/>
-      <c r="B103" s="101"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="97"/>
+      <c r="E103" s="97"/>
       <c r="F103" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G103" s="99">
+      <c r="G103" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="100"/>
-      <c r="B104" s="101"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="98" t="s">
+      <c r="A104" s="99"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="97" t="s">
         <v>140</v>
       </c>
       <c r="F104" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G104" s="99">
+      <c r="G104" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="100"/>
-      <c r="B105" s="101"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="98"/>
-      <c r="E105" s="98"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
       <c r="F105" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G105" s="99">
+      <c r="G105" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="100"/>
-      <c r="B106" s="101"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="98"/>
-      <c r="E106" s="98"/>
+      <c r="A106" s="99"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
       <c r="F106" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="99">
+      <c r="G106" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="100"/>
-      <c r="B107" s="101"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="98"/>
-      <c r="E107" s="98"/>
+      <c r="A107" s="99"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="97"/>
+      <c r="E107" s="97"/>
       <c r="F107" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G107" s="99">
+      <c r="G107" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="100"/>
-      <c r="B108" s="101"/>
-      <c r="C108" s="98"/>
-      <c r="D108" s="98"/>
-      <c r="E108" s="98"/>
+      <c r="A108" s="99"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="97"/>
       <c r="F108" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G108" s="99">
+      <c r="G108" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="100"/>
-      <c r="B109" s="101"/>
-      <c r="C109" s="98"/>
-      <c r="D109" s="98"/>
-      <c r="E109" s="98"/>
+      <c r="A109" s="99"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="97"/>
       <c r="F109" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G109" s="99">
+      <c r="G109" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="100"/>
-      <c r="B110" s="101"/>
-      <c r="C110" s="98"/>
-      <c r="D110" s="98"/>
-      <c r="E110" s="98" t="s">
+      <c r="A110" s="99"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="97" t="s">
         <v>141</v>
       </c>
       <c r="F110" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G110" s="99">
+      <c r="G110" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="100"/>
-      <c r="B111" s="101"/>
-      <c r="C111" s="98"/>
-      <c r="D111" s="98"/>
-      <c r="E111" s="98"/>
+      <c r="A111" s="99"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="97"/>
       <c r="F111" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G111" s="99">
+      <c r="G111" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="100"/>
-      <c r="B112" s="101"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
+      <c r="A112" s="99"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="97"/>
       <c r="F112" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G112" s="99">
+      <c r="G112" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="100"/>
-      <c r="B113" s="101"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
+      <c r="A113" s="99"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="97"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="97"/>
       <c r="F113" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G113" s="99">
+      <c r="G113" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="100"/>
-      <c r="B114" s="101"/>
-      <c r="C114" s="98"/>
-      <c r="D114" s="98"/>
-      <c r="E114" s="98"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="97"/>
+      <c r="D114" s="97"/>
+      <c r="E114" s="97"/>
       <c r="F114" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G114" s="99">
+      <c r="G114" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="100"/>
-      <c r="B115" s="101"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="97"/>
+      <c r="D115" s="97"/>
+      <c r="E115" s="97"/>
       <c r="F115" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G115" s="99">
+      <c r="G115" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="100"/>
-      <c r="B116" s="101" t="s">
+      <c r="A116" s="99"/>
+      <c r="B116" s="100" t="s">
         <v>142</v>
       </c>
       <c r="C116" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D116" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E116" s="98" t="s">
+      <c r="D116" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E116" s="97" t="s">
         <v>138</v>
       </c>
       <c r="F116" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G116" s="99">
+      <c r="G116" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A117" s="100"/>
-      <c r="B117" s="101"/>
+      <c r="A117" s="99"/>
+      <c r="B117" s="100"/>
       <c r="C117" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E117" s="98"/>
+      <c r="D117" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E117" s="97"/>
       <c r="F117" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="99">
+      <c r="G117" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="100"/>
-      <c r="B118" s="101"/>
+      <c r="A118" s="99"/>
+      <c r="B118" s="100"/>
       <c r="C118" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D118" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E118" s="98"/>
+      <c r="D118" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E118" s="97"/>
       <c r="F118" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G118" s="99">
+      <c r="G118" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="100"/>
-      <c r="B119" s="101"/>
+      <c r="A119" s="99"/>
+      <c r="B119" s="100"/>
       <c r="C119" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D119" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E119" s="98"/>
+      <c r="D119" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E119" s="97"/>
       <c r="F119" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G119" s="99">
+      <c r="G119" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="100"/>
-      <c r="B120" s="101"/>
-      <c r="C120" s="98"/>
-      <c r="D120" s="98"/>
-      <c r="E120" s="98"/>
+      <c r="A120" s="99"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
       <c r="F120" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G120" s="99">
+      <c r="G120" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="100"/>
-      <c r="B121" s="101"/>
-      <c r="C121" s="98"/>
-      <c r="D121" s="98"/>
-      <c r="E121" s="98"/>
+      <c r="A121" s="99"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="97"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
       <c r="F121" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G121" s="99">
+      <c r="G121" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="100"/>
-      <c r="B122" s="101"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="98"/>
-      <c r="E122" s="98" t="s">
+      <c r="A122" s="99"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="97" t="s">
         <v>139</v>
       </c>
       <c r="F122" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G122" s="99">
+      <c r="G122" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="100"/>
-      <c r="B123" s="101"/>
-      <c r="C123" s="98"/>
-      <c r="D123" s="98"/>
-      <c r="E123" s="98"/>
+      <c r="A123" s="99"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
       <c r="F123" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G123" s="99">
+      <c r="G123" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="100"/>
-      <c r="B124" s="101"/>
-      <c r="C124" s="98"/>
-      <c r="D124" s="98"/>
-      <c r="E124" s="98"/>
+      <c r="A124" s="99"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="97"/>
       <c r="F124" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G124" s="99">
+      <c r="G124" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" s="100"/>
-      <c r="B125" s="101"/>
-      <c r="C125" s="98"/>
-      <c r="D125" s="98"/>
-      <c r="E125" s="98"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="97"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
       <c r="F125" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G125" s="99">
+      <c r="G125" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="100"/>
-      <c r="B126" s="101"/>
-      <c r="C126" s="98"/>
-      <c r="D126" s="98"/>
-      <c r="E126" s="98"/>
+      <c r="A126" s="99"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="97"/>
+      <c r="D126" s="97"/>
+      <c r="E126" s="97"/>
       <c r="F126" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G126" s="99">
+      <c r="G126" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="100"/>
-      <c r="B127" s="101"/>
-      <c r="C127" s="98"/>
-      <c r="D127" s="98"/>
-      <c r="E127" s="98"/>
+      <c r="A127" s="99"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="97"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="97"/>
       <c r="F127" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G127" s="99">
+      <c r="G127" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="100"/>
-      <c r="B128" s="101"/>
-      <c r="C128" s="98"/>
-      <c r="D128" s="98"/>
-      <c r="E128" s="98" t="s">
+      <c r="A128" s="99"/>
+      <c r="B128" s="100"/>
+      <c r="C128" s="97"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="97" t="s">
         <v>140</v>
       </c>
       <c r="F128" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G128" s="99">
+      <c r="G128" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="100"/>
-      <c r="B129" s="101"/>
-      <c r="C129" s="98"/>
-      <c r="D129" s="98"/>
-      <c r="E129" s="98"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="97"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
       <c r="F129" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G129" s="99">
+      <c r="G129" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="100"/>
-      <c r="B130" s="101"/>
-      <c r="C130" s="98"/>
-      <c r="D130" s="98"/>
-      <c r="E130" s="98"/>
+      <c r="A130" s="99"/>
+      <c r="B130" s="100"/>
+      <c r="C130" s="97"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="97"/>
       <c r="F130" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G130" s="99">
+      <c r="G130" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A131" s="100"/>
-      <c r="B131" s="101"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="98"/>
-      <c r="E131" s="98"/>
+      <c r="A131" s="99"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="97"/>
+      <c r="D131" s="97"/>
+      <c r="E131" s="97"/>
       <c r="F131" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G131" s="99">
+      <c r="G131" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="100"/>
-      <c r="B132" s="101"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="98"/>
-      <c r="E132" s="98"/>
+      <c r="A132" s="99"/>
+      <c r="B132" s="100"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="97"/>
+      <c r="E132" s="97"/>
       <c r="F132" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G132" s="99">
+      <c r="G132" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="100"/>
-      <c r="B133" s="101"/>
-      <c r="C133" s="98"/>
-      <c r="D133" s="98"/>
-      <c r="E133" s="98"/>
+      <c r="A133" s="99"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
       <c r="F133" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G133" s="99">
+      <c r="G133" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="100"/>
-      <c r="B134" s="101"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="98"/>
-      <c r="E134" s="98" t="s">
+      <c r="A134" s="99"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="97"/>
+      <c r="E134" s="97" t="s">
         <v>141</v>
       </c>
       <c r="F134" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G134" s="99">
+      <c r="G134" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="100"/>
-      <c r="B135" s="101"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="98"/>
-      <c r="E135" s="98"/>
+      <c r="A135" s="99"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="97"/>
+      <c r="D135" s="97"/>
+      <c r="E135" s="97"/>
       <c r="F135" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G135" s="99">
+      <c r="G135" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="100"/>
-      <c r="B136" s="101"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="98"/>
-      <c r="E136" s="98"/>
+      <c r="A136" s="99"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="97"/>
       <c r="F136" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G136" s="99">
+      <c r="G136" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A137" s="100"/>
-      <c r="B137" s="101"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="98"/>
-      <c r="E137" s="98"/>
+      <c r="A137" s="99"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="97"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="97"/>
       <c r="F137" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G137" s="99">
+      <c r="G137" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="100"/>
-      <c r="B138" s="101"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="98"/>
-      <c r="E138" s="98"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="97"/>
+      <c r="D138" s="97"/>
+      <c r="E138" s="97"/>
       <c r="F138" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G138" s="99">
+      <c r="G138" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="100"/>
-      <c r="B139" s="101"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="98"/>
-      <c r="E139" s="98"/>
+      <c r="A139" s="99"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="97"/>
+      <c r="D139" s="97"/>
+      <c r="E139" s="97"/>
       <c r="F139" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G139" s="99">
+      <c r="G139" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A140" s="100"/>
-      <c r="B140" s="101" t="s">
+      <c r="A140" s="99"/>
+      <c r="B140" s="100" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D140" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E140" s="98" t="s">
+      <c r="D140" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E140" s="97" t="s">
         <v>138</v>
       </c>
       <c r="F140" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G140" s="99">
+      <c r="G140" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A141" s="100"/>
-      <c r="B141" s="101"/>
+      <c r="A141" s="99"/>
+      <c r="B141" s="100"/>
       <c r="C141" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D141" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E141" s="98"/>
+      <c r="D141" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E141" s="97"/>
       <c r="F141" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G141" s="99">
+      <c r="G141" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="100"/>
-      <c r="B142" s="101"/>
+      <c r="A142" s="99"/>
+      <c r="B142" s="100"/>
       <c r="C142" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D142" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E142" s="98"/>
+      <c r="D142" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E142" s="97"/>
       <c r="F142" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G142" s="99">
+      <c r="G142" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A143" s="100"/>
-      <c r="B143" s="101"/>
+      <c r="A143" s="99"/>
+      <c r="B143" s="100"/>
       <c r="C143" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D143" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E143" s="98"/>
+      <c r="D143" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E143" s="97"/>
       <c r="F143" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G143" s="99">
+      <c r="G143" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="100"/>
-      <c r="B144" s="101"/>
-      <c r="C144" s="98"/>
-      <c r="D144" s="98"/>
-      <c r="E144" s="98"/>
+      <c r="A144" s="99"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="97"/>
+      <c r="D144" s="97"/>
+      <c r="E144" s="97"/>
       <c r="F144" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G144" s="99">
+      <c r="G144" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A145" s="100"/>
-      <c r="B145" s="101"/>
-      <c r="C145" s="98"/>
-      <c r="D145" s="98"/>
-      <c r="E145" s="98"/>
+      <c r="A145" s="99"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
       <c r="F145" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G145" s="99">
+      <c r="G145" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="100"/>
-      <c r="B146" s="101"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="98"/>
-      <c r="E146" s="98" t="s">
+      <c r="A146" s="99"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="97"/>
+      <c r="E146" s="97" t="s">
         <v>139</v>
       </c>
       <c r="F146" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G146" s="99">
+      <c r="G146" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="100"/>
-      <c r="B147" s="101"/>
-      <c r="C147" s="98"/>
-      <c r="D147" s="98"/>
-      <c r="E147" s="98"/>
+      <c r="A147" s="99"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
       <c r="F147" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G147" s="99">
+      <c r="G147" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A148" s="100"/>
-      <c r="B148" s="101"/>
-      <c r="C148" s="98"/>
-      <c r="D148" s="98"/>
-      <c r="E148" s="98"/>
+      <c r="A148" s="99"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
       <c r="F148" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G148" s="99">
+      <c r="G148" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A149" s="100"/>
-      <c r="B149" s="101"/>
-      <c r="C149" s="98"/>
-      <c r="D149" s="98"/>
-      <c r="E149" s="98"/>
+      <c r="A149" s="99"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="97"/>
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
       <c r="F149" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G149" s="99">
+      <c r="G149" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="100"/>
-      <c r="B150" s="101"/>
-      <c r="C150" s="98"/>
-      <c r="D150" s="98"/>
-      <c r="E150" s="98"/>
+      <c r="A150" s="99"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="97"/>
+      <c r="E150" s="97"/>
       <c r="F150" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G150" s="99">
+      <c r="G150" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A151" s="100"/>
-      <c r="B151" s="101"/>
-      <c r="C151" s="98"/>
-      <c r="D151" s="98"/>
-      <c r="E151" s="98"/>
+      <c r="A151" s="99"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="97"/>
+      <c r="D151" s="97"/>
+      <c r="E151" s="97"/>
       <c r="F151" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G151" s="99">
+      <c r="G151" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A152" s="100"/>
-      <c r="B152" s="101"/>
-      <c r="C152" s="98"/>
-      <c r="D152" s="98"/>
-      <c r="E152" s="98" t="s">
+      <c r="A152" s="99"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="97"/>
+      <c r="D152" s="97"/>
+      <c r="E152" s="97" t="s">
         <v>140</v>
       </c>
       <c r="F152" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G152" s="99">
+      <c r="G152" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A153" s="100"/>
-      <c r="B153" s="101"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="98"/>
-      <c r="E153" s="98"/>
+      <c r="A153" s="99"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
       <c r="F153" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="99">
+      <c r="G153" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A154" s="100"/>
-      <c r="B154" s="101"/>
-      <c r="C154" s="98"/>
-      <c r="D154" s="98"/>
-      <c r="E154" s="98"/>
+      <c r="A154" s="99"/>
+      <c r="B154" s="100"/>
+      <c r="C154" s="97"/>
+      <c r="D154" s="97"/>
+      <c r="E154" s="97"/>
       <c r="F154" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G154" s="99">
+      <c r="G154" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A155" s="100"/>
-      <c r="B155" s="101"/>
-      <c r="C155" s="98"/>
-      <c r="D155" s="98"/>
-      <c r="E155" s="98"/>
+      <c r="A155" s="99"/>
+      <c r="B155" s="100"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="97"/>
+      <c r="E155" s="97"/>
       <c r="F155" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G155" s="99">
+      <c r="G155" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="100"/>
-      <c r="B156" s="101"/>
-      <c r="C156" s="98"/>
-      <c r="D156" s="98"/>
-      <c r="E156" s="98"/>
+      <c r="A156" s="99"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="97"/>
+      <c r="D156" s="97"/>
+      <c r="E156" s="97"/>
       <c r="F156" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G156" s="99">
+      <c r="G156" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" s="100"/>
-      <c r="B157" s="101"/>
-      <c r="C157" s="98"/>
-      <c r="D157" s="98"/>
-      <c r="E157" s="98"/>
+      <c r="A157" s="99"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="97"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
       <c r="F157" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G157" s="99">
+      <c r="G157" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A158" s="100"/>
-      <c r="B158" s="101"/>
-      <c r="C158" s="98"/>
-      <c r="D158" s="98"/>
-      <c r="E158" s="98" t="s">
+      <c r="A158" s="99"/>
+      <c r="B158" s="100"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="97"/>
+      <c r="E158" s="97" t="s">
         <v>141</v>
       </c>
       <c r="F158" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G158" s="99">
+      <c r="G158" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A159" s="100"/>
-      <c r="B159" s="101"/>
-      <c r="C159" s="98"/>
-      <c r="D159" s="98"/>
-      <c r="E159" s="98"/>
+      <c r="A159" s="99"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="97"/>
+      <c r="D159" s="97"/>
+      <c r="E159" s="97"/>
       <c r="F159" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G159" s="99">
+      <c r="G159" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A160" s="100"/>
-      <c r="B160" s="101"/>
-      <c r="C160" s="98"/>
-      <c r="D160" s="98"/>
-      <c r="E160" s="98"/>
+      <c r="A160" s="99"/>
+      <c r="B160" s="100"/>
+      <c r="C160" s="97"/>
+      <c r="D160" s="97"/>
+      <c r="E160" s="97"/>
       <c r="F160" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G160" s="99">
+      <c r="G160" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A161" s="100"/>
-      <c r="B161" s="101"/>
-      <c r="C161" s="98"/>
-      <c r="D161" s="98"/>
-      <c r="E161" s="98"/>
+      <c r="A161" s="99"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="97"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="97"/>
       <c r="F161" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G161" s="99">
+      <c r="G161" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="100"/>
-      <c r="B162" s="101"/>
-      <c r="C162" s="98"/>
-      <c r="D162" s="98"/>
-      <c r="E162" s="98"/>
+      <c r="A162" s="99"/>
+      <c r="B162" s="100"/>
+      <c r="C162" s="97"/>
+      <c r="D162" s="97"/>
+      <c r="E162" s="97"/>
       <c r="F162" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G162" s="99">
+      <c r="G162" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A163" s="100"/>
-      <c r="B163" s="101"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="98"/>
-      <c r="E163" s="98"/>
+      <c r="A163" s="99"/>
+      <c r="B163" s="100"/>
+      <c r="C163" s="97"/>
+      <c r="D163" s="97"/>
+      <c r="E163" s="97"/>
       <c r="F163" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G163" s="99">
+      <c r="G163" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A164" s="100" t="s">
+      <c r="A164" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="101" t="s">
+      <c r="B164" s="100" t="s">
         <v>144</v>
       </c>
       <c r="C164" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D164" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E164" s="98" t="s">
+      <c r="D164" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E164" s="97" t="s">
         <v>145</v>
       </c>
       <c r="F164" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G164" s="99">
+      <c r="G164" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A165" s="100"/>
-      <c r="B165" s="101"/>
+      <c r="A165" s="99"/>
+      <c r="B165" s="100"/>
       <c r="C165" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E165" s="98"/>
+      <c r="D165" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E165" s="97"/>
       <c r="F165" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G165" s="99">
+      <c r="G165" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A166" s="100"/>
-      <c r="B166" s="101"/>
+      <c r="A166" s="99"/>
+      <c r="B166" s="100"/>
       <c r="C166" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E166" s="98"/>
+      <c r="D166" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E166" s="97"/>
       <c r="F166" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G166" s="99">
+      <c r="G166" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A167" s="100"/>
-      <c r="B167" s="101"/>
+      <c r="A167" s="99"/>
+      <c r="B167" s="100"/>
       <c r="C167" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D167" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E167" s="98"/>
+      <c r="D167" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E167" s="97"/>
       <c r="F167" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G167" s="99">
+      <c r="G167" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="100"/>
-      <c r="B168" s="101"/>
-      <c r="C168" s="98"/>
-      <c r="D168" s="98"/>
-      <c r="E168" s="98"/>
+      <c r="A168" s="99"/>
+      <c r="B168" s="100"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="97"/>
+      <c r="E168" s="97"/>
       <c r="F168" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G168" s="99">
+      <c r="G168" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A169" s="100"/>
-      <c r="B169" s="101"/>
-      <c r="C169" s="98"/>
-      <c r="D169" s="98"/>
-      <c r="E169" s="98"/>
+      <c r="A169" s="99"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="97"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="97"/>
       <c r="F169" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G169" s="99">
+      <c r="G169" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A170" s="100" t="s">
+      <c r="A170" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="101" t="s">
+      <c r="B170" s="100" t="s">
         <v>146</v>
       </c>
       <c r="C170" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D170" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E170" s="98" t="s">
+      <c r="D170" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E170" s="97" t="s">
         <v>147</v>
       </c>
       <c r="F170" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G170" s="99">
+      <c r="G170" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A171" s="100"/>
-      <c r="B171" s="101"/>
+      <c r="A171" s="99"/>
+      <c r="B171" s="100"/>
       <c r="C171" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D171" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E171" s="98"/>
+      <c r="D171" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E171" s="97"/>
       <c r="F171" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G171" s="99">
+      <c r="G171" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A172" s="100"/>
-      <c r="B172" s="101"/>
+      <c r="A172" s="99"/>
+      <c r="B172" s="100"/>
       <c r="C172" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D172" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E172" s="98"/>
+      <c r="D172" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E172" s="97"/>
       <c r="F172" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G172" s="99">
+      <c r="G172" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A173" s="100"/>
-      <c r="B173" s="101"/>
+      <c r="A173" s="99"/>
+      <c r="B173" s="100"/>
       <c r="C173" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D173" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E173" s="98"/>
+      <c r="D173" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E173" s="97"/>
       <c r="F173" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G173" s="99">
+      <c r="G173" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="100"/>
-      <c r="B174" s="101"/>
-      <c r="C174" s="98"/>
-      <c r="D174" s="98"/>
-      <c r="E174" s="98"/>
+      <c r="A174" s="99"/>
+      <c r="B174" s="100"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="97"/>
+      <c r="E174" s="97"/>
       <c r="F174" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G174" s="99">
+      <c r="G174" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" s="100"/>
-      <c r="B175" s="101"/>
-      <c r="C175" s="98"/>
-      <c r="D175" s="98"/>
-      <c r="E175" s="98"/>
+      <c r="A175" s="99"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="97"/>
+      <c r="D175" s="97"/>
+      <c r="E175" s="97"/>
       <c r="F175" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G175" s="99">
+      <c r="G175" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A176" s="100"/>
-      <c r="B176" s="101" t="s">
+      <c r="A176" s="99"/>
+      <c r="B176" s="100" t="s">
         <v>148</v>
       </c>
       <c r="C176" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D176" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E176" s="98" t="s">
+      <c r="D176" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E176" s="97" t="s">
         <v>147</v>
       </c>
       <c r="F176" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G176" s="99">
+      <c r="G176" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A177" s="100"/>
-      <c r="B177" s="101"/>
+      <c r="A177" s="99"/>
+      <c r="B177" s="100"/>
       <c r="C177" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D177" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E177" s="98"/>
+      <c r="D177" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E177" s="97"/>
       <c r="F177" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G177" s="99">
+      <c r="G177" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A178" s="100"/>
-      <c r="B178" s="101"/>
+      <c r="A178" s="99"/>
+      <c r="B178" s="100"/>
       <c r="C178" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D178" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E178" s="98"/>
+      <c r="D178" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E178" s="97"/>
       <c r="F178" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G178" s="99">
+      <c r="G178" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A179" s="100"/>
-      <c r="B179" s="101"/>
+      <c r="A179" s="99"/>
+      <c r="B179" s="100"/>
       <c r="C179" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D179" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E179" s="98"/>
+      <c r="D179" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E179" s="97"/>
       <c r="F179" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G179" s="99">
+      <c r="G179" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="100"/>
-      <c r="B180" s="101"/>
-      <c r="C180" s="98"/>
-      <c r="D180" s="98"/>
-      <c r="E180" s="98"/>
+      <c r="A180" s="99"/>
+      <c r="B180" s="100"/>
+      <c r="C180" s="97"/>
+      <c r="D180" s="97"/>
+      <c r="E180" s="97"/>
       <c r="F180" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G180" s="99">
+      <c r="G180" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A181" s="100"/>
-      <c r="B181" s="101"/>
-      <c r="C181" s="98"/>
-      <c r="D181" s="98"/>
-      <c r="E181" s="98"/>
+      <c r="A181" s="99"/>
+      <c r="B181" s="100"/>
+      <c r="C181" s="97"/>
+      <c r="D181" s="97"/>
+      <c r="E181" s="97"/>
       <c r="F181" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G181" s="99">
+      <c r="G181" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A182" s="100"/>
-      <c r="B182" s="101" t="s">
+      <c r="A182" s="99"/>
+      <c r="B182" s="100" t="s">
         <v>149</v>
       </c>
       <c r="C182" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D182" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E182" s="98" t="s">
+      <c r="D182" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E182" s="97" t="s">
         <v>147</v>
       </c>
       <c r="F182" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G182" s="99">
+      <c r="G182" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A183" s="100"/>
-      <c r="B183" s="101"/>
+      <c r="A183" s="99"/>
+      <c r="B183" s="100"/>
       <c r="C183" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D183" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E183" s="98"/>
+      <c r="D183" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E183" s="97"/>
       <c r="F183" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G183" s="99">
+      <c r="G183" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A184" s="100"/>
-      <c r="B184" s="101"/>
+      <c r="A184" s="99"/>
+      <c r="B184" s="100"/>
       <c r="C184" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D184" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E184" s="98"/>
+      <c r="D184" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E184" s="97"/>
       <c r="F184" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G184" s="99">
+      <c r="G184" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A185" s="100"/>
-      <c r="B185" s="101"/>
+      <c r="A185" s="99"/>
+      <c r="B185" s="100"/>
       <c r="C185" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D185" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E185" s="98"/>
+      <c r="D185" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E185" s="97"/>
       <c r="F185" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G185" s="99">
+      <c r="G185" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="100"/>
-      <c r="B186" s="101"/>
-      <c r="C186" s="98"/>
-      <c r="D186" s="98"/>
-      <c r="E186" s="98"/>
+      <c r="A186" s="99"/>
+      <c r="B186" s="100"/>
+      <c r="C186" s="97"/>
+      <c r="D186" s="97"/>
+      <c r="E186" s="97"/>
       <c r="F186" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="G186" s="99">
+      <c r="G186" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A187" s="100"/>
-      <c r="B187" s="101"/>
-      <c r="C187" s="98"/>
-      <c r="D187" s="98"/>
-      <c r="E187" s="98"/>
+      <c r="A187" s="99"/>
+      <c r="B187" s="100"/>
+      <c r="C187" s="97"/>
+      <c r="D187" s="97"/>
+      <c r="E187" s="97"/>
       <c r="F187" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G187" s="99">
+      <c r="G187" s="98">
         <v>43480</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A188" s="100" t="s">
+      <c r="A188" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="B188" s="101" t="s">
+      <c r="B188" s="100" t="s">
         <v>150</v>
       </c>
       <c r="C188" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D188" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E188" s="104" t="s">
+      <c r="D188" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E188" s="103" t="s">
         <v>151</v>
       </c>
       <c r="F188" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G188" s="99">
+      <c r="G188" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A189" s="100"/>
-      <c r="B189" s="101"/>
+      <c r="A189" s="99"/>
+      <c r="B189" s="100"/>
       <c r="C189" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D189" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E189" s="104"/>
+      <c r="D189" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E189" s="103"/>
       <c r="F189" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G189" s="99">
+      <c r="G189" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A190" s="100"/>
-      <c r="B190" s="101"/>
+      <c r="A190" s="99"/>
+      <c r="B190" s="100"/>
       <c r="C190" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D190" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E190" s="104"/>
+      <c r="D190" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E190" s="103"/>
       <c r="F190" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="G190" s="99">
+      <c r="G190" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A191" s="100"/>
-      <c r="B191" s="101"/>
+      <c r="A191" s="99"/>
+      <c r="B191" s="100"/>
       <c r="C191" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D191" s="99">
-        <v>43480</v>
-      </c>
-      <c r="E191" s="104"/>
+      <c r="D191" s="98">
+        <v>43480</v>
+      </c>
+      <c r="E191" s="103"/>
       <c r="F191" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="G191" s="99">
+      <c r="G191" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="100"/>
-      <c r="B192" s="101"/>
-      <c r="C192" s="98"/>
-      <c r="D192" s="98"/>
-      <c r="E192" s="104"/>
+      <c r="A192" s="99"/>
+      <c r="B192" s="100"/>
+      <c r="C192" s="97"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="103"/>
       <c r="F192" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="G192" s="99">
+      <c r="G192" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="100"/>
-      <c r="B193" s="101"/>
-      <c r="C193" s="98"/>
-      <c r="D193" s="98"/>
-      <c r="E193" s="104"/>
+      <c r="A193" s="99"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="97"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="103"/>
       <c r="F193" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G193" s="99">
+      <c r="G193" s="98">
         <v>43481</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="110" t="s">
+      <c r="A194" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="B194" s="105"/>
-      <c r="C194" s="109"/>
-      <c r="D194" s="109"/>
-      <c r="E194" s="108"/>
-      <c r="F194" s="106"/>
-      <c r="G194" s="107"/>
+      <c r="B194" s="104"/>
+      <c r="C194" s="108"/>
+      <c r="D194" s="108"/>
+      <c r="E194" s="107"/>
+      <c r="F194" s="105"/>
+      <c r="G194" s="106"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="110"/>
-      <c r="B195" s="105"/>
-      <c r="C195" s="109"/>
-      <c r="D195" s="109"/>
-      <c r="E195" s="108"/>
-      <c r="F195" s="106"/>
-      <c r="G195" s="107"/>
+      <c r="A195" s="109"/>
+      <c r="B195" s="104"/>
+      <c r="C195" s="108"/>
+      <c r="D195" s="108"/>
+      <c r="E195" s="107"/>
+      <c r="F195" s="105"/>
+      <c r="G195" s="106"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="110"/>
-      <c r="B196" s="105"/>
-      <c r="C196" s="109"/>
-      <c r="D196" s="109"/>
-      <c r="E196" s="108"/>
-      <c r="F196" s="106"/>
-      <c r="G196" s="107"/>
+      <c r="A196" s="109"/>
+      <c r="B196" s="104"/>
+      <c r="C196" s="108"/>
+      <c r="D196" s="108"/>
+      <c r="E196" s="107"/>
+      <c r="F196" s="105"/>
+      <c r="G196" s="106"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="110"/>
-      <c r="B197" s="105"/>
-      <c r="C197" s="109"/>
-      <c r="D197" s="109"/>
-      <c r="E197" s="108"/>
-      <c r="F197" s="106"/>
-      <c r="G197" s="107"/>
+      <c r="A197" s="109"/>
+      <c r="B197" s="104"/>
+      <c r="C197" s="108"/>
+      <c r="D197" s="108"/>
+      <c r="E197" s="107"/>
+      <c r="F197" s="105"/>
+      <c r="G197" s="106"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="110"/>
-      <c r="B198" s="105"/>
-      <c r="C198" s="108"/>
-      <c r="D198" s="108"/>
-      <c r="E198" s="108"/>
-      <c r="F198" s="106"/>
-      <c r="G198" s="107"/>
+      <c r="A198" s="109"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="107"/>
+      <c r="D198" s="107"/>
+      <c r="E198" s="107"/>
+      <c r="F198" s="105"/>
+      <c r="G198" s="106"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="110"/>
-      <c r="B199" s="105"/>
-      <c r="C199" s="108"/>
-      <c r="D199" s="108"/>
-      <c r="E199" s="108"/>
-      <c r="F199" s="106"/>
-      <c r="G199" s="107"/>
+      <c r="A199" s="109"/>
+      <c r="B199" s="104"/>
+      <c r="C199" s="107"/>
+      <c r="D199" s="107"/>
+      <c r="E199" s="107"/>
+      <c r="F199" s="105"/>
+      <c r="G199" s="106"/>
     </row>
     <row r="200" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="100" t="s">
+      <c r="A200" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="B200" s="101" t="s">
+      <c r="B200" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="C200" s="97"/>
-      <c r="D200" s="97"/>
-      <c r="E200" s="104" t="s">
+      <c r="C200" s="108"/>
+      <c r="D200" s="108"/>
+      <c r="E200" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="F200" s="96"/>
-      <c r="G200" s="99"/>
+      <c r="F200" s="105"/>
+      <c r="G200" s="106"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="100"/>
-      <c r="B201" s="101"/>
-      <c r="C201" s="97"/>
-      <c r="D201" s="97"/>
-      <c r="E201" s="104"/>
-      <c r="F201" s="96"/>
-      <c r="G201" s="99"/>
+      <c r="A201" s="109"/>
+      <c r="B201" s="104"/>
+      <c r="C201" s="108"/>
+      <c r="D201" s="108"/>
+      <c r="E201" s="107"/>
+      <c r="F201" s="105"/>
+      <c r="G201" s="106"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="100"/>
-      <c r="B202" s="101"/>
-      <c r="C202" s="97"/>
-      <c r="D202" s="97"/>
-      <c r="E202" s="104"/>
-      <c r="F202" s="96"/>
-      <c r="G202" s="99"/>
+      <c r="A202" s="109"/>
+      <c r="B202" s="104"/>
+      <c r="C202" s="108"/>
+      <c r="D202" s="108"/>
+      <c r="E202" s="107"/>
+      <c r="F202" s="105"/>
+      <c r="G202" s="106"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="100"/>
-      <c r="B203" s="101"/>
-      <c r="C203" s="97"/>
-      <c r="D203" s="97"/>
-      <c r="E203" s="104"/>
-      <c r="F203" s="96"/>
-      <c r="G203" s="99"/>
+      <c r="A203" s="109"/>
+      <c r="B203" s="104"/>
+      <c r="C203" s="108"/>
+      <c r="D203" s="108"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="105"/>
+      <c r="G203" s="106"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="100"/>
-      <c r="B204" s="101"/>
-      <c r="C204" s="97"/>
-      <c r="D204" s="97"/>
-      <c r="E204" s="104"/>
-      <c r="F204" s="96"/>
-      <c r="G204" s="99"/>
+      <c r="A204" s="109"/>
+      <c r="B204" s="104"/>
+      <c r="C204" s="108"/>
+      <c r="D204" s="108"/>
+      <c r="E204" s="107"/>
+      <c r="F204" s="105"/>
+      <c r="G204" s="106"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="100"/>
-      <c r="B205" s="101"/>
-      <c r="C205" s="97"/>
-      <c r="D205" s="97"/>
-      <c r="E205" s="104"/>
-      <c r="F205" s="96"/>
-      <c r="G205" s="99"/>
+      <c r="A205" s="109"/>
+      <c r="B205" s="104"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="105"/>
+      <c r="G205" s="106"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="100"/>
-      <c r="B206" s="101"/>
-      <c r="C206" s="97"/>
-      <c r="D206" s="97"/>
-      <c r="E206" s="104" t="s">
+      <c r="A206" s="109"/>
+      <c r="B206" s="104"/>
+      <c r="C206" s="108"/>
+      <c r="D206" s="108"/>
+      <c r="E206" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="F206" s="96"/>
-      <c r="G206" s="99"/>
+      <c r="F206" s="105"/>
+      <c r="G206" s="106"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="100"/>
-      <c r="B207" s="101"/>
-      <c r="C207" s="97"/>
-      <c r="D207" s="97"/>
-      <c r="E207" s="104"/>
-      <c r="F207" s="96"/>
-      <c r="G207" s="99"/>
+      <c r="A207" s="109"/>
+      <c r="B207" s="104"/>
+      <c r="C207" s="108"/>
+      <c r="D207" s="108"/>
+      <c r="E207" s="107"/>
+      <c r="F207" s="105"/>
+      <c r="G207" s="106"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="100"/>
-      <c r="B208" s="101"/>
-      <c r="C208" s="97"/>
-      <c r="D208" s="97"/>
-      <c r="E208" s="104"/>
-      <c r="F208" s="96"/>
-      <c r="G208" s="99"/>
+      <c r="A208" s="109"/>
+      <c r="B208" s="104"/>
+      <c r="C208" s="108"/>
+      <c r="D208" s="108"/>
+      <c r="E208" s="107"/>
+      <c r="F208" s="105"/>
+      <c r="G208" s="106"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="100"/>
-      <c r="B209" s="101"/>
-      <c r="C209" s="97"/>
-      <c r="D209" s="97"/>
-      <c r="E209" s="104"/>
-      <c r="F209" s="96"/>
-      <c r="G209" s="99"/>
+      <c r="A209" s="109"/>
+      <c r="B209" s="104"/>
+      <c r="C209" s="108"/>
+      <c r="D209" s="108"/>
+      <c r="E209" s="107"/>
+      <c r="F209" s="105"/>
+      <c r="G209" s="106"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="100"/>
-      <c r="B210" s="101"/>
-      <c r="C210" s="97"/>
-      <c r="D210" s="97"/>
-      <c r="E210" s="104"/>
-      <c r="F210" s="96"/>
-      <c r="G210" s="99"/>
+      <c r="A210" s="109"/>
+      <c r="B210" s="104"/>
+      <c r="C210" s="108"/>
+      <c r="D210" s="108"/>
+      <c r="E210" s="107"/>
+      <c r="F210" s="105"/>
+      <c r="G210" s="106"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="100"/>
-      <c r="B211" s="101"/>
-      <c r="C211" s="97"/>
-      <c r="D211" s="97"/>
-      <c r="E211" s="104"/>
-      <c r="F211" s="96"/>
-      <c r="G211" s="99"/>
+      <c r="A211" s="109"/>
+      <c r="B211" s="104"/>
+      <c r="C211" s="108"/>
+      <c r="D211" s="108"/>
+      <c r="E211" s="107"/>
+      <c r="F211" s="105"/>
+      <c r="G211" s="106"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="100"/>
-      <c r="B212" s="101"/>
-      <c r="C212" s="97"/>
-      <c r="D212" s="97"/>
-      <c r="E212" s="104" t="s">
+      <c r="A212" s="109"/>
+      <c r="B212" s="104"/>
+      <c r="C212" s="108"/>
+      <c r="D212" s="108"/>
+      <c r="E212" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="F212" s="96"/>
-      <c r="G212" s="99"/>
+      <c r="F212" s="105"/>
+      <c r="G212" s="106"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="100"/>
-      <c r="B213" s="101"/>
-      <c r="C213" s="97"/>
-      <c r="D213" s="97"/>
-      <c r="E213" s="104"/>
-      <c r="F213" s="96"/>
-      <c r="G213" s="99"/>
+      <c r="A213" s="109"/>
+      <c r="B213" s="104"/>
+      <c r="C213" s="108"/>
+      <c r="D213" s="108"/>
+      <c r="E213" s="107"/>
+      <c r="F213" s="105"/>
+      <c r="G213" s="106"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="100"/>
-      <c r="B214" s="101"/>
-      <c r="C214" s="97"/>
-      <c r="D214" s="97"/>
-      <c r="E214" s="104"/>
-      <c r="F214" s="96"/>
-      <c r="G214" s="99"/>
+      <c r="A214" s="109"/>
+      <c r="B214" s="104"/>
+      <c r="C214" s="108"/>
+      <c r="D214" s="108"/>
+      <c r="E214" s="107"/>
+      <c r="F214" s="105"/>
+      <c r="G214" s="106"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="100"/>
-      <c r="B215" s="101"/>
-      <c r="C215" s="97"/>
-      <c r="D215" s="97"/>
-      <c r="E215" s="104"/>
-      <c r="F215" s="96"/>
-      <c r="G215" s="99"/>
+      <c r="A215" s="109"/>
+      <c r="B215" s="104"/>
+      <c r="C215" s="108"/>
+      <c r="D215" s="108"/>
+      <c r="E215" s="107"/>
+      <c r="F215" s="105"/>
+      <c r="G215" s="106"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="100"/>
-      <c r="B216" s="101"/>
-      <c r="C216" s="97"/>
-      <c r="D216" s="97"/>
-      <c r="E216" s="104"/>
-      <c r="F216" s="96"/>
-      <c r="G216" s="99"/>
+      <c r="A216" s="109"/>
+      <c r="B216" s="104"/>
+      <c r="C216" s="108"/>
+      <c r="D216" s="108"/>
+      <c r="E216" s="107"/>
+      <c r="F216" s="105"/>
+      <c r="G216" s="106"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="100"/>
-      <c r="B217" s="101"/>
-      <c r="C217" s="97"/>
-      <c r="D217" s="97"/>
-      <c r="E217" s="104"/>
-      <c r="F217" s="96"/>
-      <c r="G217" s="99"/>
+      <c r="A217" s="109"/>
+      <c r="B217" s="104"/>
+      <c r="C217" s="108"/>
+      <c r="D217" s="108"/>
+      <c r="E217" s="107"/>
+      <c r="F217" s="105"/>
+      <c r="G217" s="106"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="100"/>
-      <c r="B218" s="101" t="s">
+      <c r="A218" s="109"/>
+      <c r="B218" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="C218" s="97"/>
-      <c r="D218" s="97"/>
-      <c r="E218" s="104" t="s">
+      <c r="C218" s="108"/>
+      <c r="D218" s="108"/>
+      <c r="E218" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="F218" s="96"/>
-      <c r="G218" s="99"/>
+      <c r="F218" s="105"/>
+      <c r="G218" s="106"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="100"/>
-      <c r="B219" s="101"/>
-      <c r="C219" s="97"/>
-      <c r="D219" s="97"/>
-      <c r="E219" s="104"/>
-      <c r="F219" s="96"/>
-      <c r="G219" s="99"/>
+      <c r="A219" s="109"/>
+      <c r="B219" s="104"/>
+      <c r="C219" s="108"/>
+      <c r="D219" s="108"/>
+      <c r="E219" s="107"/>
+      <c r="F219" s="105"/>
+      <c r="G219" s="106"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="100"/>
-      <c r="B220" s="101"/>
-      <c r="C220" s="97"/>
-      <c r="D220" s="97"/>
-      <c r="E220" s="104"/>
-      <c r="F220" s="96"/>
-      <c r="G220" s="99"/>
+      <c r="A220" s="109"/>
+      <c r="B220" s="104"/>
+      <c r="C220" s="108"/>
+      <c r="D220" s="108"/>
+      <c r="E220" s="107"/>
+      <c r="F220" s="105"/>
+      <c r="G220" s="106"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="100"/>
-      <c r="B221" s="101"/>
-      <c r="C221" s="97"/>
-      <c r="D221" s="97"/>
-      <c r="E221" s="104"/>
-      <c r="F221" s="96"/>
-      <c r="G221" s="99"/>
+      <c r="A221" s="109"/>
+      <c r="B221" s="104"/>
+      <c r="C221" s="108"/>
+      <c r="D221" s="108"/>
+      <c r="E221" s="107"/>
+      <c r="F221" s="105"/>
+      <c r="G221" s="106"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="100"/>
-      <c r="B222" s="101"/>
-      <c r="C222" s="97"/>
-      <c r="D222" s="97"/>
-      <c r="E222" s="104"/>
-      <c r="F222" s="96"/>
-      <c r="G222" s="99"/>
+      <c r="A222" s="109"/>
+      <c r="B222" s="104"/>
+      <c r="C222" s="108"/>
+      <c r="D222" s="108"/>
+      <c r="E222" s="107"/>
+      <c r="F222" s="105"/>
+      <c r="G222" s="106"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="100"/>
-      <c r="B223" s="101"/>
-      <c r="C223" s="97"/>
-      <c r="D223" s="97"/>
-      <c r="E223" s="104"/>
-      <c r="F223" s="96"/>
-      <c r="G223" s="99"/>
+      <c r="A223" s="109"/>
+      <c r="B223" s="104"/>
+      <c r="C223" s="108"/>
+      <c r="D223" s="108"/>
+      <c r="E223" s="107"/>
+      <c r="F223" s="105"/>
+      <c r="G223" s="106"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="100"/>
-      <c r="B224" s="101"/>
-      <c r="C224" s="97"/>
-      <c r="D224" s="97"/>
-      <c r="E224" s="104" t="s">
+      <c r="A224" s="109"/>
+      <c r="B224" s="104"/>
+      <c r="C224" s="108"/>
+      <c r="D224" s="108"/>
+      <c r="E224" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="F224" s="96"/>
-      <c r="G224" s="99"/>
+      <c r="F224" s="105"/>
+      <c r="G224" s="106"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="100"/>
-      <c r="B225" s="101"/>
-      <c r="C225" s="97"/>
-      <c r="D225" s="97"/>
-      <c r="E225" s="104"/>
-      <c r="F225" s="96"/>
-      <c r="G225" s="99"/>
+      <c r="A225" s="109"/>
+      <c r="B225" s="104"/>
+      <c r="C225" s="108"/>
+      <c r="D225" s="108"/>
+      <c r="E225" s="107"/>
+      <c r="F225" s="105"/>
+      <c r="G225" s="106"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="100"/>
-      <c r="B226" s="101"/>
-      <c r="C226" s="97"/>
-      <c r="D226" s="97"/>
-      <c r="E226" s="104"/>
-      <c r="F226" s="96"/>
-      <c r="G226" s="99"/>
+      <c r="A226" s="109"/>
+      <c r="B226" s="104"/>
+      <c r="C226" s="108"/>
+      <c r="D226" s="108"/>
+      <c r="E226" s="107"/>
+      <c r="F226" s="105"/>
+      <c r="G226" s="106"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="100"/>
-      <c r="B227" s="101"/>
-      <c r="C227" s="97"/>
-      <c r="D227" s="97"/>
-      <c r="E227" s="104"/>
-      <c r="F227" s="96"/>
-      <c r="G227" s="99"/>
+      <c r="A227" s="109"/>
+      <c r="B227" s="104"/>
+      <c r="C227" s="108"/>
+      <c r="D227" s="108"/>
+      <c r="E227" s="107"/>
+      <c r="F227" s="105"/>
+      <c r="G227" s="106"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="100"/>
-      <c r="B228" s="101"/>
-      <c r="C228" s="97"/>
-      <c r="D228" s="97"/>
-      <c r="E228" s="104"/>
-      <c r="F228" s="96"/>
-      <c r="G228" s="99"/>
+      <c r="A228" s="109"/>
+      <c r="B228" s="104"/>
+      <c r="C228" s="108"/>
+      <c r="D228" s="108"/>
+      <c r="E228" s="107"/>
+      <c r="F228" s="105"/>
+      <c r="G228" s="106"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="100"/>
-      <c r="B229" s="101"/>
-      <c r="C229" s="97"/>
-      <c r="D229" s="97"/>
-      <c r="E229" s="104"/>
-      <c r="F229" s="96"/>
-      <c r="G229" s="99"/>
+      <c r="A229" s="109"/>
+      <c r="B229" s="104"/>
+      <c r="C229" s="108"/>
+      <c r="D229" s="108"/>
+      <c r="E229" s="107"/>
+      <c r="F229" s="105"/>
+      <c r="G229" s="106"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="100"/>
-      <c r="B230" s="101"/>
-      <c r="C230" s="97"/>
-      <c r="D230" s="97"/>
-      <c r="E230" s="104" t="s">
+      <c r="A230" s="109"/>
+      <c r="B230" s="104"/>
+      <c r="C230" s="108"/>
+      <c r="D230" s="108"/>
+      <c r="E230" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="F230" s="96"/>
+      <c r="F230" s="105"/>
+      <c r="G230" s="110"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="100"/>
-      <c r="B231" s="101"/>
-      <c r="E231" s="104"/>
+      <c r="A231" s="109"/>
+      <c r="B231" s="104"/>
+      <c r="C231" s="110"/>
+      <c r="D231" s="110"/>
+      <c r="E231" s="107"/>
+      <c r="F231" s="110"/>
+      <c r="G231" s="110"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="100"/>
-      <c r="B232" s="101"/>
-      <c r="E232" s="104"/>
+      <c r="A232" s="109"/>
+      <c r="B232" s="104"/>
+      <c r="C232" s="110"/>
+      <c r="D232" s="110"/>
+      <c r="E232" s="107"/>
+      <c r="F232" s="110"/>
+      <c r="G232" s="110"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="100"/>
-      <c r="B233" s="101"/>
-      <c r="E233" s="104"/>
+      <c r="A233" s="109"/>
+      <c r="B233" s="104"/>
+      <c r="C233" s="110"/>
+      <c r="D233" s="110"/>
+      <c r="E233" s="107"/>
+      <c r="F233" s="110"/>
+      <c r="G233" s="110"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="100"/>
-      <c r="B234" s="101"/>
-      <c r="E234" s="104"/>
+      <c r="A234" s="109"/>
+      <c r="B234" s="104"/>
+      <c r="C234" s="110"/>
+      <c r="D234" s="110"/>
+      <c r="E234" s="107"/>
+      <c r="F234" s="110"/>
+      <c r="G234" s="110"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="100"/>
-      <c r="B235" s="101"/>
-      <c r="E235" s="104"/>
+      <c r="A235" s="109"/>
+      <c r="B235" s="104"/>
+      <c r="C235" s="110"/>
+      <c r="D235" s="110"/>
+      <c r="E235" s="107"/>
+      <c r="F235" s="110"/>
+      <c r="G235" s="110"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="100"/>
-      <c r="B236" s="101" t="s">
+      <c r="A236" s="109"/>
+      <c r="B236" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="E236" s="104" t="s">
+      <c r="C236" s="110"/>
+      <c r="D236" s="110"/>
+      <c r="E236" s="107" t="s">
         <v>179</v>
       </c>
+      <c r="F236" s="110"/>
+      <c r="G236" s="110"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="100"/>
-      <c r="B237" s="101"/>
-      <c r="E237" s="104"/>
+      <c r="A237" s="109"/>
+      <c r="B237" s="104"/>
+      <c r="C237" s="110"/>
+      <c r="D237" s="110"/>
+      <c r="E237" s="107"/>
+      <c r="F237" s="110"/>
+      <c r="G237" s="110"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="100"/>
-      <c r="B238" s="101"/>
-      <c r="E238" s="104"/>
+      <c r="A238" s="109"/>
+      <c r="B238" s="104"/>
+      <c r="C238" s="110"/>
+      <c r="D238" s="110"/>
+      <c r="E238" s="107"/>
+      <c r="F238" s="110"/>
+      <c r="G238" s="110"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="100"/>
-      <c r="B239" s="101"/>
-      <c r="E239" s="104"/>
+      <c r="A239" s="109"/>
+      <c r="B239" s="104"/>
+      <c r="C239" s="110"/>
+      <c r="D239" s="110"/>
+      <c r="E239" s="107"/>
+      <c r="F239" s="110"/>
+      <c r="G239" s="110"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="100"/>
-      <c r="B240" s="101"/>
-      <c r="E240" s="104"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="100"/>
-      <c r="B241" s="101"/>
-      <c r="E241" s="104"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="100"/>
-      <c r="B242" s="101"/>
-      <c r="E242" s="104" t="s">
+      <c r="A240" s="109"/>
+      <c r="B240" s="104"/>
+      <c r="C240" s="110"/>
+      <c r="D240" s="110"/>
+      <c r="E240" s="107"/>
+      <c r="F240" s="110"/>
+      <c r="G240" s="110"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="109"/>
+      <c r="B241" s="104"/>
+      <c r="C241" s="110"/>
+      <c r="D241" s="110"/>
+      <c r="E241" s="107"/>
+      <c r="F241" s="110"/>
+      <c r="G241" s="110"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="109"/>
+      <c r="B242" s="104"/>
+      <c r="C242" s="110"/>
+      <c r="D242" s="110"/>
+      <c r="E242" s="107" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="100"/>
-      <c r="B243" s="101"/>
-      <c r="E243" s="104"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="100"/>
-      <c r="B244" s="101"/>
-      <c r="E244" s="104"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="100"/>
-      <c r="B245" s="101"/>
-      <c r="E245" s="104"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="100"/>
-      <c r="B246" s="101"/>
-      <c r="E246" s="104"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="100"/>
-      <c r="B247" s="101"/>
-      <c r="E247" s="104"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="100"/>
-      <c r="B248" s="101"/>
-      <c r="E248" s="104" t="s">
+      <c r="F242" s="110"/>
+      <c r="G242" s="110"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="109"/>
+      <c r="B243" s="104"/>
+      <c r="C243" s="110"/>
+      <c r="D243" s="110"/>
+      <c r="E243" s="107"/>
+      <c r="F243" s="110"/>
+      <c r="G243" s="110"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="109"/>
+      <c r="B244" s="104"/>
+      <c r="C244" s="110"/>
+      <c r="D244" s="110"/>
+      <c r="E244" s="107"/>
+      <c r="F244" s="110"/>
+      <c r="G244" s="110"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="109"/>
+      <c r="B245" s="104"/>
+      <c r="C245" s="110"/>
+      <c r="D245" s="110"/>
+      <c r="E245" s="107"/>
+      <c r="F245" s="110"/>
+      <c r="G245" s="110"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="109"/>
+      <c r="B246" s="104"/>
+      <c r="C246" s="110"/>
+      <c r="D246" s="110"/>
+      <c r="E246" s="107"/>
+      <c r="F246" s="110"/>
+      <c r="G246" s="110"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="109"/>
+      <c r="B247" s="104"/>
+      <c r="C247" s="110"/>
+      <c r="D247" s="110"/>
+      <c r="E247" s="107"/>
+      <c r="F247" s="110"/>
+      <c r="G247" s="110"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="109"/>
+      <c r="B248" s="104"/>
+      <c r="C248" s="110"/>
+      <c r="D248" s="110"/>
+      <c r="E248" s="107" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="100"/>
-      <c r="B249" s="101"/>
-      <c r="E249" s="104"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="100"/>
-      <c r="B250" s="101"/>
-      <c r="E250" s="104"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="100"/>
-      <c r="B251" s="101"/>
-      <c r="E251" s="104"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="100"/>
-      <c r="B252" s="101"/>
-      <c r="E252" s="104"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="100"/>
-      <c r="B253" s="101"/>
-      <c r="E253" s="104"/>
+      <c r="F248" s="110"/>
+      <c r="G248" s="110"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="109"/>
+      <c r="B249" s="104"/>
+      <c r="C249" s="110"/>
+      <c r="D249" s="110"/>
+      <c r="E249" s="107"/>
+      <c r="F249" s="110"/>
+      <c r="G249" s="110"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="109"/>
+      <c r="B250" s="104"/>
+      <c r="C250" s="110"/>
+      <c r="D250" s="110"/>
+      <c r="E250" s="107"/>
+      <c r="F250" s="110"/>
+      <c r="G250" s="110"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="109"/>
+      <c r="B251" s="104"/>
+      <c r="C251" s="110"/>
+      <c r="D251" s="110"/>
+      <c r="E251" s="107"/>
+      <c r="F251" s="110"/>
+      <c r="G251" s="110"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="109"/>
+      <c r="B252" s="104"/>
+      <c r="C252" s="110"/>
+      <c r="D252" s="110"/>
+      <c r="E252" s="107"/>
+      <c r="F252" s="110"/>
+      <c r="G252" s="110"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="109"/>
+      <c r="B253" s="104"/>
+      <c r="C253" s="110"/>
+      <c r="D253" s="110"/>
+      <c r="E253" s="107"/>
+      <c r="F253" s="110"/>
+      <c r="G253" s="110"/>
     </row>
     <row r="276" spans="2:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="B276" s="103" t="s">
+      <c r="B276" s="102" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3BD7F6-0613-564E-AE3A-638F3633D5DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6A8D02-C59D-444D-8419-B4B65928AE05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="427">
   <si>
     <t>Download fastq</t>
   </si>
@@ -612,9 +612,6 @@
 Rscript create_coexpr_sortNoDup_otherTADfile.R &lt;hicds&gt; &lt;exprds&gt;</t>
   </si>
   <si>
-    <t>prostate cl2</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -665,20 +662,9 @@
     <t>exprds3</t>
   </si>
   <si>
-    <t xml:space="preserve">Rscript check_step17_files.R ENCSR444WCZ_A549NCI-H460_40kb &lt;exprds&gt;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Rscript compare_pipeline_signif.R &lt;exprds&gt; ENCSR444WCZ_A549NCI-H460_40kb
 </t>
-  </si>
-  <si>
-    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; ENCSR444WCZ_A549NCI-H460_40kb</t>
-  </si>
-  <si>
-    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
-Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR444WCZ_A549NCI-H460_40kb &lt;exprds&gt;</t>
   </si>
   <si>
     <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; MCF-7ENCSR549MGQ_T47D_40kb</t>
@@ -837,10 +823,6 @@
 </t>
   </si>
   <si>
-    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
-Rscript create_coexpr_sortNoDup_otherTADfile.R &lt;hicds&gt; TCGAlaml_wt_mutFLT3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rscript check_TCGA_fpkm.R K562_40kb TCGAlaml_wt_mutFLT3
 </t>
   </si>
@@ -926,10 +908,6 @@
     <t>Rscript compare_pipeline_ranks.R TCGAluad_nonsmoker_smoker ENCSR444WCZ_A549NCI-H460_40kb</t>
   </si>
   <si>
-    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
-Rscript create_coexpr_sortNoDup_otherTADfile.R TCGAluad_nonsmoker_smoker &lt;exprds&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
 Rscript create_dist_sortNoDup_otherTADfile.R ENCSR079VIJ_G401_40kb
 </t>
@@ -1093,6 +1071,9 @@
 Rscript create_coexpr_sortNoDup_otherTADfile.R &lt;hicds&gt; TCGAskcm_lowInf_highInf</t>
   </si>
   <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAskcm_lowInf_highInf &lt;hicds&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">./run_pipeline.sh ENCSR312KHQ_SK-MEL-5_40kb TCGAskcm_lowInf_highInf
 </t>
   </si>
@@ -1134,35 +1115,549 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">./run_pipeline.sh NCI-H460_40kb &lt;exprds&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rscript check_TCGA_fpkm.R NCI-H460_40kb exprds&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rscript check_step17_files.R NCI-H460_40kb &lt;exprds&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Rscript compare_pipeline_signif.R &lt;exprds&gt; NCI-H460_40kb
-</t>
-  </si>
-  <si>
-    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; NCI-H460_40kb</t>
-  </si>
-  <si>
     <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
 Rscript create_coexpr_sortNoDup_otherTADfile.R NCI-H460_40kb &lt;exprds&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Rscript check_TCGA_fpkm.R NCI-H460_40kb &lt;exprds&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rscript check_step17_files.R  NCI-H460_40kb&lt;exprds&gt;
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R NCI-H460_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh NCI-H460_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R NCI-H460_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAlusc_norm_lusc NCI-H460_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R  TCGAlusc_norm_lusc NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R NCI-H460_40kb TCGAlusc_norm_lusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
+Rscript create_dist_sortNoDup_otherTADfile.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameTAD.sh:
+Rscript create_sameTAD_sortNoDup_otherTADfile.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameFam.sh:
+Rscript prep_gene_families_TAD_data_otherTADfile.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb
+Rscript create_sameFamily_sortNoDup_otherFamFile.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>Rscript check_matResol.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAskcm_lowInf_highInf ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R &lt;hicds&gt; TCGAskcm_wt_mutCTNNB1</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAskcm_wt_mutCTNNB1 &lt;hicds&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh &lt;hicds&gt; TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAskcm_wt_mutCTNNB1 ENCSR312KHQ_SK-MEL-5_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR312KHQ_SK-MEL-5_40kb TCGAskcm_wt_mutCTNNB1</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAskcm_wt_mutCTNNB1 ENCSR312KHQ_SK-MEL-5_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR312KHQ_SK-MEL-5_40kbTCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR312KHQ_SK-MEL-5_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAskcm_wt_mutBRAF  ENCSR312KHQ_SK-MEL-5_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAskcm_wt_mutBRAF ENCSR312KHQ_SK-MEL-5_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR312KHQ_SK-MEL-5_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR312KHQ_SK-MEL-5_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR312KHQ_SK-MEL-5_40kbTCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
+Rscript create_dist_sortNoDup_otherTADfile.R ENCSR444WCZ_A549_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameTAD.sh:
+Rscript create_sameTAD_sortNoDup_otherTADfile.R ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameFam.sh:
+Rscript prep_gene_families_TAD_data_otherTADfile.R ENCSR444WCZ_A549_40kb
+Rscript create_sameFamily_sortNoDup_otherFamFile.R ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t>Rscript check_matResol.R ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR444WCZ_A549_40kb TCGAluad_mutKRAS_mutEGFR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR444WCZ_A549_40kb TCGAluad_mutKRAS_mutEGFR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR444WCZ_A549_40kb TCGAluad_mutKRAS_mutEGFR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAluad_mutKRAS_mutEGFRENCSR444WCZ_A549_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR444WCZ_A549_40kb TCGAluad_mutKRAS_mutEGFR</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R  TCGAluad_mutKRAS_mutEGFR ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh &lt;hicds&gt; TCGAluad_nonsmoker_smoker
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR444WCZ_A549_40kb TCGAluad_nonsmoker_smoker
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
+Rscript create_dist_sortNoDup_otherTADfile.R ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameTAD.sh:
+Rscript create_sameTAD_sortNoDup_otherTADfile.R ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameFam.sh:
+Rscript prep_gene_families_TAD_data_otherTADfile.R ENCSR862OGI_RPMI-7951_40kb
+Rscript create_sameFamily_sortNoDup_otherFamFile.R  ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>Rscript check_matResol.R ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R K562_40kb TCGAlaml_wt_mutFLT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh NCI-H460_40kb TCGAluad_mutKRAS_mutEGFR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R NCI-H460_40kb TCGAluad_mutKRAS_mutEGFR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R NCI-H460_40kb TCGAluad_mutKRAS_mutEGFR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAluad_mutKRAS_mutEGFR NCI-H460_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAluad_mutKRAS_mutEGFR NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R NCI-H460_40kb TCGAluad_mutKRAS_mutEGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R NCI-H460_40kb TCGAluad_nonsmoker_smoker
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R NCI-H460_40kb TCGAluad_nonsmoker_smoker
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh NCI-H460_40kb TCGAluad_nonsmoker_smoker
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAluad_nonsmoker_smoker NCI-H460_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAluad_nonsmoker_smoker NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAlusc_norm_lusc ENCSR444WCZ_A549NCI-H460_40kb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR444WCZ_A549NCI-H460_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAlusc_norm_lusc ENCSR444WCZ_A549NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR444WCZ_A549NCI-H460_40kb TCGAlusc_norm_lusc</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R TCGAluad_nonsmoker_smoker TCGAluad_nonsmoker_smoker</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR444WCZ_A549NCI-H460_40kb TCGAluad_mutKRAS_mutEGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAlusc_norm_lusc  ENCSR444WCZ_A549_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAlusc_norm_lusc ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR444WCZ_A549_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R  ENCSR444WCZ_A549_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR444WCZ_A549_40kb TCGAlusc_norm_lusc
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.RENCSR444WCZ_A549_40kb TCGAlusc_norm_lusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R NCI-H460_40kb TCGAluad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R  NCI-H460_40kb TCGAluad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh NCI-H460_40kb TCGAluad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAluad_wt_mutKRAS NCI-H460_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R NCI-H460_40kb TCGAluad_wt_mutKRAS</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAluad_wt_mutKRAS NCI-H460_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
+Rscript create_dist_sortNoDup_otherTADfile.R ENCSR346DCU_LNCaP_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameFam.sh:
+Rscript prep_gene_families_TAD_data_otherTADfile.R ENCSR346DCU_LNCaP_40kb
+Rscript create_sameFamily_sortNoDup_otherFamFile.R ENCSR346DCU_LNCaP_40kb</t>
+  </si>
+  <si>
+    <t>Rscript check_matResol.R ENCSR346DCU_LNCaP_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameTAD.sh:
+Rscript create_sameTAD_sortNoDup_otherTADfile.R ENCSR346DCU_LNCaP_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR346DCU_LNCaP_40kb &lt;exprds&gt;</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; ENCSR346DCU_LNCaP_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR346DCU_LNCaP_40kb TCGAprad_norm_prad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR346DCU_LNCaP_40kb TCGAprad_norm_prad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR346DCU_LNCaP_40kb TCGAprad_norm_prad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R  TCGAprad_norm_prad ENCSR346DCU_LNCaP_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR312KHQ_SK-MEL-5_40kb TCGAskcm_wt_mutBRAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAskcm_lowInf_highInf ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAskcm_lowInf_highInf ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_lowInf_highInf</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAskcm_wt_mutBRAF ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R  TCGAskcm_wt_mutCTNNB1 ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.RTCGAskcm_wt_mutCTNNB1 ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR444WCZ_A549_40kb TCGAluad_nonsmoker_smoke
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR444WCZ_A549_40kb TCGAluad_nonsmoker_smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR444WCZ_A549_40kb  TCGAluad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR444WCZ_A549_40kb TCGAluad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR444WCZ_A549_40kb TCGAluad_wt_mutKRAS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R  TCGAluad_wt_mutKRAS ENCSR444WCZ_A549_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAluad_wt_mutKRAS ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR444WCZ_A549_40kb TCGAluad_wt_mutKRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAluad_nonsmoker_smoker ENCSR444WCZ_A549_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R TCGAluad_nonsmoker_smoker ENCSR444WCZ_A549_40kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R &lt;exprds&gt; ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAskcm_wt_mutCTNNB1 ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb
+</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kbTCGAskcm_wt_mutBRAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.RENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutBRAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh ENCSR312KHQ_SK-MEL-5ENCSR862OGI_RPMI-7951_40kb TCGAskcm_wt_mutCTNNB1
+</t>
+  </si>
+  <si>
+    <t>GSE73782_PC3
+(also _ICE)</t>
+  </si>
+  <si>
+    <t>prostate consensus
+(also ICE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./all_prep_data_for_AUC_coexprDist_dist.sh:
+Rscript create_dist_sortNoDup_otherTADfile.R GSE73782_PC3
+</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameFam.sh:
+Rscript prep_gene_families_TAD_data_otherTADfile.R GSE73782_PC3
+Rscript create_sameFamily_sortNoDup_otherFamFile.R GSE73782_PC3</t>
+  </si>
+  <si>
+    <t>Rscript check_matResol.R GSE73782_PC3</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_sameTAD.sh:
+Rscript create_sameTAD_sortNoDup_otherTADfile.R GSE73782_PC3</t>
+  </si>
+  <si>
+    <t>Rscript compare_pipeline_ranks.R &lt;exprds&gt; GSE73782_PC3</t>
+  </si>
+  <si>
+    <t>./all_prep_data_for_AUC_coexprDist_coexpr.sh:
+Rscript create_coexpr_sortNoDup_otherTADfile.R GSE73782_PC3 TCGAprad_norm_prad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_TCGA_fpkm.R GSE73782_PC3 TCGAprad_norm_prad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./run_pipeline.sh GSE73782_PC3 TCGAprad_norm_prad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rscript check_step17_files.R GSE73782_PC3 TCGAprad_norm_prad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rscript compare_pipeline_signif.R TCGAprad_norm_prad GSE73782_PC3
 </t>
   </si>
 </sst>
@@ -1534,7 +2029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1843,6 +2338,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3639,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12159EBC-74A8-9F4E-B7BF-F6DB1EFDA443}">
   <dimension ref="A2:G276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3661,7 +4159,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D2" s="72">
         <v>43480</v>
@@ -3670,7 +4168,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G2" s="72">
         <v>43480</v>
@@ -3680,14 +4178,14 @@
       <c r="A3" s="107"/>
       <c r="B3" s="108"/>
       <c r="C3" s="71" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D3" s="72">
         <v>43480</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="71" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G3" s="72">
         <v>43480</v>
@@ -3697,14 +4195,14 @@
       <c r="A4" s="107"/>
       <c r="B4" s="108"/>
       <c r="C4" s="71" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D4" s="72">
         <v>43480</v>
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="71" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G4" s="72">
         <v>43480</v>
@@ -3714,14 +4212,14 @@
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D5" s="72">
         <v>43480</v>
       </c>
       <c r="E5" s="109"/>
       <c r="F5" s="71" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G5" s="72">
         <v>43480</v>
@@ -3734,7 +4232,7 @@
       <c r="D6" s="109"/>
       <c r="E6" s="109"/>
       <c r="F6" s="71" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G6" s="72">
         <v>43480</v>
@@ -3747,7 +4245,7 @@
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
       <c r="F7" s="71" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G7" s="72">
         <v>43480</v>
@@ -3759,7 +4257,7 @@
         <v>126</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D8" s="72">
         <v>43480</v>
@@ -3768,7 +4266,7 @@
         <v>127</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G8" s="72">
         <v>43480</v>
@@ -3778,14 +4276,14 @@
       <c r="A9" s="107"/>
       <c r="B9" s="108"/>
       <c r="C9" s="71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D9" s="72">
         <v>43480</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="71" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G9" s="72">
         <v>43480</v>
@@ -3795,14 +4293,14 @@
       <c r="A10" s="107"/>
       <c r="B10" s="108"/>
       <c r="C10" s="71" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D10" s="72">
         <v>43480</v>
       </c>
       <c r="E10" s="109"/>
       <c r="F10" s="71" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G10" s="72">
         <v>43480</v>
@@ -3812,14 +4310,14 @@
       <c r="A11" s="107"/>
       <c r="B11" s="108"/>
       <c r="C11" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D11" s="72">
         <v>43480</v>
       </c>
       <c r="E11" s="109"/>
       <c r="F11" s="71" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G11" s="72">
         <v>43480</v>
@@ -3832,7 +4330,7 @@
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
       <c r="F12" s="71" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G12" s="72">
         <v>43480</v>
@@ -3845,7 +4343,7 @@
       <c r="D13" s="109"/>
       <c r="E13" s="109"/>
       <c r="F13" s="71" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G13" s="72">
         <v>43480</v>
@@ -3857,7 +4355,7 @@
         <v>128</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D14" s="72">
         <v>43480</v>
@@ -3866,7 +4364,7 @@
         <v>127</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G14" s="72">
         <v>43480</v>
@@ -3876,14 +4374,14 @@
       <c r="A15" s="107"/>
       <c r="B15" s="108"/>
       <c r="C15" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D15" s="72">
         <v>43480</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="71" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G15" s="72">
         <v>43480</v>
@@ -3893,14 +4391,14 @@
       <c r="A16" s="107"/>
       <c r="B16" s="108"/>
       <c r="C16" s="71" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D16" s="72">
         <v>43480</v>
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="71" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G16" s="72">
         <v>43480</v>
@@ -3910,14 +4408,14 @@
       <c r="A17" s="107"/>
       <c r="B17" s="108"/>
       <c r="C17" s="71" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D17" s="72">
         <v>43480</v>
       </c>
       <c r="E17" s="109"/>
       <c r="F17" s="71" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G17" s="72">
         <v>43480</v>
@@ -3930,7 +4428,7 @@
       <c r="D18" s="109"/>
       <c r="E18" s="109"/>
       <c r="F18" s="71" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G18" s="72">
         <v>43480</v>
@@ -3943,7 +4441,7 @@
       <c r="D19" s="109"/>
       <c r="E19" s="109"/>
       <c r="F19" s="71" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G19" s="72">
         <v>43480</v>
@@ -3951,13 +4449,13 @@
     </row>
     <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="108" t="s">
         <v>129</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D20" s="72">
         <v>43480</v>
@@ -3966,7 +4464,7 @@
         <v>130</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G20" s="72">
         <v>43480</v>
@@ -3976,14 +4474,14 @@
       <c r="A21" s="107"/>
       <c r="B21" s="108"/>
       <c r="C21" s="71" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D21" s="72">
         <v>43480</v>
       </c>
       <c r="E21" s="109"/>
       <c r="F21" s="71" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G21" s="72">
         <v>43480</v>
@@ -3993,14 +4491,14 @@
       <c r="A22" s="107"/>
       <c r="B22" s="108"/>
       <c r="C22" s="71" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D22" s="72">
         <v>43480</v>
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="71" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G22" s="72">
         <v>43480</v>
@@ -4010,14 +4508,14 @@
       <c r="A23" s="107"/>
       <c r="B23" s="108"/>
       <c r="C23" s="71" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D23" s="72">
         <v>43480</v>
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="71" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G23" s="72">
         <v>43480</v>
@@ -4030,7 +4528,7 @@
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
       <c r="F24" s="71" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G24" s="72">
         <v>43480</v>
@@ -4043,7 +4541,7 @@
       <c r="D25" s="109"/>
       <c r="E25" s="109"/>
       <c r="F25" s="71" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G25" s="72">
         <v>43480</v>
@@ -4058,7 +4556,7 @@
         <v>131</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="G26" s="72">
         <v>43480</v>
@@ -4071,46 +4569,46 @@
       <c r="D27" s="109"/>
       <c r="E27" s="109"/>
       <c r="F27" s="71" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="G27" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="107"/>
       <c r="B28" s="108"/>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="71" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="G28" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="107"/>
       <c r="B29" s="108"/>
       <c r="C29" s="109"/>
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="71" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="G29" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="107"/>
       <c r="B30" s="108"/>
       <c r="C30" s="109"/>
       <c r="D30" s="109"/>
       <c r="E30" s="109"/>
       <c r="F30" s="71" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="G30" s="72">
         <v>43480</v>
@@ -4123,7 +4621,7 @@
       <c r="D31" s="109"/>
       <c r="E31" s="109"/>
       <c r="F31" s="71" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="G31" s="72">
         <v>43480</v>
@@ -4138,84 +4636,84 @@
         <v>132</v>
       </c>
       <c r="F32" s="71" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="G32" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="107"/>
       <c r="B33" s="108"/>
       <c r="C33" s="109"/>
       <c r="D33" s="109"/>
       <c r="E33" s="109"/>
       <c r="F33" s="71" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="G33" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="107"/>
       <c r="B34" s="108"/>
       <c r="C34" s="109"/>
       <c r="D34" s="109"/>
       <c r="E34" s="109"/>
       <c r="F34" s="71" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="G34" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="107"/>
       <c r="B35" s="108"/>
       <c r="C35" s="109"/>
       <c r="D35" s="109"/>
       <c r="E35" s="109"/>
       <c r="F35" s="71" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="G35" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="107"/>
       <c r="B36" s="108"/>
       <c r="C36" s="109"/>
       <c r="D36" s="109"/>
       <c r="E36" s="109"/>
       <c r="F36" s="71" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="G36" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="107"/>
       <c r="B37" s="108"/>
       <c r="C37" s="109"/>
       <c r="D37" s="109"/>
       <c r="E37" s="109"/>
       <c r="F37" s="71" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="G37" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="107"/>
       <c r="B38" s="108" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="D38" s="72">
         <v>43480</v>
@@ -4224,58 +4722,58 @@
         <v>130</v>
       </c>
       <c r="F38" s="71" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G38" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="107"/>
       <c r="B39" s="108"/>
       <c r="C39" s="71" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="D39" s="72">
         <v>43480</v>
       </c>
       <c r="E39" s="109"/>
       <c r="F39" s="71" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="G39" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="107"/>
       <c r="B40" s="108"/>
       <c r="C40" s="71" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="D40" s="72">
         <v>43480</v>
       </c>
       <c r="E40" s="109"/>
       <c r="F40" s="71" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="G40" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="107"/>
       <c r="B41" s="108"/>
       <c r="C41" s="71" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="D41" s="72">
         <v>43480</v>
       </c>
       <c r="E41" s="109"/>
       <c r="F41" s="71" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="G41" s="72">
         <v>43480</v>
@@ -4288,7 +4786,7 @@
       <c r="D42" s="109"/>
       <c r="E42" s="109"/>
       <c r="F42" s="71" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="G42" s="72">
         <v>43480</v>
@@ -4301,13 +4799,13 @@
       <c r="D43" s="109"/>
       <c r="E43" s="109"/>
       <c r="F43" s="71" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="G43" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="107"/>
       <c r="B44" s="108"/>
       <c r="C44" s="109"/>
@@ -4316,78 +4814,78 @@
         <v>131</v>
       </c>
       <c r="F44" s="71" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="G44" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="107"/>
       <c r="B45" s="108"/>
       <c r="C45" s="109"/>
       <c r="D45" s="109"/>
       <c r="E45" s="109"/>
       <c r="F45" s="71" t="s">
-        <v>157</v>
+        <v>412</v>
       </c>
       <c r="G45" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="107"/>
       <c r="B46" s="108"/>
       <c r="C46" s="109"/>
       <c r="D46" s="109"/>
       <c r="E46" s="109"/>
       <c r="F46" s="71" t="s">
-        <v>158</v>
+        <v>411</v>
       </c>
       <c r="G46" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="107"/>
       <c r="B47" s="108"/>
       <c r="C47" s="109"/>
       <c r="D47" s="109"/>
       <c r="E47" s="109"/>
       <c r="F47" s="71" t="s">
-        <v>159</v>
+        <v>405</v>
       </c>
       <c r="G47" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="107"/>
       <c r="B48" s="108"/>
       <c r="C48" s="109"/>
       <c r="D48" s="109"/>
       <c r="E48" s="109"/>
       <c r="F48" s="71" t="s">
-        <v>160</v>
+        <v>409</v>
       </c>
       <c r="G48" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="107"/>
       <c r="B49" s="108"/>
       <c r="C49" s="109"/>
       <c r="D49" s="109"/>
       <c r="E49" s="109"/>
       <c r="F49" s="71" t="s">
-        <v>164</v>
+        <v>410</v>
       </c>
       <c r="G49" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="107"/>
       <c r="B50" s="108"/>
       <c r="C50" s="109"/>
@@ -4396,46 +4894,46 @@
         <v>132</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="G50" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="107"/>
       <c r="B51" s="108"/>
       <c r="C51" s="109"/>
       <c r="D51" s="109"/>
       <c r="E51" s="109"/>
       <c r="F51" s="71" t="s">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="G51" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="107"/>
       <c r="B52" s="108"/>
       <c r="C52" s="109"/>
       <c r="D52" s="109"/>
       <c r="E52" s="109"/>
       <c r="F52" s="71" t="s">
-        <v>158</v>
+        <v>406</v>
       </c>
       <c r="G52" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="107"/>
       <c r="B53" s="108"/>
       <c r="C53" s="109"/>
       <c r="D53" s="109"/>
       <c r="E53" s="109"/>
       <c r="F53" s="71" t="s">
-        <v>159</v>
+        <v>408</v>
       </c>
       <c r="G53" s="72">
         <v>43480</v>
@@ -4448,7 +4946,7 @@
       <c r="D54" s="109"/>
       <c r="E54" s="109"/>
       <c r="F54" s="71" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="G54" s="72">
         <v>43480</v>
@@ -4461,19 +4959,19 @@
       <c r="D55" s="109"/>
       <c r="E55" s="109"/>
       <c r="F55" s="71" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="G55" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="107"/>
       <c r="B56" s="108" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="D56" s="72">
         <v>43480</v>
@@ -4482,84 +4980,84 @@
         <v>130</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>156</v>
+        <v>378</v>
       </c>
       <c r="G56" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="107"/>
       <c r="B57" s="108"/>
       <c r="C57" s="71" t="s">
-        <v>162</v>
+        <v>334</v>
       </c>
       <c r="D57" s="72">
         <v>43480</v>
       </c>
       <c r="E57" s="109"/>
       <c r="F57" s="71" t="s">
-        <v>157</v>
+        <v>377</v>
       </c>
       <c r="G57" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="107"/>
       <c r="B58" s="108"/>
       <c r="C58" s="71" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="D58" s="72">
         <v>43480</v>
       </c>
       <c r="E58" s="109"/>
       <c r="F58" s="71" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="G58" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="107"/>
       <c r="B59" s="108"/>
       <c r="C59" s="71" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="D59" s="72">
         <v>43480</v>
       </c>
       <c r="E59" s="109"/>
       <c r="F59" s="71" t="s">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="G59" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="107"/>
       <c r="B60" s="108"/>
       <c r="C60" s="109"/>
       <c r="D60" s="109"/>
       <c r="E60" s="109"/>
       <c r="F60" s="71" t="s">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c r="G60" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="107"/>
       <c r="B61" s="108"/>
       <c r="C61" s="109"/>
       <c r="D61" s="109"/>
       <c r="E61" s="109"/>
       <c r="F61" s="71" t="s">
-        <v>164</v>
+        <v>382</v>
       </c>
       <c r="G61" s="72">
         <v>43480</v>
@@ -4574,46 +5072,46 @@
         <v>131</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="G62" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="107"/>
       <c r="B63" s="108"/>
       <c r="C63" s="109"/>
       <c r="D63" s="109"/>
       <c r="E63" s="109"/>
       <c r="F63" s="71" t="s">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="G63" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="107"/>
       <c r="B64" s="108"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
       <c r="E64" s="109"/>
       <c r="F64" s="71" t="s">
-        <v>158</v>
+        <v>386</v>
       </c>
       <c r="G64" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="107"/>
       <c r="B65" s="108"/>
       <c r="C65" s="109"/>
       <c r="D65" s="109"/>
       <c r="E65" s="109"/>
       <c r="F65" s="71" t="s">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="G65" s="72">
         <v>43480</v>
@@ -4626,20 +5124,20 @@
       <c r="D66" s="109"/>
       <c r="E66" s="109"/>
       <c r="F66" s="71" t="s">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="G66" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="107"/>
       <c r="B67" s="108"/>
       <c r="C67" s="109"/>
       <c r="D67" s="109"/>
       <c r="E67" s="109"/>
       <c r="F67" s="71" t="s">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="G67" s="72">
         <v>43480</v>
@@ -4654,86 +5152,86 @@
         <v>132</v>
       </c>
       <c r="F68" s="71" t="s">
-        <v>156</v>
+        <v>390</v>
       </c>
       <c r="G68" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="107"/>
       <c r="B69" s="108"/>
       <c r="C69" s="109"/>
       <c r="D69" s="109"/>
       <c r="E69" s="109"/>
       <c r="F69" s="71" t="s">
-        <v>157</v>
+        <v>389</v>
       </c>
       <c r="G69" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="107"/>
       <c r="B70" s="108"/>
       <c r="C70" s="109"/>
       <c r="D70" s="109"/>
       <c r="E70" s="109"/>
       <c r="F70" s="71" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="G70" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="107"/>
       <c r="B71" s="108"/>
       <c r="C71" s="109"/>
       <c r="D71" s="109"/>
       <c r="E71" s="109"/>
       <c r="F71" s="71" t="s">
-        <v>159</v>
+        <v>393</v>
       </c>
       <c r="G71" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="107"/>
       <c r="B72" s="108"/>
       <c r="C72" s="109"/>
       <c r="D72" s="109"/>
       <c r="E72" s="109"/>
       <c r="F72" s="71" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
       <c r="G72" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="107"/>
       <c r="B73" s="108"/>
       <c r="C73" s="109"/>
       <c r="D73" s="109"/>
       <c r="E73" s="109"/>
       <c r="F73" s="71" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="G73" s="72">
         <v>43480</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B74" s="108" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="71" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="D74" s="72">
         <v>43480</v>
@@ -4742,58 +5240,58 @@
         <v>136</v>
       </c>
       <c r="F74" s="71" t="s">
-        <v>156</v>
+        <v>372</v>
       </c>
       <c r="G74" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="107"/>
       <c r="B75" s="108"/>
       <c r="C75" s="71" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="D75" s="72">
         <v>43480</v>
       </c>
       <c r="E75" s="110"/>
       <c r="F75" s="71" t="s">
-        <v>157</v>
+        <v>373</v>
       </c>
       <c r="G75" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="107"/>
       <c r="B76" s="108"/>
       <c r="C76" s="71" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="D76" s="72">
         <v>43480</v>
       </c>
       <c r="E76" s="110"/>
       <c r="F76" s="71" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
       <c r="G76" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="107"/>
       <c r="B77" s="108"/>
       <c r="C77" s="71" t="s">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="D77" s="72">
         <v>43480</v>
       </c>
       <c r="E77" s="110"/>
       <c r="F77" s="71" t="s">
-        <v>159</v>
+        <v>375</v>
       </c>
       <c r="G77" s="72">
         <v>43481</v>
@@ -4806,20 +5304,20 @@
       <c r="D78" s="109"/>
       <c r="E78" s="110"/>
       <c r="F78" s="71" t="s">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="G78" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="107"/>
       <c r="B79" s="108"/>
       <c r="C79" s="109"/>
       <c r="D79" s="109"/>
       <c r="E79" s="110"/>
       <c r="F79" s="71" t="s">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="G79" s="72">
         <v>43481</v>
@@ -4827,59 +5325,75 @@
     </row>
     <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="107"/>
-      <c r="B80" s="105" t="s">
-        <v>165</v>
+      <c r="B80" s="111" t="s">
+        <v>415</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" s="76"/>
+        <v>417</v>
+      </c>
+      <c r="D80" s="76">
+        <v>43484</v>
+      </c>
       <c r="E80" s="104" t="s">
         <v>136</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80" s="76"/>
-    </row>
-    <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="G80" s="76">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="107"/>
       <c r="B81" s="105"/>
       <c r="C81" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="76"/>
+        <v>418</v>
+      </c>
+      <c r="D81" s="76">
+        <v>43484</v>
+      </c>
       <c r="E81" s="104"/>
       <c r="F81" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="G81" s="76"/>
-    </row>
-    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="G81" s="76">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="107"/>
       <c r="B82" s="105"/>
       <c r="C82" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="76"/>
+        <v>420</v>
+      </c>
+      <c r="D82" s="76">
+        <v>43484</v>
+      </c>
       <c r="E82" s="104"/>
       <c r="F82" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="76"/>
+        <v>425</v>
+      </c>
+      <c r="G82" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="107"/>
       <c r="B83" s="105"/>
       <c r="C83" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83" s="76"/>
+        <v>419</v>
+      </c>
+      <c r="D83" s="76">
+        <v>43484</v>
+      </c>
       <c r="E83" s="104"/>
       <c r="F83" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="G83" s="76"/>
+        <v>426</v>
+      </c>
+      <c r="G83" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="107"/>
@@ -4888,37 +5402,45 @@
       <c r="D84" s="104"/>
       <c r="E84" s="104"/>
       <c r="F84" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G84" s="76"/>
-    </row>
-    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="G84" s="76">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="107"/>
       <c r="B85" s="105"/>
       <c r="C85" s="104"/>
       <c r="D85" s="104"/>
       <c r="E85" s="104"/>
       <c r="F85" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="G85" s="76"/>
+        <v>422</v>
+      </c>
+      <c r="G85" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="107"/>
-      <c r="B86" s="105" t="s">
-        <v>97</v>
+      <c r="B86" s="111" t="s">
+        <v>416</v>
       </c>
       <c r="C86" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="76"/>
+      <c r="D86" s="76">
+        <v>43484</v>
+      </c>
       <c r="E86" s="104" t="s">
         <v>136</v>
       </c>
       <c r="F86" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G86" s="76"/>
+      <c r="G86" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="107"/>
@@ -4926,12 +5448,16 @@
       <c r="C87" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D87" s="76"/>
+      <c r="D87" s="76">
+        <v>43484</v>
+      </c>
       <c r="E87" s="104"/>
       <c r="F87" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="G87" s="76"/>
+      <c r="G87" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="107"/>
@@ -4939,12 +5465,16 @@
       <c r="C88" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="76"/>
+      <c r="D88" s="76">
+        <v>43484</v>
+      </c>
       <c r="E88" s="104"/>
       <c r="F88" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="76"/>
+      <c r="G88" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="107"/>
@@ -4952,12 +5482,16 @@
       <c r="C89" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="76"/>
+      <c r="D89" s="76">
+        <v>43484</v>
+      </c>
       <c r="E89" s="104"/>
       <c r="F89" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="G89" s="76"/>
+      <c r="G89" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="107"/>
@@ -4968,7 +5502,9 @@
       <c r="F90" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="G90" s="76"/>
+      <c r="G90" s="76">
+        <v>43484</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="107"/>
@@ -4979,17 +5515,19 @@
       <c r="F91" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="G91" s="76"/>
-    </row>
-    <row r="92" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G91" s="76">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" s="108" t="s">
         <v>137</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="D92" s="72">
         <v>43480</v>
@@ -4998,84 +5536,84 @@
         <v>138</v>
       </c>
       <c r="F92" s="71" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="G92" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="107"/>
       <c r="B93" s="108"/>
       <c r="C93" s="71" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="D93" s="72">
         <v>43480</v>
       </c>
       <c r="E93" s="109"/>
       <c r="F93" s="71" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="G93" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="107"/>
       <c r="B94" s="108"/>
       <c r="C94" s="71" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="D94" s="72">
         <v>43480</v>
       </c>
       <c r="E94" s="109"/>
       <c r="F94" s="71" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="G94" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="107"/>
       <c r="B95" s="108"/>
       <c r="C95" s="71" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="D95" s="72">
         <v>43480</v>
       </c>
       <c r="E95" s="109"/>
       <c r="F95" s="71" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="G95" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="107"/>
       <c r="B96" s="108"/>
       <c r="C96" s="109"/>
       <c r="D96" s="109"/>
       <c r="E96" s="109"/>
       <c r="F96" s="71" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="G96" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="107"/>
       <c r="B97" s="108"/>
       <c r="C97" s="109"/>
       <c r="D97" s="109"/>
       <c r="E97" s="109"/>
       <c r="F97" s="71" t="s">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="G97" s="72">
         <v>43481</v>
@@ -5090,72 +5628,72 @@
         <v>139</v>
       </c>
       <c r="F98" s="71" t="s">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="G98" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="107"/>
       <c r="B99" s="108"/>
       <c r="C99" s="109"/>
       <c r="D99" s="109"/>
       <c r="E99" s="109"/>
       <c r="F99" s="71" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="G99" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="107"/>
       <c r="B100" s="108"/>
       <c r="C100" s="109"/>
       <c r="D100" s="109"/>
       <c r="E100" s="109"/>
       <c r="F100" s="71" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="G100" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="107"/>
       <c r="B101" s="108"/>
       <c r="C101" s="109"/>
       <c r="D101" s="109"/>
       <c r="E101" s="109"/>
       <c r="F101" s="71" t="s">
-        <v>159</v>
+        <v>403</v>
       </c>
       <c r="G101" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="107"/>
       <c r="B102" s="108"/>
       <c r="C102" s="109"/>
       <c r="D102" s="109"/>
       <c r="E102" s="109"/>
       <c r="F102" s="71" t="s">
-        <v>160</v>
+        <v>404</v>
       </c>
       <c r="G102" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="107"/>
       <c r="B103" s="108"/>
       <c r="C103" s="109"/>
       <c r="D103" s="109"/>
       <c r="E103" s="109"/>
       <c r="F103" s="71" t="s">
-        <v>164</v>
+        <v>396</v>
       </c>
       <c r="G103" s="72">
         <v>43481</v>
@@ -5170,7 +5708,7 @@
         <v>140</v>
       </c>
       <c r="F104" s="71" t="s">
-        <v>156</v>
+        <v>399</v>
       </c>
       <c r="G104" s="72">
         <v>43481</v>
@@ -5183,7 +5721,7 @@
       <c r="D105" s="109"/>
       <c r="E105" s="109"/>
       <c r="F105" s="71" t="s">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="G105" s="72">
         <v>43481</v>
@@ -5196,46 +5734,46 @@
       <c r="D106" s="109"/>
       <c r="E106" s="109"/>
       <c r="F106" s="71" t="s">
-        <v>158</v>
+        <v>398</v>
       </c>
       <c r="G106" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="107"/>
       <c r="B107" s="108"/>
       <c r="C107" s="109"/>
       <c r="D107" s="109"/>
       <c r="E107" s="109"/>
       <c r="F107" s="71" t="s">
-        <v>159</v>
+        <v>400</v>
       </c>
       <c r="G107" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="107"/>
       <c r="B108" s="108"/>
       <c r="C108" s="109"/>
       <c r="D108" s="109"/>
       <c r="E108" s="109"/>
       <c r="F108" s="71" t="s">
-        <v>160</v>
+        <v>401</v>
       </c>
       <c r="G108" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="107"/>
       <c r="B109" s="108"/>
       <c r="C109" s="109"/>
       <c r="D109" s="109"/>
       <c r="E109" s="109"/>
       <c r="F109" s="71" t="s">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="G109" s="72">
         <v>43481</v>
@@ -5250,7 +5788,7 @@
         <v>141</v>
       </c>
       <c r="F110" s="71" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="G110" s="72">
         <v>43481</v>
@@ -5263,7 +5801,7 @@
       <c r="D111" s="109"/>
       <c r="E111" s="109"/>
       <c r="F111" s="71" t="s">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="G111" s="72">
         <v>43481</v>
@@ -5276,7 +5814,7 @@
       <c r="D112" s="109"/>
       <c r="E112" s="109"/>
       <c r="F112" s="71" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="G112" s="72">
         <v>43481</v>
@@ -5289,7 +5827,7 @@
       <c r="D113" s="109"/>
       <c r="E113" s="109"/>
       <c r="F113" s="71" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="G113" s="72">
         <v>43481</v>
@@ -5302,20 +5840,20 @@
       <c r="D114" s="109"/>
       <c r="E114" s="109"/>
       <c r="F114" s="71" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="G114" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="107"/>
       <c r="B115" s="108"/>
       <c r="C115" s="109"/>
       <c r="D115" s="109"/>
       <c r="E115" s="109"/>
       <c r="F115" s="71" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="G115" s="72">
         <v>43481</v>
@@ -5327,7 +5865,7 @@
         <v>142</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D116" s="72">
         <v>43480</v>
@@ -5336,7 +5874,7 @@
         <v>138</v>
       </c>
       <c r="F116" s="71" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="G116" s="72">
         <v>43481</v>
@@ -5346,14 +5884,14 @@
       <c r="A117" s="107"/>
       <c r="B117" s="108"/>
       <c r="C117" s="71" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D117" s="72">
         <v>43480</v>
       </c>
       <c r="E117" s="109"/>
       <c r="F117" s="71" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="G117" s="72">
         <v>43481</v>
@@ -5363,14 +5901,14 @@
       <c r="A118" s="107"/>
       <c r="B118" s="108"/>
       <c r="C118" s="71" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D118" s="72">
         <v>43480</v>
       </c>
       <c r="E118" s="109"/>
       <c r="F118" s="71" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="G118" s="72">
         <v>43481</v>
@@ -5380,14 +5918,14 @@
       <c r="A119" s="107"/>
       <c r="B119" s="108"/>
       <c r="C119" s="71" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D119" s="72">
         <v>43480</v>
       </c>
       <c r="E119" s="109"/>
       <c r="F119" s="71" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="G119" s="72">
         <v>43481</v>
@@ -5400,20 +5938,20 @@
       <c r="D120" s="109"/>
       <c r="E120" s="109"/>
       <c r="F120" s="71" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="G120" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="107"/>
       <c r="B121" s="108"/>
       <c r="C121" s="109"/>
       <c r="D121" s="109"/>
       <c r="E121" s="109"/>
       <c r="F121" s="71" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="G121" s="72">
         <v>43481</v>
@@ -5428,7 +5966,7 @@
         <v>139</v>
       </c>
       <c r="F122" s="71" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G122" s="72">
         <v>43481</v>
@@ -5441,7 +5979,7 @@
       <c r="D123" s="109"/>
       <c r="E123" s="109"/>
       <c r="F123" s="71" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G123" s="72">
         <v>43481</v>
@@ -5454,7 +5992,7 @@
       <c r="D124" s="109"/>
       <c r="E124" s="109"/>
       <c r="F124" s="71" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="G124" s="72">
         <v>43481</v>
@@ -5467,7 +6005,7 @@
       <c r="D125" s="109"/>
       <c r="E125" s="109"/>
       <c r="F125" s="71" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="G125" s="72">
         <v>43481</v>
@@ -5480,7 +6018,7 @@
       <c r="D126" s="109"/>
       <c r="E126" s="109"/>
       <c r="F126" s="71" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="G126" s="72">
         <v>43481</v>
@@ -5493,7 +6031,7 @@
       <c r="D127" s="109"/>
       <c r="E127" s="109"/>
       <c r="F127" s="71" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G127" s="72">
         <v>43481</v>
@@ -5508,7 +6046,7 @@
         <v>140</v>
       </c>
       <c r="F128" s="71" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="G128" s="72">
         <v>43481</v>
@@ -5521,7 +6059,7 @@
       <c r="D129" s="109"/>
       <c r="E129" s="109"/>
       <c r="F129" s="71" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="G129" s="72">
         <v>43481</v>
@@ -5534,7 +6072,7 @@
       <c r="D130" s="109"/>
       <c r="E130" s="109"/>
       <c r="F130" s="71" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="G130" s="72">
         <v>43481</v>
@@ -5547,7 +6085,7 @@
       <c r="D131" s="109"/>
       <c r="E131" s="109"/>
       <c r="F131" s="71" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="G131" s="72">
         <v>43481</v>
@@ -5560,20 +6098,20 @@
       <c r="D132" s="109"/>
       <c r="E132" s="109"/>
       <c r="F132" s="71" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="G132" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="107"/>
       <c r="B133" s="108"/>
       <c r="C133" s="109"/>
       <c r="D133" s="109"/>
       <c r="E133" s="109"/>
       <c r="F133" s="71" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="G133" s="72">
         <v>43481</v>
@@ -5588,7 +6126,7 @@
         <v>141</v>
       </c>
       <c r="F134" s="71" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G134" s="72">
         <v>43481</v>
@@ -5601,7 +6139,7 @@
       <c r="D135" s="109"/>
       <c r="E135" s="109"/>
       <c r="F135" s="71" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G135" s="72">
         <v>43481</v>
@@ -5614,7 +6152,7 @@
       <c r="D136" s="109"/>
       <c r="E136" s="109"/>
       <c r="F136" s="71" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G136" s="72">
         <v>43481</v>
@@ -5627,7 +6165,7 @@
       <c r="D137" s="109"/>
       <c r="E137" s="109"/>
       <c r="F137" s="71" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G137" s="72">
         <v>43481</v>
@@ -5640,20 +6178,20 @@
       <c r="D138" s="109"/>
       <c r="E138" s="109"/>
       <c r="F138" s="71" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G138" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="107"/>
       <c r="B139" s="108"/>
       <c r="C139" s="109"/>
       <c r="D139" s="109"/>
       <c r="E139" s="109"/>
       <c r="F139" s="71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G139" s="72">
         <v>43481</v>
@@ -5665,7 +6203,7 @@
         <v>143</v>
       </c>
       <c r="C140" s="71" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D140" s="72">
         <v>43480</v>
@@ -5674,7 +6212,7 @@
         <v>138</v>
       </c>
       <c r="F140" s="71" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G140" s="72">
         <v>43481</v>
@@ -5684,14 +6222,14 @@
       <c r="A141" s="107"/>
       <c r="B141" s="108"/>
       <c r="C141" s="71" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D141" s="72">
         <v>43480</v>
       </c>
       <c r="E141" s="109"/>
       <c r="F141" s="71" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G141" s="72">
         <v>43481</v>
@@ -5701,14 +6239,14 @@
       <c r="A142" s="107"/>
       <c r="B142" s="108"/>
       <c r="C142" s="71" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D142" s="72">
         <v>43480</v>
       </c>
       <c r="E142" s="109"/>
       <c r="F142" s="71" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G142" s="72">
         <v>43481</v>
@@ -5718,14 +6256,14 @@
       <c r="A143" s="107"/>
       <c r="B143" s="108"/>
       <c r="C143" s="71" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D143" s="72">
         <v>43480</v>
       </c>
       <c r="E143" s="109"/>
       <c r="F143" s="71" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G143" s="72">
         <v>43481</v>
@@ -5738,7 +6276,7 @@
       <c r="D144" s="109"/>
       <c r="E144" s="109"/>
       <c r="F144" s="71" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G144" s="72">
         <v>43481</v>
@@ -5751,7 +6289,7 @@
       <c r="D145" s="109"/>
       <c r="E145" s="109"/>
       <c r="F145" s="71" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="G145" s="72">
         <v>43481</v>
@@ -5766,7 +6304,7 @@
         <v>139</v>
       </c>
       <c r="F146" s="71" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G146" s="72">
         <v>43481</v>
@@ -5779,7 +6317,7 @@
       <c r="D147" s="109"/>
       <c r="E147" s="109"/>
       <c r="F147" s="71" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G147" s="72">
         <v>43481</v>
@@ -5792,7 +6330,7 @@
       <c r="D148" s="109"/>
       <c r="E148" s="109"/>
       <c r="F148" s="71" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G148" s="72">
         <v>43481</v>
@@ -5805,7 +6343,7 @@
       <c r="D149" s="109"/>
       <c r="E149" s="109"/>
       <c r="F149" s="71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G149" s="72">
         <v>43481</v>
@@ -5818,7 +6356,7 @@
       <c r="D150" s="109"/>
       <c r="E150" s="109"/>
       <c r="F150" s="71" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G150" s="72">
         <v>43481</v>
@@ -5831,7 +6369,7 @@
       <c r="D151" s="109"/>
       <c r="E151" s="109"/>
       <c r="F151" s="71" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="G151" s="72">
         <v>43481</v>
@@ -5846,7 +6384,7 @@
         <v>140</v>
       </c>
       <c r="F152" s="71" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G152" s="72">
         <v>43481</v>
@@ -5859,7 +6397,7 @@
       <c r="D153" s="109"/>
       <c r="E153" s="109"/>
       <c r="F153" s="71" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G153" s="72">
         <v>43481</v>
@@ -5872,7 +6410,7 @@
       <c r="D154" s="109"/>
       <c r="E154" s="109"/>
       <c r="F154" s="71" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G154" s="72">
         <v>43481</v>
@@ -5885,7 +6423,7 @@
       <c r="D155" s="109"/>
       <c r="E155" s="109"/>
       <c r="F155" s="71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G155" s="72">
         <v>43481</v>
@@ -5898,7 +6436,7 @@
       <c r="D156" s="109"/>
       <c r="E156" s="109"/>
       <c r="F156" s="71" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G156" s="72">
         <v>43481</v>
@@ -5911,7 +6449,7 @@
       <c r="D157" s="109"/>
       <c r="E157" s="109"/>
       <c r="F157" s="71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G157" s="72">
         <v>43481</v>
@@ -5939,46 +6477,46 @@
       <c r="D159" s="109"/>
       <c r="E159" s="109"/>
       <c r="F159" s="71" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G159" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="107"/>
       <c r="B160" s="108"/>
       <c r="C160" s="109"/>
       <c r="D160" s="109"/>
       <c r="E160" s="109"/>
       <c r="F160" s="71" t="s">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="G160" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A161" s="107"/>
       <c r="B161" s="108"/>
       <c r="C161" s="109"/>
       <c r="D161" s="109"/>
       <c r="E161" s="109"/>
       <c r="F161" s="71" t="s">
-        <v>183</v>
+        <v>348</v>
       </c>
       <c r="G161" s="72">
         <v>43481</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="107"/>
       <c r="B162" s="108"/>
       <c r="C162" s="109"/>
       <c r="D162" s="109"/>
       <c r="E162" s="109"/>
       <c r="F162" s="71" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="G162" s="72">
         <v>43481</v>
@@ -5991,7 +6529,7 @@
       <c r="D163" s="109"/>
       <c r="E163" s="109"/>
       <c r="F163" s="71" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="G163" s="72">
         <v>43481</v>
@@ -5999,7 +6537,7 @@
     </row>
     <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" s="108" t="s">
         <v>144</v>
@@ -6014,7 +6552,7 @@
         <v>145</v>
       </c>
       <c r="F164" s="71" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G164" s="72">
         <v>43480</v>
@@ -6024,14 +6562,14 @@
       <c r="A165" s="107"/>
       <c r="B165" s="108"/>
       <c r="C165" s="71" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D165" s="72">
         <v>43480</v>
       </c>
       <c r="E165" s="109"/>
       <c r="F165" s="71" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G165" s="72">
         <v>43480</v>
@@ -6041,14 +6579,14 @@
       <c r="A166" s="107"/>
       <c r="B166" s="108"/>
       <c r="C166" s="71" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D166" s="72">
         <v>43480</v>
       </c>
       <c r="E166" s="109"/>
       <c r="F166" s="71" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G166" s="72">
         <v>43480</v>
@@ -6058,14 +6596,14 @@
       <c r="A167" s="107"/>
       <c r="B167" s="108"/>
       <c r="C167" s="71" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D167" s="72">
         <v>43480</v>
       </c>
       <c r="E167" s="109"/>
       <c r="F167" s="71" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G167" s="72">
         <v>43480</v>
@@ -6078,7 +6616,7 @@
       <c r="D168" s="109"/>
       <c r="E168" s="109"/>
       <c r="F168" s="71" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G168" s="72">
         <v>43480</v>
@@ -6091,7 +6629,7 @@
       <c r="D169" s="109"/>
       <c r="E169" s="109"/>
       <c r="F169" s="71" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="G169" s="72">
         <v>43480</v>
@@ -6099,13 +6637,13 @@
     </row>
     <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="108" t="s">
         <v>146</v>
       </c>
       <c r="C170" s="71" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D170" s="72">
         <v>43480</v>
@@ -6114,7 +6652,7 @@
         <v>147</v>
       </c>
       <c r="F170" s="71" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G170" s="72">
         <v>43480</v>
@@ -6124,14 +6662,14 @@
       <c r="A171" s="107"/>
       <c r="B171" s="108"/>
       <c r="C171" s="71" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D171" s="72">
         <v>43480</v>
       </c>
       <c r="E171" s="109"/>
       <c r="F171" s="71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G171" s="72">
         <v>43480</v>
@@ -6141,14 +6679,14 @@
       <c r="A172" s="107"/>
       <c r="B172" s="108"/>
       <c r="C172" s="71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D172" s="72">
         <v>43480</v>
       </c>
       <c r="E172" s="109"/>
       <c r="F172" s="71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G172" s="72">
         <v>43480</v>
@@ -6158,14 +6696,14 @@
       <c r="A173" s="107"/>
       <c r="B173" s="108"/>
       <c r="C173" s="71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D173" s="72">
         <v>43480</v>
       </c>
       <c r="E173" s="109"/>
       <c r="F173" s="71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G173" s="72">
         <v>43480</v>
@@ -6178,7 +6716,7 @@
       <c r="D174" s="109"/>
       <c r="E174" s="109"/>
       <c r="F174" s="71" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G174" s="72">
         <v>43480</v>
@@ -6191,7 +6729,7 @@
       <c r="D175" s="109"/>
       <c r="E175" s="109"/>
       <c r="F175" s="71" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G175" s="72">
         <v>43480</v>
@@ -6203,7 +6741,7 @@
         <v>148</v>
       </c>
       <c r="C176" s="71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D176" s="72">
         <v>43480</v>
@@ -6212,7 +6750,7 @@
         <v>147</v>
       </c>
       <c r="F176" s="71" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G176" s="72">
         <v>43480</v>
@@ -6222,14 +6760,14 @@
       <c r="A177" s="107"/>
       <c r="B177" s="108"/>
       <c r="C177" s="71" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D177" s="72">
         <v>43480</v>
       </c>
       <c r="E177" s="109"/>
       <c r="F177" s="71" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G177" s="72">
         <v>43480</v>
@@ -6239,14 +6777,14 @@
       <c r="A178" s="107"/>
       <c r="B178" s="108"/>
       <c r="C178" s="71" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D178" s="72">
         <v>43480</v>
       </c>
       <c r="E178" s="109"/>
       <c r="F178" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G178" s="72">
         <v>43480</v>
@@ -6256,14 +6794,14 @@
       <c r="A179" s="107"/>
       <c r="B179" s="108"/>
       <c r="C179" s="71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D179" s="72">
         <v>43480</v>
       </c>
       <c r="E179" s="109"/>
       <c r="F179" s="71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G179" s="72">
         <v>43480</v>
@@ -6276,7 +6814,7 @@
       <c r="D180" s="109"/>
       <c r="E180" s="109"/>
       <c r="F180" s="71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G180" s="72">
         <v>43480</v>
@@ -6289,7 +6827,7 @@
       <c r="D181" s="109"/>
       <c r="E181" s="109"/>
       <c r="F181" s="71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G181" s="72">
         <v>43480</v>
@@ -6301,7 +6839,7 @@
         <v>149</v>
       </c>
       <c r="C182" s="71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D182" s="72">
         <v>43480</v>
@@ -6310,7 +6848,7 @@
         <v>147</v>
       </c>
       <c r="F182" s="71" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G182" s="72">
         <v>43480</v>
@@ -6320,14 +6858,14 @@
       <c r="A183" s="107"/>
       <c r="B183" s="108"/>
       <c r="C183" s="71" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D183" s="72">
         <v>43480</v>
       </c>
       <c r="E183" s="109"/>
       <c r="F183" s="71" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G183" s="72">
         <v>43480</v>
@@ -6337,14 +6875,14 @@
       <c r="A184" s="107"/>
       <c r="B184" s="108"/>
       <c r="C184" s="71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D184" s="72">
         <v>43480</v>
       </c>
       <c r="E184" s="109"/>
       <c r="F184" s="71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G184" s="72">
         <v>43480</v>
@@ -6354,14 +6892,14 @@
       <c r="A185" s="107"/>
       <c r="B185" s="108"/>
       <c r="C185" s="71" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D185" s="72">
         <v>43480</v>
       </c>
       <c r="E185" s="109"/>
       <c r="F185" s="71" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G185" s="72">
         <v>43480</v>
@@ -6374,7 +6912,7 @@
       <c r="D186" s="109"/>
       <c r="E186" s="109"/>
       <c r="F186" s="71" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G186" s="72">
         <v>43480</v>
@@ -6387,7 +6925,7 @@
       <c r="D187" s="109"/>
       <c r="E187" s="109"/>
       <c r="F187" s="71" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G187" s="72">
         <v>43480</v>
@@ -6395,13 +6933,13 @@
     </row>
     <row r="188" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A188" s="107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="108" t="s">
         <v>150</v>
       </c>
       <c r="C188" s="71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D188" s="72">
         <v>43480</v>
@@ -6410,7 +6948,7 @@
         <v>151</v>
       </c>
       <c r="F188" s="71" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G188" s="72">
         <v>43481</v>
@@ -6420,14 +6958,14 @@
       <c r="A189" s="107"/>
       <c r="B189" s="108"/>
       <c r="C189" s="71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D189" s="72">
         <v>43480</v>
       </c>
       <c r="E189" s="110"/>
       <c r="F189" s="71" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G189" s="72">
         <v>43481</v>
@@ -6437,14 +6975,14 @@
       <c r="A190" s="107"/>
       <c r="B190" s="108"/>
       <c r="C190" s="71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D190" s="72">
         <v>43480</v>
       </c>
       <c r="E190" s="110"/>
       <c r="F190" s="71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G190" s="72">
         <v>43481</v>
@@ -6454,14 +6992,14 @@
       <c r="A191" s="107"/>
       <c r="B191" s="108"/>
       <c r="C191" s="71" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D191" s="72">
         <v>43480</v>
       </c>
       <c r="E191" s="110"/>
       <c r="F191" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G191" s="72">
         <v>43481</v>
@@ -6474,7 +7012,7 @@
       <c r="D192" s="109"/>
       <c r="E192" s="110"/>
       <c r="F192" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G192" s="72">
         <v>43481</v>
@@ -6487,7 +7025,7 @@
       <c r="D193" s="109"/>
       <c r="E193" s="110"/>
       <c r="F193" s="71" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G193" s="72">
         <v>43481</v>
@@ -6495,7 +7033,7 @@
     </row>
     <row r="194" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B194" s="105"/>
       <c r="C194" s="77"/>
@@ -6551,15 +7089,15 @@
     </row>
     <row r="200" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B200" s="105" t="s">
         <v>176</v>
-      </c>
-      <c r="B200" s="105" t="s">
-        <v>177</v>
       </c>
       <c r="C200" s="77"/>
       <c r="D200" s="77"/>
       <c r="E200" s="104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F200" s="75"/>
       <c r="G200" s="76"/>
@@ -6615,7 +7153,7 @@
       <c r="C206" s="77"/>
       <c r="D206" s="77"/>
       <c r="E206" s="104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F206" s="75"/>
       <c r="G206" s="76"/>
@@ -6671,7 +7209,7 @@
       <c r="C212" s="77"/>
       <c r="D212" s="77"/>
       <c r="E212" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F212" s="75"/>
       <c r="G212" s="76"/>
@@ -6724,12 +7262,12 @@
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="106"/>
       <c r="B218" s="105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C218" s="77"/>
       <c r="D218" s="77"/>
       <c r="E218" s="104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F218" s="75"/>
       <c r="G218" s="76"/>
@@ -6785,7 +7323,7 @@
       <c r="C224" s="77"/>
       <c r="D224" s="77"/>
       <c r="E224" s="104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F224" s="75"/>
       <c r="G224" s="76"/>
@@ -6841,7 +7379,7 @@
       <c r="C230" s="77"/>
       <c r="D230" s="77"/>
       <c r="E230" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F230" s="75"/>
       <c r="G230" s="78"/>
@@ -6899,7 +7437,7 @@
       <c r="C236" s="78"/>
       <c r="D236" s="78"/>
       <c r="E236" s="104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F236" s="78"/>
       <c r="G236" s="78"/>
@@ -6955,7 +7493,7 @@
       <c r="C242" s="78"/>
       <c r="D242" s="78"/>
       <c r="E242" s="104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F242" s="78"/>
       <c r="G242" s="78"/>
@@ -7011,7 +7549,7 @@
       <c r="C248" s="78"/>
       <c r="D248" s="78"/>
       <c r="E248" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F248" s="78"/>
       <c r="G248" s="78"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Cancer_HiC_data_TAD_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6A8D02-C59D-444D-8419-B4B65928AE05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCA08D-A0FA-9640-A8C3-C007088DB9B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
+    <workbookView xWindow="-49540" yWindow="880" windowWidth="38400" windowHeight="21140" xr2:uid="{733F451C-FADE-0344-91D0-B41CF6A8B980}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="432">
   <si>
     <t>Download fastq</t>
   </si>
@@ -477,9 +477,6 @@
     <t>r (TCGApaad_wt_mutKRAS)</t>
   </si>
   <si>
-    <t>r (TCGAprad_norm_prad)</t>
-  </si>
-  <si>
     <t>ENCSR401TBQ_Caki2_40kb</t>
   </si>
   <si>
@@ -647,12 +644,6 @@
     <t>glioma</t>
   </si>
   <si>
-    <t>astrocyte cl1</t>
-  </si>
-  <si>
-    <t>astrocyte cl2</t>
-  </si>
-  <si>
     <t>exprds1</t>
   </si>
   <si>
@@ -1659,6 +1650,33 @@
     <t xml:space="preserve">
 Rscript compare_pipeline_signif.R TCGAprad_norm_prad GSE73782_PC3
 </t>
+  </si>
+  <si>
+    <t>GSE105194_spinal_cordGSE105194_cerebellum</t>
+  </si>
+  <si>
+    <t>GSE105194_spinal_cord</t>
+  </si>
+  <si>
+    <t>GSE105194_cerebellum</t>
+  </si>
+  <si>
+    <t>yes (TCGAprad_norm_prad)</t>
+  </si>
+  <si>
+    <t>yes (TCGAcoad_msi_mss)</t>
+  </si>
+  <si>
+    <t>yes - r</t>
+  </si>
+  <si>
+    <t>yes (TCGAgbm_classical_mesenchymal)
+yes (TCGAgbm_classical_neural)
+yes (TCGAgbm_classical_proneural)
+yes (TCGAlgg_IDHwt_IDHmutnc)</t>
+  </si>
+  <si>
+    <t>yes  (TCGAprad_norm_prad)</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2243,21 +2261,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2273,30 +2318,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2315,31 +2336,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2659,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711C1783-E935-7542-9605-05C78E0501E1}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2723,7 +2756,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -2763,8 +2796,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -2779,34 +2812,34 @@
       <c r="F4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="84" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="93" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="92" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="37" t="s">
@@ -2815,24 +2848,24 @@
       <c r="F5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="85"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="94"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="79"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="37" t="s">
@@ -2841,17 +2874,17 @@
       <c r="F6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="86"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="79"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="81" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -2889,7 +2922,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2961,7 +2994,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="81" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2982,15 +3015,21 @@
       <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="K10" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>431</v>
+      </c>
       <c r="N10" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
@@ -3018,15 +3057,15 @@
       <c r="L11" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="62" t="s">
-        <v>125</v>
+      <c r="M11" s="70" t="s">
+        <v>431</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="81" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -3064,7 +3103,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="21" t="s">
         <v>43</v>
       </c>
@@ -3100,7 +3139,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="81" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3138,7 +3177,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
@@ -3239,16 +3278,16 @@
       <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="99" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="100" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3256,22 +3295,28 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="79" t="s">
+      <c r="K18" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="N18" s="92" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="99" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="100" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3279,10 +3324,10 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="79"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="92"/>
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="143" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
@@ -3305,22 +3350,26 @@
       <c r="H20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="K20" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="79" t="s">
+        <v>429</v>
+      </c>
       <c r="M20" s="68"/>
       <c r="N20" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="93" t="s">
+      <c r="C21" s="85"/>
+      <c r="D21" s="87" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3331,32 +3380,38 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="79" t="s">
+      <c r="K21" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="116" t="s">
+        <v>430</v>
+      </c>
+      <c r="N21" s="92" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
+    <row r="22" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="79"/>
-    </row>
-    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="94" t="s">
+      <c r="K22" s="113"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="92"/>
+    </row>
+    <row r="23" spans="1:14" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="103" t="s">
+      <c r="C23" s="89"/>
+      <c r="D23" s="82" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3364,27 +3419,33 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="79" t="s">
+      <c r="K23" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="116" t="s">
+        <v>430</v>
+      </c>
+      <c r="N23" s="92" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="103"/>
+    <row r="24" spans="1:14" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="79"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="92"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G25" s="20"/>
@@ -3775,9 +3836,15 @@
       <c r="H40" s="45"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
+      <c r="K40" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="79" t="s">
+        <v>427</v>
+      </c>
       <c r="N40" s="66"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3803,19 +3870,14 @@
       <c r="N41" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="35">
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="N4:N6"/>
@@ -3832,11 +3894,18 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{66F0F11D-1A70-6E4E-9031-1B49983CE733}"/>
@@ -3877,24 +3946,24 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="92" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="92"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="92"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
@@ -3983,18 +4052,18 @@
       <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="92" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="92"/>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -4005,28 +4074,28 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="92" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="92"/>
     </row>
     <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="92" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="92"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>
@@ -4137,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12159EBC-74A8-9F4E-B7BF-F6DB1EFDA443}">
   <dimension ref="A2:G276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80:F85"/>
+    <sheetView topLeftCell="A184" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4152,3460 +4221,3535 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>153</v>
+      <c r="A2" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>152</v>
       </c>
       <c r="C2" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E2" s="109" t="s">
+      <c r="G2" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="105"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E3" s="106"/>
+      <c r="F3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="105"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="105"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="105"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="105"/>
+      <c r="B8" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="105"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="105"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E10" s="106"/>
+      <c r="F10" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="105"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="105"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="105"/>
+      <c r="B14" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108" t="s">
+      <c r="C14" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E14" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E8" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="71" t="s">
+      <c r="F14" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E15" s="106"/>
+      <c r="F15" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="105"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="105"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="F17" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="105"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="105"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="105"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="G13" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="107"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="71" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="71" t="s">
+      <c r="D21" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E21" s="106"/>
+      <c r="F21" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="105"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="G18" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="107"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
+      <c r="D22" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="105"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="105"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="105"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="105"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="105"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="105"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="105"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="105"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="105"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="105"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="105"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="105"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="105"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="105"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="105"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="105"/>
+      <c r="B38" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E38" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A39" s="105"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E39" s="106"/>
+      <c r="F39" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="105"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E40" s="106"/>
+      <c r="F40" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="105"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E41" s="106"/>
+      <c r="F41" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="105"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="105"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="G44" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="105"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="G45" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="105"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="105"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="71" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="105"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="105"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="G49" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="105"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="105"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="105"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="105"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="G53" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="105"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="105"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="105"/>
+      <c r="B56" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D56" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E56" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A57" s="105"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E57" s="106"/>
+      <c r="F57" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="G57" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="105"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E58" s="106"/>
+      <c r="F58" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" s="105"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E59" s="106"/>
+      <c r="F59" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="G59" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="105"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="105"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="G61" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="105"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="G62" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="105"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="71" t="s">
+        <v>382</v>
+      </c>
+      <c r="G63" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="105"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="G64" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A65" s="105"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="71" t="s">
+        <v>384</v>
+      </c>
+      <c r="G65" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="105"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="71" t="s">
+        <v>380</v>
+      </c>
+      <c r="G66" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="105"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="71" t="s">
+        <v>385</v>
+      </c>
+      <c r="G67" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="105"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="G68" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="105"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="G69" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="105"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="G70" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A71" s="105"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="G71" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="105"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="G72" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="105"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="G73" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A74" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E20" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="G20" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E21" s="109"/>
-      <c r="F21" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="G22" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="G24" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="107"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="G30" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="107"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="G31" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="G33" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="G34" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="107"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="107"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="G37" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E38" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="G38" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A39" s="107"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="71" t="s">
-        <v>301</v>
-      </c>
-      <c r="D39" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="71" t="s">
-        <v>304</v>
-      </c>
-      <c r="G39" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="107"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="107"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="D41" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="G41" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="107"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="G42" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="107"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="G44" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="71" t="s">
+      <c r="B74" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="D74" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E74" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="G74" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A75" s="105"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E75" s="107"/>
+      <c r="F75" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="G75" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="105"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E76" s="107"/>
+      <c r="F76" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="G76" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A77" s="105"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E77" s="107"/>
+      <c r="F77" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="G77" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="105"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="105"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="106"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="G79" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="105"/>
+      <c r="B80" s="109" t="s">
         <v>412</v>
       </c>
-      <c r="G45" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="107"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="G46" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="107"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="71" t="s">
-        <v>405</v>
-      </c>
-      <c r="G47" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="107"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="G48" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="107"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="G49" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="107"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="71" t="s">
+      <c r="C80" s="75" t="s">
         <v>414</v>
-      </c>
-      <c r="G50" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="G51" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="71" t="s">
-        <v>406</v>
-      </c>
-      <c r="G52" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="G53" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="107"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="107"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="71" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A56" s="107"/>
-      <c r="B56" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="71" t="s">
-        <v>332</v>
-      </c>
-      <c r="D56" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E56" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="71" t="s">
-        <v>378</v>
-      </c>
-      <c r="G56" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A57" s="107"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="71" t="s">
-        <v>334</v>
-      </c>
-      <c r="D57" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E57" s="109"/>
-      <c r="F57" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="G57" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="107"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="D58" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E58" s="109"/>
-      <c r="F58" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="G58" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A59" s="107"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="71" t="s">
-        <v>335</v>
-      </c>
-      <c r="D59" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E59" s="109"/>
-      <c r="F59" s="71" t="s">
-        <v>380</v>
-      </c>
-      <c r="G59" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="107"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="71" t="s">
-        <v>381</v>
-      </c>
-      <c r="G60" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="107"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="71" t="s">
-        <v>382</v>
-      </c>
-      <c r="G61" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="107"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>384</v>
-      </c>
-      <c r="G62" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="107"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="71" t="s">
-        <v>385</v>
-      </c>
-      <c r="G63" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="107"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="G64" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A65" s="107"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="G65" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="107"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="71" t="s">
-        <v>383</v>
-      </c>
-      <c r="G66" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="107"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="G67" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="107"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="G68" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="107"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="G69" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="107"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="G70" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A71" s="107"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="G71" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="107"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="G72" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="107"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="71" t="s">
-        <v>394</v>
-      </c>
-      <c r="G73" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A74" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="D74" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E74" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="G74" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A75" s="107"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="D75" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E75" s="110"/>
-      <c r="F75" s="71" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A76" s="107"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="D76" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E76" s="110"/>
-      <c r="F76" s="71" t="s">
-        <v>374</v>
-      </c>
-      <c r="G76" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A77" s="107"/>
-      <c r="B77" s="108"/>
-      <c r="C77" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="D77" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E77" s="110"/>
-      <c r="F77" s="71" t="s">
-        <v>375</v>
-      </c>
-      <c r="G77" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="107"/>
-      <c r="B78" s="108"/>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="110"/>
-      <c r="F78" s="71" t="s">
-        <v>371</v>
-      </c>
-      <c r="G78" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="107"/>
-      <c r="B79" s="108"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="110"/>
-      <c r="F79" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="G79" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="107"/>
-      <c r="B80" s="111" t="s">
-        <v>415</v>
-      </c>
-      <c r="C80" s="75" t="s">
-        <v>417</v>
       </c>
       <c r="D80" s="76">
         <v>43484</v>
       </c>
-      <c r="E80" s="104" t="s">
-        <v>136</v>
+      <c r="E80" s="108" t="s">
+        <v>135</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G80" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A81" s="107"/>
-      <c r="B81" s="105"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="110"/>
       <c r="C81" s="75" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D81" s="76">
         <v>43484</v>
       </c>
-      <c r="E81" s="104"/>
+      <c r="E81" s="108"/>
       <c r="F81" s="75" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G81" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="107"/>
-      <c r="B82" s="105"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="110"/>
       <c r="C82" s="75" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D82" s="76">
         <v>43484</v>
       </c>
-      <c r="E82" s="104"/>
+      <c r="E82" s="108"/>
       <c r="F82" s="75" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G82" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="107"/>
-      <c r="B83" s="105"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="110"/>
       <c r="C83" s="75" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D83" s="76">
         <v>43484</v>
       </c>
-      <c r="E83" s="104"/>
+      <c r="E83" s="108"/>
       <c r="F83" s="75" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G83" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="107"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="104"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="104"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
       <c r="F84" s="75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G84" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" s="107"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104"/>
-      <c r="E85" s="104"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
       <c r="F85" s="75" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G85" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="107"/>
-      <c r="B86" s="111" t="s">
-        <v>416</v>
+      <c r="A86" s="105"/>
+      <c r="B86" s="109" t="s">
+        <v>413</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" s="76">
         <v>43484</v>
       </c>
-      <c r="E86" s="104" t="s">
-        <v>136</v>
+      <c r="E86" s="108" t="s">
+        <v>135</v>
       </c>
       <c r="F86" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G86" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A87" s="107"/>
-      <c r="B87" s="105"/>
+      <c r="A87" s="105"/>
+      <c r="B87" s="110"/>
       <c r="C87" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" s="76">
         <v>43484</v>
       </c>
-      <c r="E87" s="104"/>
+      <c r="E87" s="108"/>
       <c r="F87" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G87" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="107"/>
-      <c r="B88" s="105"/>
+      <c r="A88" s="105"/>
+      <c r="B88" s="110"/>
       <c r="C88" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="76">
         <v>43484</v>
       </c>
-      <c r="E88" s="104"/>
+      <c r="E88" s="108"/>
       <c r="F88" s="75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G88" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="107"/>
-      <c r="B89" s="105"/>
+      <c r="A89" s="105"/>
+      <c r="B89" s="110"/>
       <c r="C89" s="75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" s="76">
         <v>43484</v>
       </c>
-      <c r="E89" s="104"/>
+      <c r="E89" s="108"/>
       <c r="F89" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G89" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="107"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="104"/>
+      <c r="A90" s="105"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
       <c r="F90" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="107"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="105"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
       <c r="F91" s="75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G91" s="76">
         <v>43484</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A92" s="107" t="s">
+      <c r="A92" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E92" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="G92" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A93" s="105"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E93" s="106"/>
+      <c r="F93" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="G93" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="105"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E94" s="106"/>
+      <c r="F94" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="G94" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A95" s="105"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E95" s="106"/>
+      <c r="F95" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="G95" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="105"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" s="105"/>
+      <c r="B97" s="104"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="G97" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="105"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="G98" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="105"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="G99" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" s="105"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="G100" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A101" s="105"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="G101" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="105"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="G102" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" s="105"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="G103" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="105"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="G104" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="105"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
+      <c r="F105" s="71" t="s">
+        <v>394</v>
+      </c>
+      <c r="G105" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="105"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="71" t="s">
+        <v>395</v>
+      </c>
+      <c r="G106" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" s="105"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G107" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="105"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="G108" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" s="105"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="G109" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="105"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="G110" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="105"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="G111" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="105"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="G112" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="105"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G113" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="105"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="G114" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="105"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="G115" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="105"/>
+      <c r="B116" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D116" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E116" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="F116" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="G116" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A117" s="105"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E117" s="106"/>
+      <c r="F117" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="G117" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="105"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E118" s="106"/>
+      <c r="F118" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="G118" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="105"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E119" s="106"/>
+      <c r="F119" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="G119" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="105"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="106"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="G120" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" s="105"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="106"/>
+      <c r="E121" s="106"/>
+      <c r="F121" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G121" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="105"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F122" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="G122" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="105"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="106"/>
+      <c r="D123" s="106"/>
+      <c r="E123" s="106"/>
+      <c r="F123" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="G123" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="105"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="106"/>
+      <c r="D124" s="106"/>
+      <c r="E124" s="106"/>
+      <c r="F124" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="G124" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="105"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="106"/>
+      <c r="F125" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="G125" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="105"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="106"/>
+      <c r="D126" s="106"/>
+      <c r="E126" s="106"/>
+      <c r="F126" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="G126" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="105"/>
+      <c r="B127" s="104"/>
+      <c r="C127" s="106"/>
+      <c r="D127" s="106"/>
+      <c r="E127" s="106"/>
+      <c r="F127" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="G127" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="105"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="106"/>
+      <c r="D128" s="106"/>
+      <c r="E128" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="G128" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="105"/>
+      <c r="B129" s="104"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="106"/>
+      <c r="E129" s="106"/>
+      <c r="F129" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="G129" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="105"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="106"/>
+      <c r="D130" s="106"/>
+      <c r="E130" s="106"/>
+      <c r="F130" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="G130" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="105"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="106"/>
+      <c r="D131" s="106"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="G131" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="105"/>
+      <c r="B132" s="104"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="106"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="G132" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A133" s="105"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="106"/>
+      <c r="D133" s="106"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="G133" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="105"/>
+      <c r="B134" s="104"/>
+      <c r="C134" s="106"/>
+      <c r="D134" s="106"/>
+      <c r="E134" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F134" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="G134" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="105"/>
+      <c r="B135" s="104"/>
+      <c r="C135" s="106"/>
+      <c r="D135" s="106"/>
+      <c r="E135" s="106"/>
+      <c r="F135" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="G135" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" s="105"/>
+      <c r="B136" s="104"/>
+      <c r="C136" s="106"/>
+      <c r="D136" s="106"/>
+      <c r="E136" s="106"/>
+      <c r="F136" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="G136" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="105"/>
+      <c r="B137" s="104"/>
+      <c r="C137" s="106"/>
+      <c r="D137" s="106"/>
+      <c r="E137" s="106"/>
+      <c r="F137" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G137" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="105"/>
+      <c r="B138" s="104"/>
+      <c r="C138" s="106"/>
+      <c r="D138" s="106"/>
+      <c r="E138" s="106"/>
+      <c r="F138" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="G138" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A139" s="105"/>
+      <c r="B139" s="104"/>
+      <c r="C139" s="106"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="106"/>
+      <c r="F139" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="G139" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A140" s="105"/>
+      <c r="B140" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E140" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="F140" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="G140" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A141" s="105"/>
+      <c r="B141" s="104"/>
+      <c r="C141" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="D141" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E141" s="106"/>
+      <c r="F141" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="G141" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A142" s="105"/>
+      <c r="B142" s="104"/>
+      <c r="C142" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D142" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E142" s="106"/>
+      <c r="F142" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="G142" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A143" s="105"/>
+      <c r="B143" s="104"/>
+      <c r="C143" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E143" s="106"/>
+      <c r="F143" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="G143" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="105"/>
+      <c r="B144" s="104"/>
+      <c r="C144" s="106"/>
+      <c r="D144" s="106"/>
+      <c r="E144" s="106"/>
+      <c r="F144" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="G144" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A145" s="105"/>
+      <c r="B145" s="104"/>
+      <c r="C145" s="106"/>
+      <c r="D145" s="106"/>
+      <c r="E145" s="106"/>
+      <c r="F145" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="G145" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="105"/>
+      <c r="B146" s="104"/>
+      <c r="C146" s="106"/>
+      <c r="D146" s="106"/>
+      <c r="E146" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F146" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="G146" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A147" s="105"/>
+      <c r="B147" s="104"/>
+      <c r="C147" s="106"/>
+      <c r="D147" s="106"/>
+      <c r="E147" s="106"/>
+      <c r="F147" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="G147" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A148" s="105"/>
+      <c r="B148" s="104"/>
+      <c r="C148" s="106"/>
+      <c r="D148" s="106"/>
+      <c r="E148" s="106"/>
+      <c r="F148" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G148" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A149" s="105"/>
+      <c r="B149" s="104"/>
+      <c r="C149" s="106"/>
+      <c r="D149" s="106"/>
+      <c r="E149" s="106"/>
+      <c r="F149" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="G149" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="105"/>
+      <c r="B150" s="104"/>
+      <c r="C150" s="106"/>
+      <c r="D150" s="106"/>
+      <c r="E150" s="106"/>
+      <c r="F150" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="G150" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A151" s="105"/>
+      <c r="B151" s="104"/>
+      <c r="C151" s="106"/>
+      <c r="D151" s="106"/>
+      <c r="E151" s="106"/>
+      <c r="F151" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="G151" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="105"/>
+      <c r="B152" s="104"/>
+      <c r="C152" s="106"/>
+      <c r="D152" s="106"/>
+      <c r="E152" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F152" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="G152" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A153" s="105"/>
+      <c r="B153" s="104"/>
+      <c r="C153" s="106"/>
+      <c r="D153" s="106"/>
+      <c r="E153" s="106"/>
+      <c r="F153" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="G153" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A154" s="105"/>
+      <c r="B154" s="104"/>
+      <c r="C154" s="106"/>
+      <c r="D154" s="106"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="G154" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" s="105"/>
+      <c r="B155" s="104"/>
+      <c r="C155" s="106"/>
+      <c r="D155" s="106"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G155" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="105"/>
+      <c r="B156" s="104"/>
+      <c r="C156" s="106"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="G156" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A157" s="105"/>
+      <c r="B157" s="104"/>
+      <c r="C157" s="106"/>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="G157" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="105"/>
+      <c r="B158" s="104"/>
+      <c r="C158" s="106"/>
+      <c r="D158" s="106"/>
+      <c r="E158" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F158" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G158" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A159" s="105"/>
+      <c r="B159" s="104"/>
+      <c r="C159" s="106"/>
+      <c r="D159" s="106"/>
+      <c r="E159" s="106"/>
+      <c r="F159" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="G159" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A160" s="105"/>
+      <c r="B160" s="104"/>
+      <c r="C160" s="106"/>
+      <c r="D160" s="106"/>
+      <c r="E160" s="106"/>
+      <c r="F160" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="G160" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A161" s="105"/>
+      <c r="B161" s="104"/>
+      <c r="C161" s="106"/>
+      <c r="D161" s="106"/>
+      <c r="E161" s="106"/>
+      <c r="F161" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="G161" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" s="105"/>
+      <c r="B162" s="104"/>
+      <c r="C162" s="106"/>
+      <c r="D162" s="106"/>
+      <c r="E162" s="106"/>
+      <c r="F162" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="G162" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A163" s="105"/>
+      <c r="B163" s="104"/>
+      <c r="C163" s="106"/>
+      <c r="D163" s="106"/>
+      <c r="E163" s="106"/>
+      <c r="F163" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G163" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E92" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="71" t="s">
-        <v>324</v>
-      </c>
-      <c r="G92" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A93" s="107"/>
-      <c r="B93" s="108"/>
-      <c r="C93" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="D93" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E93" s="109"/>
-      <c r="F93" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="G93" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="107"/>
-      <c r="B94" s="108"/>
-      <c r="C94" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="D94" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E94" s="109"/>
-      <c r="F94" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="G94" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A95" s="107"/>
-      <c r="B95" s="108"/>
-      <c r="C95" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E95" s="109"/>
-      <c r="F95" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="G95" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="107"/>
-      <c r="B96" s="108"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="109"/>
-      <c r="F96" s="71" t="s">
-        <v>329</v>
-      </c>
-      <c r="G96" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="107"/>
-      <c r="B97" s="108"/>
-      <c r="C97" s="109"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="109"/>
-      <c r="F97" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="G97" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="107"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="109"/>
-      <c r="D98" s="109"/>
-      <c r="E98" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="G98" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A99" s="107"/>
-      <c r="B99" s="108"/>
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="109"/>
-      <c r="F99" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="G99" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" s="107"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="109"/>
-      <c r="F100" s="71" t="s">
-        <v>395</v>
-      </c>
-      <c r="G100" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="107"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="109"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="109"/>
-      <c r="F101" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="G101" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="107"/>
-      <c r="B102" s="108"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="G102" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" s="107"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="71" t="s">
-        <v>396</v>
-      </c>
-      <c r="G103" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="107"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="G104" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="107"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="G105" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="107"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="109"/>
-      <c r="D106" s="109"/>
-      <c r="E106" s="109"/>
-      <c r="F106" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="G106" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A107" s="107"/>
-      <c r="B107" s="108"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
-      <c r="F107" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="G107" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="107"/>
-      <c r="B108" s="108"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="109"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="G108" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="107"/>
-      <c r="B109" s="108"/>
-      <c r="C109" s="109"/>
-      <c r="D109" s="109"/>
-      <c r="E109" s="109"/>
-      <c r="F109" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="G109" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="107"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="109"/>
-      <c r="D110" s="109"/>
-      <c r="E110" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="F110" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="G110" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="107"/>
-      <c r="B111" s="108"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="G111" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="107"/>
-      <c r="B112" s="108"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="G112" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="107"/>
-      <c r="B113" s="108"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="G113" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="107"/>
-      <c r="B114" s="108"/>
-      <c r="C114" s="109"/>
-      <c r="D114" s="109"/>
-      <c r="E114" s="109"/>
-      <c r="F114" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="G114" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="107"/>
-      <c r="B115" s="108"/>
-      <c r="C115" s="109"/>
-      <c r="D115" s="109"/>
-      <c r="E115" s="109"/>
-      <c r="F115" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="G115" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="107"/>
-      <c r="B116" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="C116" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="D116" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E116" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="G116" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A117" s="107"/>
-      <c r="B117" s="108"/>
-      <c r="C117" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="D117" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E117" s="109"/>
-      <c r="F117" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="G117" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="107"/>
-      <c r="B118" s="108"/>
-      <c r="C118" s="71" t="s">
-        <v>290</v>
-      </c>
-      <c r="D118" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E118" s="109"/>
-      <c r="F118" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="G118" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="107"/>
-      <c r="B119" s="108"/>
-      <c r="C119" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="D119" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E119" s="109"/>
-      <c r="F119" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="G119" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="107"/>
-      <c r="B120" s="108"/>
-      <c r="C120" s="109"/>
-      <c r="D120" s="109"/>
-      <c r="E120" s="109"/>
-      <c r="F120" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="G120" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="107"/>
-      <c r="B121" s="108"/>
-      <c r="C121" s="109"/>
-      <c r="D121" s="109"/>
-      <c r="E121" s="109"/>
-      <c r="F121" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="G121" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="107"/>
-      <c r="B122" s="108"/>
-      <c r="C122" s="109"/>
-      <c r="D122" s="109"/>
-      <c r="E122" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="71" t="s">
-        <v>345</v>
-      </c>
-      <c r="G122" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="107"/>
-      <c r="B123" s="108"/>
-      <c r="C123" s="109"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="109"/>
-      <c r="F123" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="G123" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="107"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="109"/>
-      <c r="D124" s="109"/>
-      <c r="E124" s="109"/>
-      <c r="F124" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="G124" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" s="107"/>
-      <c r="B125" s="108"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="G125" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="107"/>
-      <c r="B126" s="108"/>
-      <c r="C126" s="109"/>
-      <c r="D126" s="109"/>
-      <c r="E126" s="109"/>
-      <c r="F126" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="G126" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="107"/>
-      <c r="B127" s="108"/>
-      <c r="C127" s="109"/>
-      <c r="D127" s="109"/>
-      <c r="E127" s="109"/>
-      <c r="F127" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="G127" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="107"/>
-      <c r="B128" s="108"/>
-      <c r="C128" s="109"/>
-      <c r="D128" s="109"/>
-      <c r="E128" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="F128" s="71" t="s">
-        <v>362</v>
-      </c>
-      <c r="G128" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="107"/>
-      <c r="B129" s="108"/>
-      <c r="C129" s="109"/>
-      <c r="D129" s="109"/>
-      <c r="E129" s="109"/>
-      <c r="F129" s="71" t="s">
-        <v>360</v>
-      </c>
-      <c r="G129" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="107"/>
-      <c r="B130" s="108"/>
-      <c r="C130" s="109"/>
-      <c r="D130" s="109"/>
-      <c r="E130" s="109"/>
-      <c r="F130" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="G130" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A131" s="107"/>
-      <c r="B131" s="108"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="G131" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="107"/>
-      <c r="B132" s="108"/>
-      <c r="C132" s="109"/>
-      <c r="D132" s="109"/>
-      <c r="E132" s="109"/>
-      <c r="F132" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="G132" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A133" s="107"/>
-      <c r="B133" s="108"/>
-      <c r="C133" s="109"/>
-      <c r="D133" s="109"/>
-      <c r="E133" s="109"/>
-      <c r="F133" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="G133" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="107"/>
-      <c r="B134" s="108"/>
-      <c r="C134" s="109"/>
-      <c r="D134" s="109"/>
-      <c r="E134" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="F134" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="G134" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="107"/>
-      <c r="B135" s="108"/>
-      <c r="C135" s="109"/>
-      <c r="D135" s="109"/>
-      <c r="E135" s="109"/>
-      <c r="F135" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="G135" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="107"/>
-      <c r="B136" s="108"/>
-      <c r="C136" s="109"/>
-      <c r="D136" s="109"/>
-      <c r="E136" s="109"/>
-      <c r="F136" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="G136" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A137" s="107"/>
-      <c r="B137" s="108"/>
-      <c r="C137" s="109"/>
-      <c r="D137" s="109"/>
-      <c r="E137" s="109"/>
-      <c r="F137" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="G137" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="107"/>
-      <c r="B138" s="108"/>
-      <c r="C138" s="109"/>
-      <c r="D138" s="109"/>
-      <c r="E138" s="109"/>
-      <c r="F138" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="G138" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A139" s="107"/>
-      <c r="B139" s="108"/>
-      <c r="C139" s="109"/>
-      <c r="D139" s="109"/>
-      <c r="E139" s="109"/>
-      <c r="F139" s="71" t="s">
-        <v>298</v>
-      </c>
-      <c r="G139" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A140" s="107"/>
-      <c r="B140" s="108" t="s">
+      <c r="B164" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D140" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E140" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="F140" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="G140" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A141" s="107"/>
-      <c r="B141" s="108"/>
-      <c r="C141" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="D141" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E141" s="109"/>
-      <c r="F141" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="G141" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A142" s="107"/>
-      <c r="B142" s="108"/>
-      <c r="C142" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="D142" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E142" s="109"/>
-      <c r="F142" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="G142" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A143" s="107"/>
-      <c r="B143" s="108"/>
-      <c r="C143" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="D143" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E143" s="109"/>
-      <c r="F143" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="G143" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="107"/>
-      <c r="B144" s="108"/>
-      <c r="C144" s="109"/>
-      <c r="D144" s="109"/>
-      <c r="E144" s="109"/>
-      <c r="F144" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="G144" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A145" s="107"/>
-      <c r="B145" s="108"/>
-      <c r="C145" s="109"/>
-      <c r="D145" s="109"/>
-      <c r="E145" s="109"/>
-      <c r="F145" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="G145" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="107"/>
-      <c r="B146" s="108"/>
-      <c r="C146" s="109"/>
-      <c r="D146" s="109"/>
-      <c r="E146" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F146" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="G146" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A147" s="107"/>
-      <c r="B147" s="108"/>
-      <c r="C147" s="109"/>
-      <c r="D147" s="109"/>
-      <c r="E147" s="109"/>
-      <c r="F147" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="G147" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A148" s="107"/>
-      <c r="B148" s="108"/>
-      <c r="C148" s="109"/>
-      <c r="D148" s="109"/>
-      <c r="E148" s="109"/>
-      <c r="F148" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="G148" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A149" s="107"/>
-      <c r="B149" s="108"/>
-      <c r="C149" s="109"/>
-      <c r="D149" s="109"/>
-      <c r="E149" s="109"/>
-      <c r="F149" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="G149" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="107"/>
-      <c r="B150" s="108"/>
-      <c r="C150" s="109"/>
-      <c r="D150" s="109"/>
-      <c r="E150" s="109"/>
-      <c r="F150" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="G150" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A151" s="107"/>
-      <c r="B151" s="108"/>
-      <c r="C151" s="109"/>
-      <c r="D151" s="109"/>
-      <c r="E151" s="109"/>
-      <c r="F151" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="G151" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A152" s="107"/>
-      <c r="B152" s="108"/>
-      <c r="C152" s="109"/>
-      <c r="D152" s="109"/>
-      <c r="E152" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="F152" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="G152" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A153" s="107"/>
-      <c r="B153" s="108"/>
-      <c r="C153" s="109"/>
-      <c r="D153" s="109"/>
-      <c r="E153" s="109"/>
-      <c r="F153" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="G153" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A154" s="107"/>
-      <c r="B154" s="108"/>
-      <c r="C154" s="109"/>
-      <c r="D154" s="109"/>
-      <c r="E154" s="109"/>
-      <c r="F154" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="G154" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A155" s="107"/>
-      <c r="B155" s="108"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="71" t="s">
+      <c r="C164" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E164" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F164" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G164" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A165" s="105"/>
+      <c r="B165" s="104"/>
+      <c r="C165" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D165" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E165" s="106"/>
+      <c r="F165" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G165" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A166" s="105"/>
+      <c r="B166" s="104"/>
+      <c r="C166" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="D166" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E166" s="106"/>
+      <c r="F166" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G166" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="105"/>
+      <c r="B167" s="104"/>
+      <c r="C167" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E167" s="106"/>
+      <c r="F167" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G167" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="105"/>
+      <c r="B168" s="104"/>
+      <c r="C168" s="106"/>
+      <c r="D168" s="106"/>
+      <c r="E168" s="106"/>
+      <c r="F168" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="G168" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A169" s="105"/>
+      <c r="B169" s="104"/>
+      <c r="C169" s="106"/>
+      <c r="D169" s="106"/>
+      <c r="E169" s="106"/>
+      <c r="F169" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="G169" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A170" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E170" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F170" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="G170" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A171" s="105"/>
+      <c r="B171" s="104"/>
+      <c r="C171" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D171" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E171" s="106"/>
+      <c r="F171" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="G171" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A172" s="105"/>
+      <c r="B172" s="104"/>
+      <c r="C172" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D172" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E172" s="106"/>
+      <c r="F172" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G172" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A173" s="105"/>
+      <c r="B173" s="104"/>
+      <c r="C173" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D173" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E173" s="106"/>
+      <c r="F173" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="G173" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="105"/>
+      <c r="B174" s="104"/>
+      <c r="C174" s="106"/>
+      <c r="D174" s="106"/>
+      <c r="E174" s="106"/>
+      <c r="F174" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G174" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="105"/>
+      <c r="B175" s="104"/>
+      <c r="C175" s="106"/>
+      <c r="D175" s="106"/>
+      <c r="E175" s="106"/>
+      <c r="F175" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="G175" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A176" s="105"/>
+      <c r="B176" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C176" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="D176" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E176" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F176" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G176" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A177" s="105"/>
+      <c r="B177" s="104"/>
+      <c r="C177" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="G155" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A156" s="107"/>
-      <c r="B156" s="108"/>
-      <c r="C156" s="109"/>
-      <c r="D156" s="109"/>
-      <c r="E156" s="109"/>
-      <c r="F156" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="G156" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A157" s="107"/>
-      <c r="B157" s="108"/>
-      <c r="C157" s="109"/>
-      <c r="D157" s="109"/>
-      <c r="E157" s="109"/>
-      <c r="F157" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="G157" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A158" s="107"/>
-      <c r="B158" s="108"/>
-      <c r="C158" s="109"/>
-      <c r="D158" s="109"/>
-      <c r="E158" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="F158" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="G158" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A159" s="107"/>
-      <c r="B159" s="108"/>
-      <c r="C159" s="109"/>
-      <c r="D159" s="109"/>
-      <c r="E159" s="109"/>
-      <c r="F159" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="G159" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A160" s="107"/>
-      <c r="B160" s="108"/>
-      <c r="C160" s="109"/>
-      <c r="D160" s="109"/>
-      <c r="E160" s="109"/>
-      <c r="F160" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="G160" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A161" s="107"/>
-      <c r="B161" s="108"/>
-      <c r="C161" s="109"/>
-      <c r="D161" s="109"/>
-      <c r="E161" s="109"/>
-      <c r="F161" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="G161" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A162" s="107"/>
-      <c r="B162" s="108"/>
-      <c r="C162" s="109"/>
-      <c r="D162" s="109"/>
-      <c r="E162" s="109"/>
-      <c r="F162" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="G162" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A163" s="107"/>
-      <c r="B163" s="108"/>
-      <c r="C163" s="109"/>
-      <c r="D163" s="109"/>
-      <c r="E163" s="109"/>
-      <c r="F163" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="G163" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A164" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" s="108" t="s">
-        <v>144</v>
-      </c>
-      <c r="C164" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D164" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E164" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="F164" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="G164" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A165" s="107"/>
-      <c r="B165" s="108"/>
-      <c r="C165" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="D165" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E165" s="109"/>
-      <c r="F165" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="G165" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A166" s="107"/>
-      <c r="B166" s="108"/>
-      <c r="C166" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="D166" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E166" s="109"/>
-      <c r="F166" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="G166" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A167" s="107"/>
-      <c r="B167" s="108"/>
-      <c r="C167" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="D167" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E167" s="109"/>
-      <c r="F167" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="G167" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="107"/>
-      <c r="B168" s="108"/>
-      <c r="C168" s="109"/>
-      <c r="D168" s="109"/>
-      <c r="E168" s="109"/>
-      <c r="F168" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="G168" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A169" s="107"/>
-      <c r="B169" s="108"/>
-      <c r="C169" s="109"/>
-      <c r="D169" s="109"/>
-      <c r="E169" s="109"/>
-      <c r="F169" s="71" t="s">
-        <v>336</v>
-      </c>
-      <c r="G169" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A170" s="107" t="s">
+      <c r="D177" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E177" s="106"/>
+      <c r="F177" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="G177" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A178" s="105"/>
+      <c r="B178" s="104"/>
+      <c r="C178" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E178" s="106"/>
+      <c r="F178" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="G178" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A179" s="105"/>
+      <c r="B179" s="104"/>
+      <c r="C179" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E179" s="106"/>
+      <c r="F179" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G179" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="105"/>
+      <c r="B180" s="104"/>
+      <c r="C180" s="106"/>
+      <c r="D180" s="106"/>
+      <c r="E180" s="106"/>
+      <c r="F180" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="G180" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A181" s="105"/>
+      <c r="B181" s="104"/>
+      <c r="C181" s="106"/>
+      <c r="D181" s="106"/>
+      <c r="E181" s="106"/>
+      <c r="F181" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="G181" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A182" s="105"/>
+      <c r="B182" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C182" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D182" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E182" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F182" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G182" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A183" s="105"/>
+      <c r="B183" s="104"/>
+      <c r="C183" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D183" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E183" s="106"/>
+      <c r="F183" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="G183" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A184" s="105"/>
+      <c r="B184" s="104"/>
+      <c r="C184" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D184" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E184" s="106"/>
+      <c r="F184" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="G184" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A185" s="105"/>
+      <c r="B185" s="104"/>
+      <c r="C185" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D185" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E185" s="106"/>
+      <c r="F185" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="G185" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="105"/>
+      <c r="B186" s="104"/>
+      <c r="C186" s="106"/>
+      <c r="D186" s="106"/>
+      <c r="E186" s="106"/>
+      <c r="F186" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="G186" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A187" s="105"/>
+      <c r="B187" s="104"/>
+      <c r="C187" s="106"/>
+      <c r="D187" s="106"/>
+      <c r="E187" s="106"/>
+      <c r="F187" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="G187" s="72">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A188" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C170" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="D170" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E170" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="F170" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="G170" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A171" s="107"/>
-      <c r="B171" s="108"/>
-      <c r="C171" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="D171" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E171" s="109"/>
-      <c r="F171" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="G171" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A172" s="107"/>
-      <c r="B172" s="108"/>
-      <c r="C172" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="D172" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E172" s="109"/>
-      <c r="F172" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="G172" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A173" s="107"/>
-      <c r="B173" s="108"/>
-      <c r="C173" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="D173" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E173" s="109"/>
-      <c r="F173" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="G173" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="107"/>
-      <c r="B174" s="108"/>
-      <c r="C174" s="109"/>
-      <c r="D174" s="109"/>
-      <c r="E174" s="109"/>
-      <c r="F174" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="G174" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" s="107"/>
-      <c r="B175" s="108"/>
-      <c r="C175" s="109"/>
-      <c r="D175" s="109"/>
-      <c r="E175" s="109"/>
-      <c r="F175" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="G175" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A176" s="107"/>
-      <c r="B176" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="C176" s="71" t="s">
+      <c r="B188" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C188" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D188" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E188" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="F188" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="G188" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A189" s="105"/>
+      <c r="B189" s="104"/>
+      <c r="C189" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D176" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E176" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="F176" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="G176" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A177" s="107"/>
-      <c r="B177" s="108"/>
-      <c r="C177" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D177" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E177" s="109"/>
-      <c r="F177" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="G177" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A178" s="107"/>
-      <c r="B178" s="108"/>
-      <c r="C178" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="D178" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E178" s="109"/>
-      <c r="F178" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="G178" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A179" s="107"/>
-      <c r="B179" s="108"/>
-      <c r="C179" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D179" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E179" s="109"/>
-      <c r="F179" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="G179" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="107"/>
-      <c r="B180" s="108"/>
-      <c r="C180" s="109"/>
-      <c r="D180" s="109"/>
-      <c r="E180" s="109"/>
-      <c r="F180" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="G180" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A181" s="107"/>
-      <c r="B181" s="108"/>
-      <c r="C181" s="109"/>
-      <c r="D181" s="109"/>
-      <c r="E181" s="109"/>
-      <c r="F181" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="G181" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A182" s="107"/>
-      <c r="B182" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="C182" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="D182" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E182" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="F182" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="G182" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A183" s="107"/>
-      <c r="B183" s="108"/>
-      <c r="C183" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="D183" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E183" s="109"/>
-      <c r="F183" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="G183" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A184" s="107"/>
-      <c r="B184" s="108"/>
-      <c r="C184" s="71" t="s">
+      <c r="D189" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E189" s="107"/>
+      <c r="F189" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G189" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A190" s="105"/>
+      <c r="B190" s="104"/>
+      <c r="C190" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D184" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E184" s="109"/>
-      <c r="F184" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="G184" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A185" s="107"/>
-      <c r="B185" s="108"/>
-      <c r="C185" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D185" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E185" s="109"/>
-      <c r="F185" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="G185" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="107"/>
-      <c r="B186" s="108"/>
-      <c r="C186" s="109"/>
-      <c r="D186" s="109"/>
-      <c r="E186" s="109"/>
-      <c r="F186" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G186" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A187" s="107"/>
-      <c r="B187" s="108"/>
-      <c r="C187" s="109"/>
-      <c r="D187" s="109"/>
-      <c r="E187" s="109"/>
-      <c r="F187" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="G187" s="72">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A188" s="107" t="s">
+      <c r="D190" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E190" s="107"/>
+      <c r="F190" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="C188" s="71" t="s">
+      <c r="G190" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" s="105"/>
+      <c r="B191" s="104"/>
+      <c r="C191" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="D188" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E188" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="F188" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="G188" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A189" s="107"/>
-      <c r="B189" s="108"/>
-      <c r="C189" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D189" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E189" s="110"/>
-      <c r="F189" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="G189" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A190" s="107"/>
-      <c r="B190" s="108"/>
-      <c r="C190" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="D190" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E190" s="110"/>
-      <c r="F190" s="71" t="s">
+      <c r="D191" s="72">
+        <v>43480</v>
+      </c>
+      <c r="E191" s="107"/>
+      <c r="F191" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="G191" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="105"/>
+      <c r="B192" s="104"/>
+      <c r="C192" s="106"/>
+      <c r="D192" s="106"/>
+      <c r="E192" s="107"/>
+      <c r="F192" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G190" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A191" s="107"/>
-      <c r="B191" s="108"/>
-      <c r="C191" s="71" t="s">
+      <c r="G192" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A193" s="105"/>
+      <c r="B193" s="104"/>
+      <c r="C193" s="106"/>
+      <c r="D193" s="106"/>
+      <c r="E193" s="107"/>
+      <c r="F193" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="D191" s="72">
-        <v>43480</v>
-      </c>
-      <c r="E191" s="110"/>
-      <c r="F191" s="71" t="s">
+      <c r="G193" s="72">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="G191" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="107"/>
-      <c r="B192" s="108"/>
-      <c r="C192" s="109"/>
-      <c r="D192" s="109"/>
-      <c r="E192" s="110"/>
-      <c r="F192" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="G192" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A193" s="107"/>
-      <c r="B193" s="108"/>
-      <c r="C193" s="109"/>
-      <c r="D193" s="109"/>
-      <c r="E193" s="110"/>
-      <c r="F193" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="G193" s="72">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="106" t="s">
-        <v>174</v>
-      </c>
-      <c r="B194" s="105"/>
+      <c r="B194" s="110"/>
       <c r="C194" s="77"/>
       <c r="D194" s="77"/>
-      <c r="E194" s="104"/>
+      <c r="E194" s="108"/>
       <c r="F194" s="75"/>
       <c r="G194" s="76"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="106"/>
-      <c r="B195" s="105"/>
+      <c r="A195" s="111"/>
+      <c r="B195" s="110"/>
       <c r="C195" s="77"/>
       <c r="D195" s="77"/>
-      <c r="E195" s="104"/>
+      <c r="E195" s="108"/>
       <c r="F195" s="75"/>
       <c r="G195" s="76"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="106"/>
-      <c r="B196" s="105"/>
+      <c r="A196" s="111"/>
+      <c r="B196" s="110"/>
       <c r="C196" s="77"/>
       <c r="D196" s="77"/>
-      <c r="E196" s="104"/>
+      <c r="E196" s="108"/>
       <c r="F196" s="75"/>
       <c r="G196" s="76"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="106"/>
-      <c r="B197" s="105"/>
+      <c r="A197" s="111"/>
+      <c r="B197" s="110"/>
       <c r="C197" s="77"/>
       <c r="D197" s="77"/>
-      <c r="E197" s="104"/>
+      <c r="E197" s="108"/>
       <c r="F197" s="75"/>
       <c r="G197" s="76"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="106"/>
-      <c r="B198" s="105"/>
-      <c r="C198" s="104"/>
-      <c r="D198" s="104"/>
-      <c r="E198" s="104"/>
+      <c r="A198" s="111"/>
+      <c r="B198" s="110"/>
+      <c r="C198" s="108"/>
+      <c r="D198" s="108"/>
+      <c r="E198" s="108"/>
       <c r="F198" s="75"/>
       <c r="G198" s="76"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="106"/>
-      <c r="B199" s="105"/>
-      <c r="C199" s="104"/>
-      <c r="D199" s="104"/>
-      <c r="E199" s="104"/>
+      <c r="A199" s="111"/>
+      <c r="B199" s="110"/>
+      <c r="C199" s="108"/>
+      <c r="D199" s="108"/>
+      <c r="E199" s="108"/>
       <c r="F199" s="75"/>
       <c r="G199" s="76"/>
     </row>
     <row r="200" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="B200" s="105" t="s">
-        <v>176</v>
+      <c r="A200" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B200" s="110" t="s">
+        <v>425</v>
       </c>
       <c r="C200" s="77"/>
       <c r="D200" s="77"/>
-      <c r="E200" s="104" t="s">
-        <v>178</v>
+      <c r="E200" s="108" t="s">
+        <v>175</v>
       </c>
       <c r="F200" s="75"/>
       <c r="G200" s="76"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="106"/>
-      <c r="B201" s="105"/>
+      <c r="A201" s="111"/>
+      <c r="B201" s="110"/>
       <c r="C201" s="77"/>
       <c r="D201" s="77"/>
-      <c r="E201" s="104"/>
+      <c r="E201" s="108"/>
       <c r="F201" s="75"/>
       <c r="G201" s="76"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="106"/>
-      <c r="B202" s="105"/>
+      <c r="A202" s="111"/>
+      <c r="B202" s="110"/>
       <c r="C202" s="77"/>
       <c r="D202" s="77"/>
-      <c r="E202" s="104"/>
+      <c r="E202" s="108"/>
       <c r="F202" s="75"/>
       <c r="G202" s="76"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="106"/>
-      <c r="B203" s="105"/>
+      <c r="A203" s="111"/>
+      <c r="B203" s="110"/>
       <c r="C203" s="77"/>
       <c r="D203" s="77"/>
-      <c r="E203" s="104"/>
+      <c r="E203" s="108"/>
       <c r="F203" s="75"/>
       <c r="G203" s="76"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="106"/>
-      <c r="B204" s="105"/>
+      <c r="A204" s="111"/>
+      <c r="B204" s="110"/>
       <c r="C204" s="77"/>
       <c r="D204" s="77"/>
-      <c r="E204" s="104"/>
+      <c r="E204" s="108"/>
       <c r="F204" s="75"/>
       <c r="G204" s="76"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="106"/>
-      <c r="B205" s="105"/>
+      <c r="A205" s="111"/>
+      <c r="B205" s="110"/>
       <c r="C205" s="77"/>
       <c r="D205" s="77"/>
-      <c r="E205" s="104"/>
+      <c r="E205" s="108"/>
       <c r="F205" s="75"/>
       <c r="G205" s="76"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="106"/>
-      <c r="B206" s="105"/>
+      <c r="A206" s="111"/>
+      <c r="B206" s="110"/>
       <c r="C206" s="77"/>
       <c r="D206" s="77"/>
-      <c r="E206" s="104" t="s">
-        <v>179</v>
+      <c r="E206" s="108" t="s">
+        <v>176</v>
       </c>
       <c r="F206" s="75"/>
       <c r="G206" s="76"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="106"/>
-      <c r="B207" s="105"/>
+      <c r="A207" s="111"/>
+      <c r="B207" s="110"/>
       <c r="C207" s="77"/>
       <c r="D207" s="77"/>
-      <c r="E207" s="104"/>
+      <c r="E207" s="108"/>
       <c r="F207" s="75"/>
       <c r="G207" s="76"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="106"/>
-      <c r="B208" s="105"/>
+      <c r="A208" s="111"/>
+      <c r="B208" s="110"/>
       <c r="C208" s="77"/>
       <c r="D208" s="77"/>
-      <c r="E208" s="104"/>
+      <c r="E208" s="108"/>
       <c r="F208" s="75"/>
       <c r="G208" s="76"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="106"/>
-      <c r="B209" s="105"/>
+      <c r="A209" s="111"/>
+      <c r="B209" s="110"/>
       <c r="C209" s="77"/>
       <c r="D209" s="77"/>
-      <c r="E209" s="104"/>
+      <c r="E209" s="108"/>
       <c r="F209" s="75"/>
       <c r="G209" s="76"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="106"/>
-      <c r="B210" s="105"/>
+      <c r="A210" s="111"/>
+      <c r="B210" s="110"/>
       <c r="C210" s="77"/>
       <c r="D210" s="77"/>
-      <c r="E210" s="104"/>
+      <c r="E210" s="108"/>
       <c r="F210" s="75"/>
       <c r="G210" s="76"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="106"/>
-      <c r="B211" s="105"/>
+      <c r="A211" s="111"/>
+      <c r="B211" s="110"/>
       <c r="C211" s="77"/>
       <c r="D211" s="77"/>
-      <c r="E211" s="104"/>
+      <c r="E211" s="108"/>
       <c r="F211" s="75"/>
       <c r="G211" s="76"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="106"/>
-      <c r="B212" s="105"/>
+      <c r="A212" s="111"/>
+      <c r="B212" s="110"/>
       <c r="C212" s="77"/>
       <c r="D212" s="77"/>
-      <c r="E212" s="104" t="s">
-        <v>180</v>
+      <c r="E212" s="108" t="s">
+        <v>177</v>
       </c>
       <c r="F212" s="75"/>
       <c r="G212" s="76"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="106"/>
-      <c r="B213" s="105"/>
+      <c r="A213" s="111"/>
+      <c r="B213" s="110"/>
       <c r="C213" s="77"/>
       <c r="D213" s="77"/>
-      <c r="E213" s="104"/>
+      <c r="E213" s="108"/>
       <c r="F213" s="75"/>
       <c r="G213" s="76"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="106"/>
-      <c r="B214" s="105"/>
+      <c r="A214" s="111"/>
+      <c r="B214" s="110"/>
       <c r="C214" s="77"/>
       <c r="D214" s="77"/>
-      <c r="E214" s="104"/>
+      <c r="E214" s="108"/>
       <c r="F214" s="75"/>
       <c r="G214" s="76"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="106"/>
-      <c r="B215" s="105"/>
+      <c r="A215" s="111"/>
+      <c r="B215" s="110"/>
       <c r="C215" s="77"/>
       <c r="D215" s="77"/>
-      <c r="E215" s="104"/>
+      <c r="E215" s="108"/>
       <c r="F215" s="75"/>
       <c r="G215" s="76"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="106"/>
-      <c r="B216" s="105"/>
+      <c r="A216" s="111"/>
+      <c r="B216" s="110"/>
       <c r="C216" s="77"/>
       <c r="D216" s="77"/>
-      <c r="E216" s="104"/>
+      <c r="E216" s="108"/>
       <c r="F216" s="75"/>
       <c r="G216" s="76"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="106"/>
-      <c r="B217" s="105"/>
+      <c r="A217" s="111"/>
+      <c r="B217" s="110"/>
       <c r="C217" s="77"/>
       <c r="D217" s="77"/>
-      <c r="E217" s="104"/>
+      <c r="E217" s="108"/>
       <c r="F217" s="75"/>
       <c r="G217" s="76"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="106"/>
-      <c r="B218" s="105" t="s">
-        <v>177</v>
+      <c r="A218" s="111"/>
+      <c r="B218" s="110" t="s">
+        <v>426</v>
       </c>
       <c r="C218" s="77"/>
       <c r="D218" s="77"/>
-      <c r="E218" s="104" t="s">
-        <v>178</v>
+      <c r="E218" s="108" t="s">
+        <v>175</v>
       </c>
       <c r="F218" s="75"/>
       <c r="G218" s="76"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="106"/>
-      <c r="B219" s="105"/>
+      <c r="A219" s="111"/>
+      <c r="B219" s="110"/>
       <c r="C219" s="77"/>
       <c r="D219" s="77"/>
-      <c r="E219" s="104"/>
+      <c r="E219" s="108"/>
       <c r="F219" s="75"/>
       <c r="G219" s="76"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="106"/>
-      <c r="B220" s="105"/>
+      <c r="A220" s="111"/>
+      <c r="B220" s="110"/>
       <c r="C220" s="77"/>
       <c r="D220" s="77"/>
-      <c r="E220" s="104"/>
+      <c r="E220" s="108"/>
       <c r="F220" s="75"/>
       <c r="G220" s="76"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="106"/>
-      <c r="B221" s="105"/>
+      <c r="A221" s="111"/>
+      <c r="B221" s="110"/>
       <c r="C221" s="77"/>
       <c r="D221" s="77"/>
-      <c r="E221" s="104"/>
+      <c r="E221" s="108"/>
       <c r="F221" s="75"/>
       <c r="G221" s="76"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="106"/>
-      <c r="B222" s="105"/>
+      <c r="A222" s="111"/>
+      <c r="B222" s="110"/>
       <c r="C222" s="77"/>
       <c r="D222" s="77"/>
-      <c r="E222" s="104"/>
+      <c r="E222" s="108"/>
       <c r="F222" s="75"/>
       <c r="G222" s="76"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="106"/>
-      <c r="B223" s="105"/>
+      <c r="A223" s="111"/>
+      <c r="B223" s="110"/>
       <c r="C223" s="77"/>
       <c r="D223" s="77"/>
-      <c r="E223" s="104"/>
+      <c r="E223" s="108"/>
       <c r="F223" s="75"/>
       <c r="G223" s="76"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="106"/>
-      <c r="B224" s="105"/>
+      <c r="A224" s="111"/>
+      <c r="B224" s="110"/>
       <c r="C224" s="77"/>
       <c r="D224" s="77"/>
-      <c r="E224" s="104" t="s">
-        <v>179</v>
+      <c r="E224" s="108" t="s">
+        <v>176</v>
       </c>
       <c r="F224" s="75"/>
       <c r="G224" s="76"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="106"/>
-      <c r="B225" s="105"/>
+      <c r="A225" s="111"/>
+      <c r="B225" s="110"/>
       <c r="C225" s="77"/>
       <c r="D225" s="77"/>
-      <c r="E225" s="104"/>
+      <c r="E225" s="108"/>
       <c r="F225" s="75"/>
       <c r="G225" s="76"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="106"/>
-      <c r="B226" s="105"/>
+      <c r="A226" s="111"/>
+      <c r="B226" s="110"/>
       <c r="C226" s="77"/>
       <c r="D226" s="77"/>
-      <c r="E226" s="104"/>
+      <c r="E226" s="108"/>
       <c r="F226" s="75"/>
       <c r="G226" s="76"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="106"/>
-      <c r="B227" s="105"/>
+      <c r="A227" s="111"/>
+      <c r="B227" s="110"/>
       <c r="C227" s="77"/>
       <c r="D227" s="77"/>
-      <c r="E227" s="104"/>
+      <c r="E227" s="108"/>
       <c r="F227" s="75"/>
       <c r="G227" s="76"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="106"/>
-      <c r="B228" s="105"/>
+      <c r="A228" s="111"/>
+      <c r="B228" s="110"/>
       <c r="C228" s="77"/>
       <c r="D228" s="77"/>
-      <c r="E228" s="104"/>
+      <c r="E228" s="108"/>
       <c r="F228" s="75"/>
       <c r="G228" s="76"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="106"/>
-      <c r="B229" s="105"/>
+      <c r="A229" s="111"/>
+      <c r="B229" s="110"/>
       <c r="C229" s="77"/>
       <c r="D229" s="77"/>
-      <c r="E229" s="104"/>
+      <c r="E229" s="108"/>
       <c r="F229" s="75"/>
       <c r="G229" s="76"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="106"/>
-      <c r="B230" s="105"/>
+      <c r="A230" s="111"/>
+      <c r="B230" s="110"/>
       <c r="C230" s="77"/>
       <c r="D230" s="77"/>
-      <c r="E230" s="104" t="s">
-        <v>180</v>
+      <c r="E230" s="108" t="s">
+        <v>177</v>
       </c>
       <c r="F230" s="75"/>
       <c r="G230" s="78"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="106"/>
-      <c r="B231" s="105"/>
+      <c r="A231" s="111"/>
+      <c r="B231" s="110"/>
       <c r="C231" s="78"/>
       <c r="D231" s="78"/>
-      <c r="E231" s="104"/>
+      <c r="E231" s="108"/>
       <c r="F231" s="78"/>
       <c r="G231" s="78"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="106"/>
-      <c r="B232" s="105"/>
+      <c r="A232" s="111"/>
+      <c r="B232" s="110"/>
       <c r="C232" s="78"/>
       <c r="D232" s="78"/>
-      <c r="E232" s="104"/>
+      <c r="E232" s="108"/>
       <c r="F232" s="78"/>
       <c r="G232" s="78"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="106"/>
-      <c r="B233" s="105"/>
+      <c r="A233" s="111"/>
+      <c r="B233" s="110"/>
       <c r="C233" s="78"/>
       <c r="D233" s="78"/>
-      <c r="E233" s="104"/>
+      <c r="E233" s="108"/>
       <c r="F233" s="78"/>
       <c r="G233" s="78"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="106"/>
-      <c r="B234" s="105"/>
+      <c r="A234" s="111"/>
+      <c r="B234" s="110"/>
       <c r="C234" s="78"/>
       <c r="D234" s="78"/>
-      <c r="E234" s="104"/>
+      <c r="E234" s="108"/>
       <c r="F234" s="78"/>
       <c r="G234" s="78"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="106"/>
-      <c r="B235" s="105"/>
+      <c r="A235" s="111"/>
+      <c r="B235" s="110"/>
       <c r="C235" s="78"/>
       <c r="D235" s="78"/>
-      <c r="E235" s="104"/>
+      <c r="E235" s="108"/>
       <c r="F235" s="78"/>
       <c r="G235" s="78"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="106"/>
-      <c r="B236" s="105" t="s">
-        <v>117</v>
+      <c r="A236" s="111"/>
+      <c r="B236" s="110" t="s">
+        <v>424</v>
       </c>
       <c r="C236" s="78"/>
       <c r="D236" s="78"/>
-      <c r="E236" s="104" t="s">
-        <v>178</v>
+      <c r="E236" s="108" t="s">
+        <v>175</v>
       </c>
       <c r="F236" s="78"/>
       <c r="G236" s="78"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="106"/>
-      <c r="B237" s="105"/>
+      <c r="A237" s="111"/>
+      <c r="B237" s="110"/>
       <c r="C237" s="78"/>
       <c r="D237" s="78"/>
-      <c r="E237" s="104"/>
+      <c r="E237" s="108"/>
       <c r="F237" s="78"/>
       <c r="G237" s="78"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="106"/>
-      <c r="B238" s="105"/>
+      <c r="A238" s="111"/>
+      <c r="B238" s="110"/>
       <c r="C238" s="78"/>
       <c r="D238" s="78"/>
-      <c r="E238" s="104"/>
+      <c r="E238" s="108"/>
       <c r="F238" s="78"/>
       <c r="G238" s="78"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="106"/>
-      <c r="B239" s="105"/>
+      <c r="A239" s="111"/>
+      <c r="B239" s="110"/>
       <c r="C239" s="78"/>
       <c r="D239" s="78"/>
-      <c r="E239" s="104"/>
+      <c r="E239" s="108"/>
       <c r="F239" s="78"/>
       <c r="G239" s="78"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="106"/>
-      <c r="B240" s="105"/>
+      <c r="A240" s="111"/>
+      <c r="B240" s="110"/>
       <c r="C240" s="78"/>
       <c r="D240" s="78"/>
-      <c r="E240" s="104"/>
+      <c r="E240" s="108"/>
       <c r="F240" s="78"/>
       <c r="G240" s="78"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="106"/>
-      <c r="B241" s="105"/>
+      <c r="A241" s="111"/>
+      <c r="B241" s="110"/>
       <c r="C241" s="78"/>
       <c r="D241" s="78"/>
-      <c r="E241" s="104"/>
+      <c r="E241" s="108"/>
       <c r="F241" s="78"/>
       <c r="G241" s="78"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="106"/>
-      <c r="B242" s="105"/>
+      <c r="A242" s="111"/>
+      <c r="B242" s="110"/>
       <c r="C242" s="78"/>
       <c r="D242" s="78"/>
-      <c r="E242" s="104" t="s">
-        <v>179</v>
+      <c r="E242" s="108" t="s">
+        <v>176</v>
       </c>
       <c r="F242" s="78"/>
       <c r="G242" s="78"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="106"/>
-      <c r="B243" s="105"/>
+      <c r="A243" s="111"/>
+      <c r="B243" s="110"/>
       <c r="C243" s="78"/>
       <c r="D243" s="78"/>
-      <c r="E243" s="104"/>
+      <c r="E243" s="108"/>
       <c r="F243" s="78"/>
       <c r="G243" s="78"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="106"/>
-      <c r="B244" s="105"/>
+      <c r="A244" s="111"/>
+      <c r="B244" s="110"/>
       <c r="C244" s="78"/>
       <c r="D244" s="78"/>
-      <c r="E244" s="104"/>
+      <c r="E244" s="108"/>
       <c r="F244" s="78"/>
       <c r="G244" s="78"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="106"/>
-      <c r="B245" s="105"/>
+      <c r="A245" s="111"/>
+      <c r="B245" s="110"/>
       <c r="C245" s="78"/>
       <c r="D245" s="78"/>
-      <c r="E245" s="104"/>
+      <c r="E245" s="108"/>
       <c r="F245" s="78"/>
       <c r="G245" s="78"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="106"/>
-      <c r="B246" s="105"/>
+      <c r="A246" s="111"/>
+      <c r="B246" s="110"/>
       <c r="C246" s="78"/>
       <c r="D246" s="78"/>
-      <c r="E246" s="104"/>
+      <c r="E246" s="108"/>
       <c r="F246" s="78"/>
       <c r="G246" s="78"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="106"/>
-      <c r="B247" s="105"/>
+      <c r="A247" s="111"/>
+      <c r="B247" s="110"/>
       <c r="C247" s="78"/>
       <c r="D247" s="78"/>
-      <c r="E247" s="104"/>
+      <c r="E247" s="108"/>
       <c r="F247" s="78"/>
       <c r="G247" s="78"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="106"/>
-      <c r="B248" s="105"/>
+      <c r="A248" s="111"/>
+      <c r="B248" s="110"/>
       <c r="C248" s="78"/>
       <c r="D248" s="78"/>
-      <c r="E248" s="104" t="s">
-        <v>180</v>
+      <c r="E248" s="108" t="s">
+        <v>177</v>
       </c>
       <c r="F248" s="78"/>
       <c r="G248" s="78"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="106"/>
-      <c r="B249" s="105"/>
+      <c r="A249" s="111"/>
+      <c r="B249" s="110"/>
       <c r="C249" s="78"/>
       <c r="D249" s="78"/>
-      <c r="E249" s="104"/>
+      <c r="E249" s="108"/>
       <c r="F249" s="78"/>
       <c r="G249" s="78"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="106"/>
-      <c r="B250" s="105"/>
+      <c r="A250" s="111"/>
+      <c r="B250" s="110"/>
       <c r="C250" s="78"/>
       <c r="D250" s="78"/>
-      <c r="E250" s="104"/>
+      <c r="E250" s="108"/>
       <c r="F250" s="78"/>
       <c r="G250" s="78"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="106"/>
-      <c r="B251" s="105"/>
+      <c r="A251" s="111"/>
+      <c r="B251" s="110"/>
       <c r="C251" s="78"/>
       <c r="D251" s="78"/>
-      <c r="E251" s="104"/>
+      <c r="E251" s="108"/>
       <c r="F251" s="78"/>
       <c r="G251" s="78"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="106"/>
-      <c r="B252" s="105"/>
+      <c r="A252" s="111"/>
+      <c r="B252" s="110"/>
       <c r="C252" s="78"/>
       <c r="D252" s="78"/>
-      <c r="E252" s="104"/>
+      <c r="E252" s="108"/>
       <c r="F252" s="78"/>
       <c r="G252" s="78"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="106"/>
-      <c r="B253" s="105"/>
+      <c r="A253" s="111"/>
+      <c r="B253" s="110"/>
       <c r="C253" s="78"/>
       <c r="D253" s="78"/>
-      <c r="E253" s="104"/>
+      <c r="E253" s="108"/>
       <c r="F253" s="78"/>
       <c r="G253" s="78"/>
     </row>
     <row r="276" spans="2:2" ht="85" x14ac:dyDescent="0.2">
       <c r="B276" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="E224:E229"/>
+    <mergeCell ref="E194:E199"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="C198:D199"/>
+    <mergeCell ref="A200:A253"/>
+    <mergeCell ref="E230:E235"/>
+    <mergeCell ref="B218:B235"/>
+    <mergeCell ref="B200:B217"/>
+    <mergeCell ref="B236:B253"/>
+    <mergeCell ref="E236:E241"/>
+    <mergeCell ref="E242:E247"/>
+    <mergeCell ref="E248:E253"/>
+    <mergeCell ref="E200:E205"/>
+    <mergeCell ref="E206:E211"/>
+    <mergeCell ref="E212:E217"/>
+    <mergeCell ref="E218:E223"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="B20:B37"/>
+    <mergeCell ref="A20:A73"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="A74:A91"/>
+    <mergeCell ref="A92:A163"/>
+    <mergeCell ref="E110:E115"/>
+    <mergeCell ref="E116:E121"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="E128:E133"/>
+    <mergeCell ref="E134:E139"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="B116:B139"/>
+    <mergeCell ref="B92:B115"/>
+    <mergeCell ref="B140:B163"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C186:D187"/>
+    <mergeCell ref="C192:D193"/>
+    <mergeCell ref="C96:D115"/>
+    <mergeCell ref="C120:D139"/>
+    <mergeCell ref="C180:D181"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C42:D55"/>
+    <mergeCell ref="C60:D73"/>
+    <mergeCell ref="C24:D37"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="E68:E73"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="E170:E175"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="C144:D163"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="C174:D175"/>
+    <mergeCell ref="E80:E85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E146:E151"/>
+    <mergeCell ref="E140:E145"/>
+    <mergeCell ref="E92:E97"/>
+    <mergeCell ref="E98:E103"/>
+    <mergeCell ref="E104:E109"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="E14:E19"/>
@@ -7622,81 +7766,6 @@
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E176:E181"/>
     <mergeCell ref="E164:E169"/>
-    <mergeCell ref="E170:E175"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="C144:D163"/>
-    <mergeCell ref="C168:D169"/>
-    <mergeCell ref="C174:D175"/>
-    <mergeCell ref="E80:E85"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="E146:E151"/>
-    <mergeCell ref="E140:E145"/>
-    <mergeCell ref="E92:E97"/>
-    <mergeCell ref="E98:E103"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="E56:E61"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="E68:E73"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C186:D187"/>
-    <mergeCell ref="C192:D193"/>
-    <mergeCell ref="C96:D115"/>
-    <mergeCell ref="C120:D139"/>
-    <mergeCell ref="C180:D181"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C42:D55"/>
-    <mergeCell ref="C60:D73"/>
-    <mergeCell ref="C24:D37"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="A74:A91"/>
-    <mergeCell ref="A92:A163"/>
-    <mergeCell ref="E110:E115"/>
-    <mergeCell ref="E116:E121"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="E128:E133"/>
-    <mergeCell ref="E134:E139"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="E74:E79"/>
-    <mergeCell ref="B116:B139"/>
-    <mergeCell ref="B92:B115"/>
-    <mergeCell ref="B140:B163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A170:A187"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="B20:B37"/>
-    <mergeCell ref="A20:A73"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="B38:B55"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="E194:E199"/>
-    <mergeCell ref="A194:A199"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="C198:D199"/>
-    <mergeCell ref="A200:A253"/>
-    <mergeCell ref="E230:E235"/>
-    <mergeCell ref="B218:B235"/>
-    <mergeCell ref="B200:B217"/>
-    <mergeCell ref="B236:B253"/>
-    <mergeCell ref="E236:E241"/>
-    <mergeCell ref="E242:E247"/>
-    <mergeCell ref="E248:E253"/>
-    <mergeCell ref="E200:E205"/>
-    <mergeCell ref="E206:E211"/>
-    <mergeCell ref="E212:E217"/>
-    <mergeCell ref="E218:E223"/>
-    <mergeCell ref="E224:E229"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
